--- a/assets/data/Summary/1640-SiteProgression.xlsx
+++ b/assets/data/Summary/1640-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3129" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1101" uniqueCount="830">
   <si>
     <t>Time</t>
   </si>
@@ -142,10 +142,22 @@
     <t>3.685 hr</t>
   </si>
   <si>
-    <t>3.9031 hr</t>
-  </si>
-  <si>
-    <t>4.1469 hr</t>
+    <t>5.3686 hr</t>
+  </si>
+  <si>
+    <t>5.1769 hr</t>
+  </si>
+  <si>
+    <t>3.1853 hr</t>
+  </si>
+  <si>
+    <t>3.8758 hr</t>
+  </si>
+  <si>
+    <t>5.3792 hr</t>
+  </si>
+  <si>
+    <t>5.5678 hr</t>
   </si>
   <si>
     <t>mean_MoveTime</t>
@@ -259,10 +271,22 @@
     <t>9.2125 min</t>
   </si>
   <si>
-    <t>23.418 min</t>
-  </si>
-  <si>
-    <t>31.102 min</t>
+    <t>17.895 min</t>
+  </si>
+  <si>
+    <t>18.272 min</t>
+  </si>
+  <si>
+    <t>8.6871 min</t>
+  </si>
+  <si>
+    <t>11.074 min</t>
+  </si>
+  <si>
+    <t>17.931 min</t>
+  </si>
+  <si>
+    <t>23.862 min</t>
   </si>
   <si>
     <t>sum_DrillTime</t>
@@ -376,10 +400,22 @@
     <t>3.27 hr</t>
   </si>
   <si>
-    <t>1.1131 hr</t>
-  </si>
-  <si>
-    <t>1.1583 hr</t>
+    <t>2.0119 hr</t>
+  </si>
+  <si>
+    <t>2.3806 hr</t>
+  </si>
+  <si>
+    <t>2.2381 hr</t>
+  </si>
+  <si>
+    <t>2.2683 hr</t>
+  </si>
+  <si>
+    <t>1.8236 hr</t>
+  </si>
+  <si>
+    <t>1.7553 hr</t>
   </si>
   <si>
     <t>mean_DrillTime</t>
@@ -493,10 +529,22 @@
     <t>7.848 min</t>
   </si>
   <si>
-    <t>6.0712 min</t>
-  </si>
-  <si>
-    <t>7.7222 min</t>
+    <t>6.3535 min</t>
+  </si>
+  <si>
+    <t>7.9352 min</t>
+  </si>
+  <si>
+    <t>5.8384 min</t>
+  </si>
+  <si>
+    <t>6.1864 min</t>
+  </si>
+  <si>
+    <t>5.7588 min</t>
+  </si>
+  <si>
+    <t>7.0211 min</t>
   </si>
   <si>
     <t>sum_GroutTime</t>
@@ -610,10 +658,22 @@
     <t>1.8953 hr</t>
   </si>
   <si>
-    <t>0.72333 hr</t>
-  </si>
-  <si>
-    <t>0.63972 hr</t>
+    <t>1.5367 hr</t>
+  </si>
+  <si>
+    <t>1.3986 hr</t>
+  </si>
+  <si>
+    <t>1.9489 hr</t>
+  </si>
+  <si>
+    <t>1.9411 hr</t>
+  </si>
+  <si>
+    <t>1.5939 hr</t>
+  </si>
+  <si>
+    <t>1.1764 hr</t>
   </si>
   <si>
     <t>mean_GroutTime</t>
@@ -727,10 +787,22 @@
     <t>5.1689 min</t>
   </si>
   <si>
-    <t>4.34 min</t>
-  </si>
-  <si>
-    <t>4.7979 min</t>
+    <t>4.8526 min</t>
+  </si>
+  <si>
+    <t>4.9363 min</t>
+  </si>
+  <si>
+    <t>5.0841 min</t>
+  </si>
+  <si>
+    <t>5.546 min</t>
+  </si>
+  <si>
+    <t>5.0333 min</t>
+  </si>
+  <si>
+    <t>5.0417 min</t>
   </si>
   <si>
     <t>sum_InstallTime</t>
@@ -844,10 +916,22 @@
     <t>4.6422 hr</t>
   </si>
   <si>
-    <t>1.9614 hr</t>
-  </si>
-  <si>
-    <t>1.7325 hr</t>
+    <t>3.7483 hr</t>
+  </si>
+  <si>
+    <t>3.4139 hr</t>
+  </si>
+  <si>
+    <t>4.5347 hr</t>
+  </si>
+  <si>
+    <t>4.1161 hr</t>
+  </si>
+  <si>
+    <t>3.6381 hr</t>
+  </si>
+  <si>
+    <t>2.7297 hr</t>
   </si>
   <si>
     <t>mean_InstallTime</t>
@@ -961,10 +1045,22 @@
     <t>11.141 min</t>
   </si>
   <si>
-    <t>10.698 min</t>
-  </si>
-  <si>
-    <t>11.55 min</t>
+    <t>11.837 min</t>
+  </si>
+  <si>
+    <t>11.38 min</t>
+  </si>
+  <si>
+    <t>11.83 min</t>
+  </si>
+  <si>
+    <t>11.226 min</t>
+  </si>
+  <si>
+    <t>11.489 min</t>
+  </si>
+  <si>
+    <t>10.919 min</t>
   </si>
   <si>
     <t>sum_DelayTime</t>
@@ -1072,10 +1168,22 @@
     <t>1.7944 hr</t>
   </si>
   <si>
-    <t>3.1703 hr</t>
-  </si>
-  <si>
-    <t>3.5008 hr</t>
+    <t>4.0033 hr</t>
+  </si>
+  <si>
+    <t>3.8542 hr</t>
+  </si>
+  <si>
+    <t>1.4625 hr</t>
+  </si>
+  <si>
+    <t>2.1861 hr</t>
+  </si>
+  <si>
+    <t>3.9844 hr</t>
+  </si>
+  <si>
+    <t>4.4978 hr</t>
   </si>
   <si>
     <t>mean_DelayTime</t>
@@ -1180,10 +1288,22 @@
     <t>4.4861 min</t>
   </si>
   <si>
-    <t>19.022 min</t>
-  </si>
-  <si>
-    <t>26.256 min</t>
+    <t>13.344 min</t>
+  </si>
+  <si>
+    <t>13.603 min</t>
+  </si>
+  <si>
+    <t>3.9886 min</t>
+  </si>
+  <si>
+    <t>6.246 min</t>
+  </si>
+  <si>
+    <t>13.281 min</t>
+  </si>
+  <si>
+    <t>19.276 min</t>
   </si>
   <si>
     <t>sum_CycleTime</t>
@@ -1294,10 +1414,22 @@
     <t>8.1544 hr</t>
   </si>
   <si>
-    <t>5.6708 hr</t>
-  </si>
-  <si>
-    <t>5.6842 hr</t>
+    <t>8.9233 hr</t>
+  </si>
+  <si>
+    <t>8.3956 hr</t>
+  </si>
+  <si>
+    <t>7.5297 hr</t>
+  </si>
+  <si>
+    <t>7.7681 hr</t>
+  </si>
+  <si>
+    <t>8.7972 hr</t>
+  </si>
+  <si>
+    <t>8.0522 hr</t>
   </si>
   <si>
     <t>mean_CycleTime</t>
@@ -1408,10 +1540,22 @@
     <t>20.386 min</t>
   </si>
   <si>
-    <t>34.025 min</t>
-  </si>
-  <si>
-    <t>42.631 min</t>
+    <t>29.744 min</t>
+  </si>
+  <si>
+    <t>29.631 min</t>
+  </si>
+  <si>
+    <t>20.536 min</t>
+  </si>
+  <si>
+    <t>22.194 min</t>
+  </si>
+  <si>
+    <t>29.324 min</t>
+  </si>
+  <si>
+    <t>34.51 min</t>
   </si>
   <si>
     <t>sum_PileLength</t>
@@ -1537,21 +1681,27 @@
     <t>8.4328 hr</t>
   </si>
   <si>
-    <t>5.8794 hr</t>
-  </si>
-  <si>
-    <t>5.8644 hr</t>
+    <t>8.5908 hr</t>
+  </si>
+  <si>
+    <t>9.1169 hr</t>
+  </si>
+  <si>
+    <t>7.72 hr</t>
+  </si>
+  <si>
+    <t>7.9919 hr</t>
+  </si>
+  <si>
+    <t>8.2975 hr</t>
+  </si>
+  <si>
+    <t>9.0172 hr</t>
   </si>
   <si>
     <t>PileWaste</t>
   </si>
   <si>
-    <t>LaborHours_results</t>
-  </si>
-  <si>
-    <t>LaborHours_right</t>
-  </si>
-  <si>
     <t>ConcreteDelivered</t>
   </si>
   <si>
@@ -1576,21 +1726,45 @@
     <t xml:space="preserve"> hr</t>
   </si>
   <si>
+    <t>9 hr</t>
+  </si>
+  <si>
+    <t>9.75 hr</t>
+  </si>
+  <si>
+    <t>10.5 hr</t>
+  </si>
+  <si>
     <t>11.5 hr</t>
   </si>
   <si>
     <t>12 hr</t>
   </si>
   <si>
+    <t>11 hr</t>
+  </si>
+  <si>
+    <t>8.5 hr</t>
+  </si>
+  <si>
+    <t>10 hr</t>
+  </si>
+  <si>
+    <t>4.5 hr</t>
+  </si>
+  <si>
+    <t>12.5 hr</t>
+  </si>
+  <si>
+    <t>5.5 hr</t>
+  </si>
+  <si>
+    <t>7 hr</t>
+  </si>
+  <si>
     <t>9.5 hr</t>
   </si>
   <si>
-    <t>7 hr</t>
-  </si>
-  <si>
-    <t>11 hr</t>
-  </si>
-  <si>
     <t>RigWaste</t>
   </si>
   <si>
@@ -1696,10 +1870,22 @@
     <t>54.076 hr</t>
   </si>
   <si>
-    <t>50.382 hr</t>
-  </si>
-  <si>
-    <t>58.222 hr</t>
+    <t>51.847 hr</t>
+  </si>
+  <si>
+    <t>59.252 hr</t>
+  </si>
+  <si>
+    <t>55.032 hr</t>
+  </si>
+  <si>
+    <t>63.128 hr</t>
+  </si>
+  <si>
+    <t>60.412 hr</t>
+  </si>
+  <si>
+    <t>68.696 hr</t>
   </si>
   <si>
     <t>HoursDrilled</t>
@@ -1807,10 +1993,22 @@
     <t>44.309 hr</t>
   </si>
   <si>
-    <t>36.522 hr</t>
-  </si>
-  <si>
-    <t>45.467 hr</t>
+    <t>37.421 hr</t>
+  </si>
+  <si>
+    <t>46.689 hr</t>
+  </si>
+  <si>
+    <t>39.659 hr</t>
+  </si>
+  <si>
+    <t>48.958 hr</t>
+  </si>
+  <si>
+    <t>41.483 hr</t>
+  </si>
+  <si>
+    <t>50.713 hr</t>
   </si>
   <si>
     <t>HoursGrouted</t>
@@ -1918,10 +2116,22 @@
     <t>32.557 hr</t>
   </si>
   <si>
-    <t>32.643 hr</t>
-  </si>
-  <si>
-    <t>33.197 hr</t>
+    <t>33.456 hr</t>
+  </si>
+  <si>
+    <t>33.956 hr</t>
+  </si>
+  <si>
+    <t>35.405 hr</t>
+  </si>
+  <si>
+    <t>35.897 hr</t>
+  </si>
+  <si>
+    <t>36.999 hr</t>
+  </si>
+  <si>
+    <t>37.073 hr</t>
   </si>
   <si>
     <t>HoursDelayed</t>
@@ -2023,10 +2233,22 @@
     <t>27.821 hr</t>
   </si>
   <si>
-    <t>26.264 hr</t>
-  </si>
-  <si>
-    <t>31.321 hr</t>
+    <t>27.097 hr</t>
+  </si>
+  <si>
+    <t>31.675 hr</t>
+  </si>
+  <si>
+    <t>28.559 hr</t>
+  </si>
+  <si>
+    <t>33.861 hr</t>
+  </si>
+  <si>
+    <t>32.544 hr</t>
+  </si>
+  <si>
+    <t>38.359 hr</t>
   </si>
   <si>
     <t>HoursTurn</t>
@@ -2134,10 +2356,22 @@
     <t>108.2 hr</t>
   </si>
   <si>
-    <t>140.58 hr</t>
-  </si>
-  <si>
-    <t>114.06 hr</t>
+    <t>143.3 hr</t>
+  </si>
+  <si>
+    <t>117.32 hr</t>
+  </si>
+  <si>
+    <t>151.02 hr</t>
+  </si>
+  <si>
+    <t>125.31 hr</t>
+  </si>
+  <si>
+    <t>159.31 hr</t>
+  </si>
+  <si>
+    <t>134.33 hr</t>
   </si>
   <si>
     <t>HoursCycle</t>
@@ -2242,10 +2476,22 @@
     <t>120.02 hr</t>
   </si>
   <si>
-    <t>120.34 hr</t>
-  </si>
-  <si>
-    <t>125.71 hr</t>
+    <t>123.6 hr</t>
+  </si>
+  <si>
+    <t>128.42 hr</t>
+  </si>
+  <si>
+    <t>131.12 hr</t>
+  </si>
+  <si>
+    <t>136.18 hr</t>
+  </si>
+  <si>
+    <t>139.92 hr</t>
+  </si>
+  <si>
+    <t>144.24 hr</t>
   </si>
   <si>
     <t>DaysRigDrilled</t>
@@ -2258,345 +2504,6 @@
   </si>
   <si>
     <t>AverageRigWaste</t>
-  </si>
-  <si>
-    <t>5.3267 hr</t>
-  </si>
-  <si>
-    <t>5.1769 hr</t>
-  </si>
-  <si>
-    <t>16.821 min</t>
-  </si>
-  <si>
-    <t>18.272 min</t>
-  </si>
-  <si>
-    <t>2.0378 hr</t>
-  </si>
-  <si>
-    <t>2.3806 hr</t>
-  </si>
-  <si>
-    <t>6.1133 min</t>
-  </si>
-  <si>
-    <t>7.9352 min</t>
-  </si>
-  <si>
-    <t>1.5367 hr</t>
-  </si>
-  <si>
-    <t>1.3986 hr</t>
-  </si>
-  <si>
-    <t>4.8526 min</t>
-  </si>
-  <si>
-    <t>4.9363 min</t>
-  </si>
-  <si>
-    <t>3.7903 hr</t>
-  </si>
-  <si>
-    <t>3.4139 hr</t>
-  </si>
-  <si>
-    <t>11.371 min</t>
-  </si>
-  <si>
-    <t>11.38 min</t>
-  </si>
-  <si>
-    <t>3.9006 hr</t>
-  </si>
-  <si>
-    <t>3.8542 hr</t>
-  </si>
-  <si>
-    <t>12.318 min</t>
-  </si>
-  <si>
-    <t>13.603 min</t>
-  </si>
-  <si>
-    <t>8.9233 hr</t>
-  </si>
-  <si>
-    <t>8.3956 hr</t>
-  </si>
-  <si>
-    <t>28.179 min</t>
-  </si>
-  <si>
-    <t>29.631 min</t>
-  </si>
-  <si>
-    <t>8.5908 hr</t>
-  </si>
-  <si>
-    <t>9.1169 hr</t>
-  </si>
-  <si>
-    <t>51.805 hr</t>
-  </si>
-  <si>
-    <t>59.252 hr</t>
-  </si>
-  <si>
-    <t>37.447 hr</t>
-  </si>
-  <si>
-    <t>46.689 hr</t>
-  </si>
-  <si>
-    <t>33.456 hr</t>
-  </si>
-  <si>
-    <t>33.956 hr</t>
-  </si>
-  <si>
-    <t>26.994 hr</t>
-  </si>
-  <si>
-    <t>31.675 hr</t>
-  </si>
-  <si>
-    <t>143.3 hr</t>
-  </si>
-  <si>
-    <t>117.32 hr</t>
-  </si>
-  <si>
-    <t>123.6 hr</t>
-  </si>
-  <si>
-    <t>128.42 hr</t>
-  </si>
-  <si>
-    <t>3.1853 hr</t>
-  </si>
-  <si>
-    <t>3.8758 hr</t>
-  </si>
-  <si>
-    <t>0.2725 hr</t>
-  </si>
-  <si>
-    <t>0.48806 hr</t>
-  </si>
-  <si>
-    <t>8.6871 min</t>
-  </si>
-  <si>
-    <t>11.074 min</t>
-  </si>
-  <si>
-    <t>4.0875 min</t>
-  </si>
-  <si>
-    <t>7.3208 min</t>
-  </si>
-  <si>
-    <t>2.2381 hr</t>
-  </si>
-  <si>
-    <t>2.2683 hr</t>
-  </si>
-  <si>
-    <t>0.45694 hr</t>
-  </si>
-  <si>
-    <t>0.61278 hr</t>
-  </si>
-  <si>
-    <t>5.8384 min</t>
-  </si>
-  <si>
-    <t>6.1864 min</t>
-  </si>
-  <si>
-    <t>7.3533 min</t>
-  </si>
-  <si>
-    <t>1.9489 hr</t>
-  </si>
-  <si>
-    <t>1.9411 hr</t>
-  </si>
-  <si>
-    <t>0.40389 hr</t>
-  </si>
-  <si>
-    <t>0.30972 hr</t>
-  </si>
-  <si>
-    <t>5.0841 min</t>
-  </si>
-  <si>
-    <t>5.546 min</t>
-  </si>
-  <si>
-    <t>4.8467 min</t>
-  </si>
-  <si>
-    <t>4.6458 min</t>
-  </si>
-  <si>
-    <t>4.5347 hr</t>
-  </si>
-  <si>
-    <t>4.1161 hr</t>
-  </si>
-  <si>
-    <t>0.92333 hr</t>
-  </si>
-  <si>
-    <t>0.97167 hr</t>
-  </si>
-  <si>
-    <t>11.83 min</t>
-  </si>
-  <si>
-    <t>11.226 min</t>
-  </si>
-  <si>
-    <t>11.08 min</t>
-  </si>
-  <si>
-    <t>11.66 min</t>
-  </si>
-  <si>
-    <t>1.4625 hr</t>
-  </si>
-  <si>
-    <t>2.1861 hr</t>
-  </si>
-  <si>
-    <t>0.0094444 hr</t>
-  </si>
-  <si>
-    <t>0.20194 hr</t>
-  </si>
-  <si>
-    <t>3.9886 min</t>
-  </si>
-  <si>
-    <t>6.246 min</t>
-  </si>
-  <si>
-    <t>0.14167 min</t>
-  </si>
-  <si>
-    <t>3.0292 min</t>
-  </si>
-  <si>
-    <t>7.5297 hr</t>
-  </si>
-  <si>
-    <t>7.7681 hr</t>
-  </si>
-  <si>
-    <t>0.97583 hr</t>
-  </si>
-  <si>
-    <t>1.2144 hr</t>
-  </si>
-  <si>
-    <t>20.536 min</t>
-  </si>
-  <si>
-    <t>22.194 min</t>
-  </si>
-  <si>
-    <t>14.638 min</t>
-  </si>
-  <si>
-    <t>18.217 min</t>
-  </si>
-  <si>
-    <t>7.72 hr</t>
-  </si>
-  <si>
-    <t>7.9919 hr</t>
-  </si>
-  <si>
-    <t>1.4597 hr</t>
-  </si>
-  <si>
-    <t>1.1958 hr</t>
-  </si>
-  <si>
-    <t>54.991 hr</t>
-  </si>
-  <si>
-    <t>63.128 hr</t>
-  </si>
-  <si>
-    <t>55.263 hr</t>
-  </si>
-  <si>
-    <t>63.616 hr</t>
-  </si>
-  <si>
-    <t>39.685 hr</t>
-  </si>
-  <si>
-    <t>48.958 hr</t>
-  </si>
-  <si>
-    <t>40.142 hr</t>
-  </si>
-  <si>
-    <t>49.571 hr</t>
-  </si>
-  <si>
-    <t>35.405 hr</t>
-  </si>
-  <si>
-    <t>35.897 hr</t>
-  </si>
-  <si>
-    <t>35.809 hr</t>
-  </si>
-  <si>
-    <t>36.206 hr</t>
-  </si>
-  <si>
-    <t>28.457 hr</t>
-  </si>
-  <si>
-    <t>33.861 hr</t>
-  </si>
-  <si>
-    <t>28.466 hr</t>
-  </si>
-  <si>
-    <t>34.063 hr</t>
-  </si>
-  <si>
-    <t>151.02 hr</t>
-  </si>
-  <si>
-    <t>125.31 hr</t>
-  </si>
-  <si>
-    <t>152.47 hr</t>
-  </si>
-  <si>
-    <t>126.5 hr</t>
-  </si>
-  <si>
-    <t>131.12 hr</t>
-  </si>
-  <si>
-    <t>136.18 hr</t>
-  </si>
-  <si>
-    <t>132.1 hr</t>
-  </si>
-  <si>
-    <t>137.4 hr</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2677,9 +2584,7 @@
     <col min="27" max="27" width="15.85546875" customWidth="true"/>
     <col min="28" max="28" width="15.85546875" customWidth="true"/>
     <col min="29" max="29" width="9.7109375" customWidth="true"/>
-    <col min="30" max="30" width="15.85546875" customWidth="true"/>
-    <col min="31" max="31" width="9.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2696,88 +2601,82 @@
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2">
@@ -2794,37 +2693,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -2857,14 +2756,10 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF2" s="0"/>
+      <c r="AC2" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -2880,37 +2775,37 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="P3" s="0">
         <v>957.36999999999989</v>
@@ -2928,7 +2823,7 @@
         <v>37.905262700513319</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="V3" s="0">
         <v>1.2306998204597133</v>
@@ -2937,7 +2832,7 @@
         <v>72</v>
       </c>
       <c r="X3" s="0">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="Y3" s="1">
         <v>45839.32104166667</v>
@@ -2945,18 +2840,16 @@
       <c r="Z3" s="1">
         <v>45839.563680555555</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1.8994723917063097</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF3" s="0">
+      <c r="AA3" s="1">
+        <v>45839.270833333336</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>45839.645833333336</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD3" s="0">
         <v>1.8994723917063097</v>
       </c>
     </row>
@@ -2974,37 +2867,37 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -3037,14 +2930,10 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF4" s="0"/>
+      <c r="AC4" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -3060,37 +2949,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="P5" s="0">
         <v>1263.9100000000003</v>
@@ -3108,7 +2997,7 @@
         <v>50.042136874777562</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="V5" s="0">
         <v>1.2489474651411521</v>
@@ -3117,7 +3006,7 @@
         <v>72</v>
       </c>
       <c r="X5" s="0">
-        <v>0</v>
+        <v>102.25</v>
       </c>
       <c r="Y5" s="1">
         <v>45840.315416666665</v>
@@ -3125,18 +3014,16 @@
       <c r="Z5" s="1">
         <v>45840.61010416667</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1.438787479842607</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF5" s="0">
+      <c r="AA5" s="1">
+        <v>45840.270833333336</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>45840.677083333336</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD5" s="0">
         <v>1.438787479842607</v>
       </c>
     </row>
@@ -3154,37 +3041,37 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0">
         <v>60.189999999999998</v>
@@ -3202,7 +3089,7 @@
         <v>2.3831097297219426</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="V6" s="0">
         <v>1.3864237801527943</v>
@@ -3211,7 +3098,7 @@
         <v>9</v>
       </c>
       <c r="X6" s="0">
-        <v>0</v>
+        <v>78.25</v>
       </c>
       <c r="Y6" s="1">
         <v>45846.323067129626</v>
@@ -3219,18 +3106,16 @@
       <c r="Z6" s="1">
         <v>45846.667569444442</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>3.7765780936365467</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF6" s="0">
+      <c r="AA6" s="1">
+        <v>45846.270833333336</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>45846.708333333336</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD6" s="0">
         <v>3.7765780936365467</v>
       </c>
     </row>
@@ -3248,37 +3133,37 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="P7" s="0">
         <v>1444.0800000000002</v>
@@ -3296,7 +3181,7 @@
         <v>57.175628817027139</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="V7" s="0">
         <v>1.2680227834837414</v>
@@ -3305,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="X7" s="0">
-        <v>0</v>
+        <v>78.25</v>
       </c>
       <c r="Y7" s="1">
         <v>45846.528356481482</v>
@@ -3313,18 +3198,16 @@
       <c r="Z7" s="1">
         <v>45846.547233796293</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>1.5740972484625761</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF7" s="0">
+      <c r="AA7" s="1">
+        <v>45846.270833333336</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>45846.75</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD7" s="0">
         <v>1.5740972484625761</v>
       </c>
     </row>
@@ -3342,37 +3225,37 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="P8" s="0">
         <v>1080.4299999999998</v>
@@ -3390,7 +3273,7 @@
         <v>42.777591714296044</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="V8" s="0">
         <v>1.2592340485123177</v>
@@ -3399,7 +3282,7 @@
         <v>54</v>
       </c>
       <c r="X8" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="1">
         <v>45847.310914351852</v>
@@ -3407,18 +3290,16 @@
       <c r="Z8" s="1">
         <v>45847.692858796298</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>1.2623431529445703</v>
-      </c>
-      <c r="AE8" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF8" s="0">
+      <c r="AA8" s="1">
+        <v>45847.270833333336</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>45847.770833333336</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD8" s="0">
         <v>1.2623431529445703</v>
       </c>
     </row>
@@ -3436,37 +3317,37 @@
         <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="P9" s="0">
         <v>1443.3699999999999</v>
@@ -3484,7 +3365,7 @@
         <v>57.1475177037508</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="V9" s="0">
         <v>1.2909747083407932</v>
@@ -3493,7 +3374,7 @@
         <v>81</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="1">
         <v>45847.440555555557</v>
@@ -3501,18 +3382,16 @@
       <c r="Z9" s="1">
         <v>45847.727187500001</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>1.4173843983897778</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF9" s="0">
+      <c r="AA9" s="1">
+        <v>45847.270833333336</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>45847.770833333336</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD9" s="0">
         <v>1.4173843983897778</v>
       </c>
     </row>
@@ -3530,37 +3409,37 @@
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="P10" s="0">
         <v>667.83000000000004</v>
@@ -3578,7 +3457,7 @@
         <v>26.441471520189491</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="V10" s="0">
         <v>1.2718656741294321</v>
@@ -3587,7 +3466,7 @@
         <v>36</v>
       </c>
       <c r="X10" s="0">
-        <v>0</v>
+        <v>82.25</v>
       </c>
       <c r="Y10" s="1">
         <v>45848.325335648151</v>
@@ -3595,18 +3474,16 @@
       <c r="Z10" s="1">
         <v>45848.704259259262</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>1.3614975994249054</v>
-      </c>
-      <c r="AE10" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF10" s="0">
+      <c r="AA10" s="1">
+        <v>45848.270833333336</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>45848.729166666664</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD10" s="0">
         <v>1.3614975994249054</v>
       </c>
     </row>
@@ -3624,37 +3501,37 @@
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="P11" s="0">
         <v>1322.6800000000001</v>
@@ -3672,7 +3549,7 @@
         <v>52.369024377946829</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="V11" s="0">
         <v>1.3257073398762043</v>
@@ -3681,7 +3558,7 @@
         <v>72</v>
       </c>
       <c r="X11" s="0">
-        <v>0</v>
+        <v>82.25</v>
       </c>
       <c r="Y11" s="1">
         <v>45848.366261574076</v>
@@ -3689,18 +3566,16 @@
       <c r="Z11" s="1">
         <v>45848.56863425926</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>1.374858532409857</v>
-      </c>
-      <c r="AE11" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF11" s="0">
+      <c r="AA11" s="1">
+        <v>45848.270833333336</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>45848.75</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD11" s="0">
         <v>1.374858532409857</v>
       </c>
     </row>
@@ -3718,37 +3593,37 @@
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="P12" s="0">
         <v>1505.9900000000002</v>
@@ -3766,7 +3641,7 @@
         <v>59.626838708488926</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="V12" s="0">
         <v>1.2902914470467604</v>
@@ -3775,7 +3650,7 @@
         <v>78</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="Y12" s="1">
         <v>45849.357199074075</v>
@@ -3783,18 +3658,16 @@
       <c r="Z12" s="1">
         <v>45849.702256944445</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>1.308135760497652</v>
-      </c>
-      <c r="AE12" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF12" s="0">
+      <c r="AA12" s="1">
+        <v>45849.270833333336</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>45849.770833333336</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD12" s="0">
         <v>1.308135760497652</v>
       </c>
     </row>
@@ -3812,37 +3685,37 @@
         <v>15</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="P13" s="0">
         <v>1324.3999999999999</v>
@@ -3860,7 +3733,7 @@
         <v>52.437124539686678</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="V13" s="0">
         <v>1.3361525944652537</v>
@@ -3869,7 +3742,7 @@
         <v>72</v>
       </c>
       <c r="X13" s="0">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="Y13" s="1">
         <v>45849.364930555559</v>
@@ -3877,18 +3750,16 @@
       <c r="Z13" s="1">
         <v>45849.701377314814</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>1.3730730018482857</v>
-      </c>
-      <c r="AE13" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF13" s="0">
+      <c r="AA13" s="1">
+        <v>45849.270833333336</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>45849.770833333336</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD13" s="0">
         <v>1.3730730018482857</v>
       </c>
     </row>
@@ -3906,37 +3777,37 @@
         <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="P14" s="0">
         <v>841.06000000000006</v>
@@ -3954,7 +3825,7 @@
         <v>33.300187228442219</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="V14" s="0">
         <v>1.3075602158419721</v>
@@ -3963,7 +3834,7 @@
         <v>45</v>
       </c>
       <c r="X14" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y14" s="1">
         <v>45850.312789351854</v>
@@ -3971,18 +3842,16 @@
       <c r="Z14" s="1">
         <v>45850.510844907411</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>1.3513437534538779</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF14" s="0">
+      <c r="AA14" s="1">
+        <v>45850.270833333336</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>45850.625</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD14" s="0">
         <v>1.3513437534538779</v>
       </c>
     </row>
@@ -4000,37 +3869,37 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
@@ -4063,14 +3932,10 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF15" s="0"/>
+      <c r="AC15" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -4086,37 +3951,37 @@
         <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="P16" s="0">
         <v>1383.0799999999999</v>
@@ -4134,7 +3999,7 @@
         <v>54.760448662299787</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="V16" s="0">
         <v>1.2832071635011486</v>
@@ -4143,7 +4008,7 @@
         <v>63</v>
       </c>
       <c r="X16" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="1">
         <v>45852.317696759259</v>
@@ -4151,18 +4016,16 @@
       <c r="Z16" s="1">
         <v>45852.65247685185</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>1.1504653730745049</v>
-      </c>
-      <c r="AE16" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF16" s="0">
+      <c r="AA16" s="1">
+        <v>45852.270833333336</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>45852.770833333336</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD16" s="0">
         <v>1.1504653730745049</v>
       </c>
     </row>
@@ -4180,37 +4043,37 @@
         <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="P17" s="0">
         <v>1384.6400000000001</v>
@@ -4228,7 +4091,7 @@
         <v>54.822213925273161</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="V17" s="0">
         <v>1.2907176659529154</v>
@@ -4237,7 +4100,7 @@
         <v>72</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="1">
         <v>45852.438842592594</v>
@@ -4245,18 +4108,16 @@
       <c r="Z17" s="1">
         <v>45852.729699074072</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>1.3133362344348491</v>
-      </c>
-      <c r="AE17" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF17" s="0">
+      <c r="AA17" s="1">
+        <v>45852.270833333336</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>45852.770833333336</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD17" s="0">
         <v>1.3133362344348491</v>
       </c>
     </row>
@@ -4274,37 +4135,37 @@
         <v>19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="P18" s="0">
         <v>1444.1600000000001</v>
@@ -4322,7 +4183,7 @@
         <v>57.178796266410387</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="V18" s="0">
         <v>1.3279922796242345</v>
@@ -4331,7 +4192,7 @@
         <v>81</v>
       </c>
       <c r="X18" s="0">
-        <v>0</v>
+        <v>85.25</v>
       </c>
       <c r="Y18" s="1">
         <v>45853.326122685183</v>
@@ -4339,18 +4200,16 @@
       <c r="Z18" s="1">
         <v>45853.728796296295</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>1.4166090454685445</v>
-      </c>
-      <c r="AE18" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF18" s="0">
+      <c r="AA18" s="1">
+        <v>45853.270833333336</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>45853.770833333336</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD18" s="0">
         <v>1.4166090454685445</v>
       </c>
     </row>
@@ -4368,37 +4227,37 @@
         <v>20</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="P19" s="0">
         <v>1503.6700000000003</v>
@@ -4416,7 +4275,7 @@
         <v>59.53498267637471</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="V19" s="0">
         <v>1.3463680746447639</v>
@@ -4425,7 +4284,7 @@
         <v>81</v>
       </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>85.25</v>
       </c>
       <c r="Y19" s="1">
         <v>45853.328645833331</v>
@@ -4433,18 +4292,16 @@
       <c r="Z19" s="1">
         <v>45853.648645833331</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>1.3605446135813399</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF19" s="0">
+      <c r="AA19" s="1">
+        <v>45853.270833333336</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>45853.770833333336</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD19" s="0">
         <v>1.3605446135813399</v>
       </c>
     </row>
@@ -4462,37 +4319,37 @@
         <v>21</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="P20" s="0">
         <v>962.79999999999973</v>
@@ -4510,7 +4367,7 @@
         <v>38.120253327401343</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="V20" s="0">
         <v>1.2892621562058839</v>
@@ -4519,7 +4376,7 @@
         <v>63</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="Y20" s="1">
         <v>45854.344699074078</v>
@@ -4527,18 +4384,16 @@
       <c r="Z20" s="1">
         <v>45854.605590277781</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>1.6526647779309158</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF20" s="0">
+      <c r="AA20" s="1">
+        <v>45854.270833333336</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>45854.6875</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD20" s="0">
         <v>1.6526647779309158</v>
       </c>
     </row>
@@ -4556,37 +4411,37 @@
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="P21" s="0">
         <v>1023.98</v>
@@ -4604,7 +4459,7 @@
         <v>40.542560243240985</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="V21" s="0">
         <v>1.3361760992642595</v>
@@ -4613,7 +4468,7 @@
         <v>54</v>
       </c>
       <c r="X21" s="0">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="Y21" s="1">
         <v>45854.351793981485</v>
@@ -4621,18 +4476,16 @@
       <c r="Z21" s="1">
         <v>45854.606828703705</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>1.3319336439538882</v>
-      </c>
-      <c r="AE21" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF21" s="0">
+      <c r="AA21" s="1">
+        <v>45854.270833333336</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>45854.6875</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD21" s="0">
         <v>1.3319336439538882</v>
       </c>
     </row>
@@ -4650,37 +4503,37 @@
         <v>23</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="P22" s="0">
         <v>120.3</v>
@@ -4698,7 +4551,7 @@
         <v>4.7630520100606368</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="V22" s="0">
         <v>1.164379475236802</v>
@@ -4707,7 +4560,7 @@
         <v>18</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Y22" s="1">
         <v>45856.332777777781</v>
@@ -4715,18 +4568,16 @@
       <c r="Z22" s="1">
         <v>45856.35491898148</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>3.7790895337653154</v>
-      </c>
-      <c r="AE22" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF22" s="0">
+      <c r="AA22" s="1">
+        <v>45856.270833333336</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>45856.458333333336</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD22" s="0">
         <v>3.7790895337653154</v>
       </c>
     </row>
@@ -4744,37 +4595,37 @@
         <v>6</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4807,14 +4658,10 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF23" s="0"/>
+      <c r="AC23" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
@@ -4830,37 +4677,37 @@
         <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="P24" s="0">
         <v>1565.7000000000005</v>
@@ -4878,7 +4725,7 @@
         <v>61.990943741911387</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="V24" s="0">
         <v>1.2705888190366077</v>
@@ -4887,7 +4734,7 @@
         <v>81</v>
       </c>
       <c r="X24" s="0">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="Y24" s="1">
         <v>45859.322847222225</v>
@@ -4895,18 +4742,16 @@
       <c r="Z24" s="1">
         <v>45859.702638888892</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>1.3066424724429031</v>
-      </c>
-      <c r="AE24" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF24" s="0">
+      <c r="AA24" s="1">
+        <v>45859.270833333336</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>45859.75</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD24" s="0">
         <v>1.3066424724429031</v>
       </c>
     </row>
@@ -4924,37 +4769,37 @@
         <v>25</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="P25" s="0">
         <v>1503.5999999999997</v>
@@ -4972,7 +4817,7 @@
         <v>59.532211158164358</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="V25" s="0">
         <v>1.341559442296089</v>
@@ -4981,7 +4826,7 @@
         <v>81</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="Y25" s="1">
         <v>45859.325092592589</v>
@@ -4989,18 +4834,16 @@
       <c r="Z25" s="1">
         <v>45859.688368055555</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>1.3606079536471494</v>
-      </c>
-      <c r="AE25" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF25" s="0">
+      <c r="AA25" s="1">
+        <v>45859.270833333336</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>45859.770833333336</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD25" s="0">
         <v>1.3606079536471494</v>
       </c>
     </row>
@@ -5018,37 +4861,37 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="P26" s="0">
         <v>1567.1699999999996</v>
@@ -5066,7 +4909,7 @@
         <v>62.049145624328595</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="V26" s="0">
         <v>1.2475272499102614</v>
@@ -5075,7 +4918,7 @@
         <v>81</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>102.25</v>
       </c>
       <c r="Y26" s="1">
         <v>45860.31013888889</v>
@@ -5083,18 +4926,16 @@
       <c r="Z26" s="1">
         <v>45860.693437499998</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>1.3054168463560769</v>
-      </c>
-      <c r="AE26" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF26" s="0">
+      <c r="AA26" s="1">
+        <v>45860.270833333336</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>45860.75</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD26" s="0">
         <v>1.3054168463560769</v>
       </c>
     </row>
@@ -5112,37 +4953,37 @@
         <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="P27" s="0">
         <v>1436.25</v>
@@ -5160,7 +5001,7 @@
         <v>56.865614708641644</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="V27" s="0">
         <v>1.3085939610653958</v>
@@ -5169,7 +5010,7 @@
         <v>81</v>
       </c>
       <c r="X27" s="0">
-        <v>0</v>
+        <v>102.25</v>
       </c>
       <c r="Y27" s="1">
         <v>45860.314432870371</v>
@@ -5177,18 +5018,16 @@
       <c r="Z27" s="1">
         <v>45860.679502314815</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>1.4244108749200024</v>
-      </c>
-      <c r="AE27" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF27" s="0">
+      <c r="AA27" s="1">
+        <v>45860.270833333336</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>45860.791666666664</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD27" s="0">
         <v>1.4244108749200024</v>
       </c>
     </row>
@@ -5206,37 +5045,37 @@
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="P28" s="0">
         <v>843.30999999999995</v>
@@ -5254,16 +5093,16 @@
         <v>33.389271742346097</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="V28" s="0">
         <v>1.2793330842800392</v>
       </c>
       <c r="W28" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X28" s="0">
-        <v>0</v>
+        <v>124.5</v>
       </c>
       <c r="Y28" s="1">
         <v>45861.368402777778</v>
@@ -5271,19 +5110,17 @@
       <c r="Z28" s="1">
         <v>45861.578379629631</v>
       </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF28" s="0">
-        <v>0</v>
+      <c r="AA28" s="1">
+        <v>45861.229166666664</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>45861.666666666664</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>2.1563812638861983</v>
       </c>
     </row>
     <row r="29">
@@ -5300,37 +5137,37 @@
         <v>6</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
@@ -5363,14 +5200,10 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF29" s="0"/>
+      <c r="AC29" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="1">
@@ -5386,37 +5219,37 @@
         <v>29</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="P30" s="0">
         <v>1203.3899999999999</v>
@@ -5434,7 +5267,7 @@
         <v>47.645961416349692</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="V30" s="0">
         <v>1.3670833385187731</v>
@@ -5443,7 +5276,7 @@
         <v>63</v>
       </c>
       <c r="X30" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Y30" s="1">
         <v>45863.377604166664</v>
@@ -5451,18 +5284,16 @@
       <c r="Z30" s="1">
         <v>45863.70349537037</v>
       </c>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>1.3222526763492188</v>
-      </c>
-      <c r="AE30" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF30" s="0">
+      <c r="AA30" s="1">
+        <v>45863.291666666664</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>45863.708333333336</v>
+      </c>
+      <c r="AC30" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD30" s="0">
         <v>1.3222526763492188</v>
       </c>
     </row>
@@ -5480,37 +5311,37 @@
         <v>30</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="P31" s="0">
         <v>300.76999999999998</v>
@@ -5528,7 +5359,7 @@
         <v>11.908421887497402</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="V31" s="0">
         <v>1.3345177178081791</v>
@@ -5537,7 +5368,7 @@
         <v>18</v>
       </c>
       <c r="X31" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Y31" s="1">
         <v>45863.383553240739</v>
@@ -5545,18 +5376,16 @@
       <c r="Z31" s="1">
         <v>45863.453958333332</v>
       </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>1.5115352957807211</v>
-      </c>
-      <c r="AE31" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF31" s="0">
+      <c r="AA31" s="1">
+        <v>45863.291666666664</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>45863.520833333336</v>
+      </c>
+      <c r="AC31" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD31" s="0">
         <v>1.5115352957807211</v>
       </c>
     </row>
@@ -5574,37 +5403,37 @@
         <v>31</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="P32" s="0">
         <v>1081.9300000000001</v>
@@ -5622,7 +5451,7 @@
         <v>42.836981390231962</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="V32" s="0">
         <v>1.3676734003801554</v>
@@ -5631,7 +5460,7 @@
         <v>54</v>
       </c>
       <c r="X32" s="0">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Y32" s="1">
         <v>45864.329340277778</v>
@@ -5639,18 +5468,16 @@
       <c r="Z32" s="1">
         <v>45864.542500000003</v>
       </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>1.2605930261069591</v>
-      </c>
-      <c r="AE32" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF32" s="0">
+      <c r="AA32" s="1">
+        <v>45864.291666666664</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>45864.583333333336</v>
+      </c>
+      <c r="AC32" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD32" s="0">
         <v>1.2605930261069591</v>
       </c>
     </row>
@@ -5668,37 +5495,37 @@
         <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
@@ -5731,14 +5558,10 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF33" s="0"/>
+      <c r="AC33" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
@@ -5754,37 +5577,37 @@
         <v>32</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="P34" s="0">
         <v>1624.7900000000004</v>
@@ -5802,7 +5625,7 @@
         <v>64.330501042613662</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="V34" s="0">
         <v>1.2647344367192943</v>
@@ -5825,16 +5648,10 @@
       <c r="AB34" s="1">
         <v>45866.770833333336</v>
       </c>
-      <c r="AC34" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>1.2591227907014773</v>
-      </c>
-      <c r="AE34" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF34" s="0">
+      <c r="AC34" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD34" s="0">
         <v>1.2591227907014773</v>
       </c>
     </row>
@@ -5852,37 +5669,37 @@
         <v>33</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="P35" s="0">
         <v>1447.6000000000001</v>
@@ -5900,7 +5717,7 @@
         <v>57.314996589890093</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="V35" s="0">
         <v>1.3347641027949453</v>
@@ -5923,16 +5740,10 @@
       <c r="AB35" s="1">
         <v>45866.791666666664</v>
       </c>
-      <c r="AC35" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>1.4132426907321451</v>
-      </c>
-      <c r="AE35" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF35" s="0">
+      <c r="AC35" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD35" s="0">
         <v>1.4132426907321451</v>
       </c>
     </row>
@@ -5950,37 +5761,37 @@
         <v>34</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="P36" s="0">
         <v>722.63</v>
@@ -5998,7 +5809,7 @@
         <v>28.611174347715025</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="V36" s="0">
         <v>1.2682107892190668</v>
@@ -6021,16 +5832,10 @@
       <c r="AB36" s="1">
         <v>45867.6875</v>
       </c>
-      <c r="AC36" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>1.5728120577334441</v>
-      </c>
-      <c r="AE36" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF36" s="0">
+      <c r="AC36" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD36" s="0">
         <v>1.5728120577334441</v>
       </c>
     </row>
@@ -6048,37 +5853,37 @@
         <v>35</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="P37" s="0">
         <v>964.50000000000011</v>
@@ -6096,7 +5901,7 @@
         <v>38.187561626795386</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="V37" s="0">
         <v>1.3426361311329063</v>
@@ -6119,16 +5924,10 @@
       <c r="AB37" s="1">
         <v>45867.6875</v>
       </c>
-      <c r="AC37" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>1.4140730043918115</v>
-      </c>
-      <c r="AE37" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF37" s="0">
+      <c r="AC37" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD37" s="0">
         <v>1.4140730043918115</v>
       </c>
     </row>
@@ -6146,37 +5945,37 @@
         <v>36</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="P38" s="0">
         <v>361.29000000000002</v>
@@ -6194,7 +5993,7 @@
         <v>14.304597345925249</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="V38" s="0">
         <v>1.1713716642833745</v>
@@ -6217,16 +6016,10 @@
       <c r="AB38" s="1">
         <v>45868.541666666664</v>
       </c>
-      <c r="AC38" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>2.5166734252925211</v>
-      </c>
-      <c r="AE38" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF38" s="0">
+      <c r="AC38" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD38" s="0">
         <v>2.5166734252925211</v>
       </c>
     </row>
@@ -6244,37 +6037,37 @@
         <v>37</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="P39" s="0">
         <v>423.25</v>
@@ -6292,7 +6085,7 @@
         <v>16.757786893251573</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="V39" s="0">
         <v>1.3359759342097695</v>
@@ -6315,16 +6108,10 @@
       <c r="AB39" s="1">
         <v>45868.541666666664</v>
       </c>
-      <c r="AC39" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>1.6111912731670437</v>
-      </c>
-      <c r="AE39" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF39" s="0">
+      <c r="AC39" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD39" s="0">
         <v>1.6111912731670437</v>
       </c>
     </row>
@@ -6342,37 +6129,37 @@
         <v>38</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="P40" s="0">
         <v>1627.7299999999998</v>
@@ -6390,7 +6177,7 @@
         <v>64.44690480744805</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="V40" s="0">
         <v>1.2679429717244739</v>
@@ -6413,16 +6200,10 @@
       <c r="AB40" s="1">
         <v>45869.6875</v>
       </c>
-      <c r="AC40" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>1.2568485677009416</v>
-      </c>
-      <c r="AE40" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF40" s="0">
+      <c r="AC40" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD40" s="0">
         <v>1.2568485677009416</v>
       </c>
     </row>
@@ -6440,37 +6221,37 @@
         <v>39</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="P41" s="0">
         <v>1510.5899999999999</v>
@@ -6488,7 +6269,7 @@
         <v>59.80896704802575</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="V41" s="0">
         <v>1.3208052888886601</v>
@@ -6511,16 +6292,10 @@
       <c r="AB41" s="1">
         <v>45869.6875</v>
       </c>
-      <c r="AC41" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>1.3543119702261059</v>
-      </c>
-      <c r="AE41" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF41" s="0">
+      <c r="AC41" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD41" s="0">
         <v>1.3543119702261059</v>
       </c>
     </row>
@@ -6538,37 +6313,37 @@
         <v>40</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="P42" s="0">
         <v>1627.5099999999995</v>
@@ -6586,7 +6361,7 @@
         <v>64.438194321644104</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="V42" s="0">
         <v>1.2690299729974424</v>
@@ -6609,16 +6384,10 @@
       <c r="AB42" s="1">
         <v>45870.708333333336</v>
       </c>
-      <c r="AC42" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>1.3966871813751298</v>
-      </c>
-      <c r="AE42" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF42" s="0">
+      <c r="AC42" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD42" s="0">
         <v>1.3966871813751298</v>
       </c>
     </row>
@@ -6636,37 +6405,37 @@
         <v>41</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="P43" s="0">
         <v>1508.7499999999998</v>
@@ -6684,7 +6453,7 @@
         <v>59.736115712211017</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="V43" s="0">
         <v>1.316590458926058</v>
@@ -6707,16 +6476,10 @@
       <c r="AB43" s="1">
         <v>45870.708333333336</v>
       </c>
-      <c r="AC43" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1.3559636249238467</v>
-      </c>
-      <c r="AE43" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF43" s="0">
+      <c r="AC43" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD43" s="0">
         <v>1.3559636249238467</v>
       </c>
     </row>
@@ -6728,70 +6491,70 @@
         <v>2</v>
       </c>
       <c r="C44" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>748</v>
+        <v>42</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>750</v>
+        <v>85</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>752</v>
+        <v>128</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>754</v>
+        <v>171</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>756</v>
+        <v>214</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>758</v>
+        <v>257</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>760</v>
+        <v>300</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>762</v>
+        <v>343</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>764</v>
+        <v>384</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>766</v>
+        <v>424</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>768</v>
+        <v>466</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>770</v>
+        <v>508</v>
       </c>
       <c r="P44" s="0">
-        <v>1154.45</v>
+        <v>1144.8799999999999</v>
       </c>
       <c r="Q44" s="0">
-        <v>57.722500000000004</v>
+        <v>60.256842105263154</v>
       </c>
       <c r="R44" s="0">
-        <v>1.6070980528789272</v>
+        <v>1.2573293403596637</v>
       </c>
       <c r="S44" s="0">
-        <v>60.120999999999974</v>
+        <v>56.993999999999978</v>
       </c>
       <c r="T44" s="0">
-        <v>45.708274256147163</v>
+        <v>45.329368123676005</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>772</v>
+        <v>555</v>
       </c>
       <c r="V44" s="0">
-        <v>1.3153198404097368</v>
+        <v>1.2573305642491719</v>
       </c>
       <c r="W44" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X44" s="0">
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="Y44" s="1">
         <v>45873.30605324074</v>
@@ -6799,19 +6562,17 @@
       <c r="Z44" s="1">
         <v>45873.664004629631</v>
       </c>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF44" s="0">
-        <v>0</v>
+      <c r="AA44" s="1">
+        <v>45873.25</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>45873.708333333336</v>
+      </c>
+      <c r="AC44" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD44" s="0">
+        <v>1.588374225812198</v>
       </c>
     </row>
     <row r="45">
@@ -6825,40 +6586,40 @@
         <v>18</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>749</v>
+        <v>43</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>751</v>
+        <v>86</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>753</v>
+        <v>129</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>755</v>
+        <v>172</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>757</v>
+        <v>215</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>759</v>
+        <v>258</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>761</v>
+        <v>301</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>763</v>
+        <v>344</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>765</v>
+        <v>385</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>767</v>
+        <v>425</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>769</v>
+        <v>467</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>771</v>
+        <v>509</v>
       </c>
       <c r="P45" s="0">
         <v>1082.7199999999998</v>
@@ -6876,16 +6637,16 @@
         <v>42.868259952891549</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>773</v>
+        <v>556</v>
       </c>
       <c r="V45" s="0">
         <v>1.3340406179967317</v>
       </c>
       <c r="W45" s="0">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="Y45" s="1">
         <v>45873.308842592596</v>
@@ -6893,19 +6654,17 @@
       <c r="Z45" s="1">
         <v>45873.688715277778</v>
       </c>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF45" s="0">
-        <v>0</v>
+      <c r="AA45" s="1">
+        <v>45873.25</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>45873.708333333336</v>
+      </c>
+      <c r="AC45" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>1.2596732421456167</v>
       </c>
     </row>
     <row r="46">
@@ -6919,40 +6678,40 @@
         <v>23</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>786</v>
+        <v>44</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>790</v>
+        <v>87</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>794</v>
+        <v>130</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>798</v>
+        <v>173</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>801</v>
+        <v>216</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>805</v>
+        <v>259</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>809</v>
+        <v>302</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>813</v>
+        <v>345</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>817</v>
+        <v>386</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>821</v>
+        <v>426</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>825</v>
+        <v>468</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>829</v>
+        <v>510</v>
       </c>
       <c r="P46" s="0">
         <v>1386.1299999999997</v>
@@ -6970,16 +6729,16 @@
         <v>54.881207670036169</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>833</v>
+        <v>557</v>
       </c>
       <c r="V46" s="0">
         <v>1.2621077950115438</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X46" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Y46" s="1">
         <v>45874.307291666664</v>
@@ -6987,13 +6746,17 @@
       <c r="Z46" s="1">
         <v>45874.628958333335</v>
       </c>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
+      <c r="AA46" s="1">
+        <v>45874.25</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>45874.708333333336</v>
+      </c>
       <c r="AC46" s="0" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>1.311924483019536</v>
       </c>
     </row>
     <row r="47">
@@ -7007,40 +6770,40 @@
         <v>22</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>787</v>
+        <v>45</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>791</v>
+        <v>88</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>795</v>
+        <v>131</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>799</v>
+        <v>174</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>802</v>
+        <v>217</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>806</v>
+        <v>260</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>810</v>
+        <v>303</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>814</v>
+        <v>346</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>818</v>
+        <v>387</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>822</v>
+        <v>427</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>826</v>
+        <v>469</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>830</v>
+        <v>511</v>
       </c>
       <c r="P47" s="0">
         <v>1323.2700000000002</v>
@@ -7058,16 +6821,16 @@
         <v>52.392384317148291</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>834</v>
+        <v>558</v>
       </c>
       <c r="V47" s="0">
         <v>1.287477194999922</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X47" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Y47" s="1">
         <v>45874.310520833336</v>
@@ -7075,13 +6838,17 @@
       <c r="Z47" s="1">
         <v>45874.643518518518</v>
       </c>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
+      <c r="AA47" s="1">
+        <v>45874.25</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>45874.708333333336</v>
+      </c>
       <c r="AC47" s="0" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="AD47" s="0">
-        <v>0</v>
+        <v>1.3742455308802206</v>
       </c>
     </row>
     <row r="48">
@@ -7092,64 +6859,64 @@
         <v>2</v>
       </c>
       <c r="C48" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>788</v>
+        <v>46</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>792</v>
+        <v>89</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>796</v>
+        <v>132</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>803</v>
+        <v>218</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>807</v>
+        <v>261</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>811</v>
+        <v>304</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>815</v>
+        <v>347</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>819</v>
+        <v>388</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>823</v>
+        <v>428</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>827</v>
+        <v>470</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>831</v>
+        <v>512</v>
       </c>
       <c r="P48" s="0">
-        <v>301.68000000000001</v>
+        <v>1145.6300000000001</v>
       </c>
       <c r="Q48" s="0">
-        <v>60.335999999999999</v>
+        <v>60.296315789473688</v>
       </c>
       <c r="R48" s="0">
-        <v>1.2842810960921134</v>
+        <v>1.2682047503076752</v>
       </c>
       <c r="S48" s="0">
-        <v>15.339999999999998</v>
+        <v>57.524999999999984</v>
       </c>
       <c r="T48" s="0">
-        <v>11.944451624231862</v>
+        <v>45.359062961643943</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>835</v>
+        <v>559</v>
       </c>
       <c r="V48" s="0">
-        <v>1.2842782977897071</v>
+        <v>1.2682140292149262</v>
       </c>
       <c r="W48" s="0">
         <v>0</v>
@@ -7161,12 +6928,12 @@
         <v>45875.3200462963</v>
       </c>
       <c r="Z48" s="1">
-        <v>45875.380868055552</v>
+        <v>45875.665775462963</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="0" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -7180,64 +6947,64 @@
         <v>3</v>
       </c>
       <c r="C49" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>789</v>
+        <v>47</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>793</v>
+        <v>90</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>797</v>
+        <v>133</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>800</v>
+        <v>176</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>804</v>
+        <v>219</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>808</v>
+        <v>262</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>812</v>
+        <v>305</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>816</v>
+        <v>348</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>820</v>
+        <v>389</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>824</v>
+        <v>429</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>828</v>
+        <v>471</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>832</v>
+        <v>513</v>
       </c>
       <c r="P49" s="0">
-        <v>300.62</v>
+        <v>901.75</v>
       </c>
       <c r="Q49" s="0">
-        <v>60.124000000000002</v>
+        <v>60.116666666666667</v>
       </c>
       <c r="R49" s="0">
-        <v>1.1061916819030233</v>
+        <v>1.3028771223178701</v>
       </c>
       <c r="S49" s="0">
-        <v>13.166</v>
+        <v>46.515999999999991</v>
       </c>
       <c r="T49" s="0">
-        <v>11.902482919903813</v>
+        <v>35.703093516809467</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>836</v>
+        <v>560</v>
       </c>
       <c r="V49" s="0">
-        <v>1.1061557566264837</v>
+        <v>1.3028562910970074</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -7249,12 +7016,12 @@
         <v>45875.333993055552</v>
       </c>
       <c r="Z49" s="1">
-        <v>45875.383819444447</v>
+        <v>45875.709710648145</v>
       </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="0" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -7290,90 +7057,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H1" t="s">
+        <v>745</v>
+      </c>
+      <c r="I1" t="s">
+        <v>786</v>
+      </c>
+      <c r="J1" t="s">
+        <v>826</v>
+      </c>
+      <c r="K1" t="s">
+        <v>827</v>
+      </c>
+      <c r="L1" t="s">
+        <v>828</v>
+      </c>
+      <c r="M1" t="s">
+        <v>829</v>
+      </c>
+      <c r="N1" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>513</v>
+      <c r="O1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>45839</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
@@ -7381,87 +7148,87 @@
       <c r="A3" s="1">
         <v>45839</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="J3" s="0">
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>59.835624999999993</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>1.2306998204597133</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>1.8994723917063097</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>72</v>
       </c>
-      <c r="O3" s="0">
-        <v>0</v>
+      <c r="O3">
+        <v>94.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>45840</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="0">
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
@@ -7469,2115 +7236,2115 @@
       <c r="A5" s="1">
         <v>45840</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>37</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="J5" s="0">
+      <c r="D5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G5" t="s">
+        <v>707</v>
+      </c>
+      <c r="H5" t="s">
+        <v>746</v>
+      </c>
+      <c r="I5" t="s">
+        <v>787</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>60.034594594594601</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>1.2410565917653948</v>
       </c>
-      <c r="M5" s="0">
+      <c r="M5">
         <v>1.6380025768647488</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <v>144</v>
       </c>
-      <c r="O5" s="0">
-        <v>0</v>
+      <c r="O5">
+        <v>196.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>45846</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>60.189999999999998</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L6">
         <v>1.3864237801527943</v>
       </c>
-      <c r="M6" s="0">
+      <c r="M6">
         <v>3.7765780936365467</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <v>9</v>
       </c>
-      <c r="O6" s="0">
-        <v>0</v>
+      <c r="O6">
+        <v>78.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>45846</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>61</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="J7" s="0">
+      <c r="D7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F7" t="s">
+        <v>667</v>
+      </c>
+      <c r="G7" t="s">
+        <v>708</v>
+      </c>
+      <c r="H7" t="s">
+        <v>747</v>
+      </c>
+      <c r="I7" t="s">
+        <v>788</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>60.087868852459025</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>1.2516662409660557</v>
       </c>
-      <c r="M7" s="0">
+      <c r="M7">
         <v>1.6128594968376644</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <v>234</v>
       </c>
-      <c r="O7" s="0">
-        <v>0</v>
+      <c r="O7">
+        <v>275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>45847</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="J8" s="0">
+      <c r="E8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F8" t="s">
+        <v>668</v>
+      </c>
+      <c r="G8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" t="s">
+        <v>748</v>
+      </c>
+      <c r="I8" t="s">
+        <v>434</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>60.03263157894736</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>1.2659282449144478</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8">
         <v>1.3946713077178323</v>
       </c>
-      <c r="N8" s="0">
+      <c r="N8">
         <v>63</v>
       </c>
-      <c r="O8" s="0">
-        <v>0</v>
+      <c r="O8">
+        <v>158.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>45847</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>85</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="J9" s="0">
+      <c r="D9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F9" t="s">
+        <v>669</v>
+      </c>
+      <c r="G9" t="s">
+        <v>709</v>
+      </c>
+      <c r="H9" t="s">
+        <v>749</v>
+      </c>
+      <c r="I9" t="s">
+        <v>789</v>
+      </c>
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>60.10270588235295</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>1.2627651023424522</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9">
         <v>1.5576665278641435</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9">
         <v>315</v>
       </c>
-      <c r="O9" s="0">
-        <v>0</v>
+      <c r="O9">
+        <v>355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>45848</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="J10" s="0">
+      <c r="D10" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" t="s">
+        <v>629</v>
+      </c>
+      <c r="F10" t="s">
+        <v>670</v>
+      </c>
+      <c r="G10" t="s">
+        <v>710</v>
+      </c>
+      <c r="H10" t="s">
+        <v>750</v>
+      </c>
+      <c r="I10" t="s">
+        <v>790</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>60.281666666666659</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>1.2681053022932753</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10">
         <v>1.3825076146770925</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <v>99</v>
       </c>
-      <c r="O10" s="0">
-        <v>0</v>
+      <c r="O10">
+        <v>240.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>45848</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>107</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="J11" s="0">
+      <c r="D11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F11" t="s">
+        <v>671</v>
+      </c>
+      <c r="G11" t="s">
+        <v>711</v>
+      </c>
+      <c r="H11" t="s">
+        <v>751</v>
+      </c>
+      <c r="I11" t="s">
+        <v>791</v>
+      </c>
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>60.106635514018699</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>1.27570649697556</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11">
         <v>1.5200798372099913</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <v>387</v>
       </c>
-      <c r="O11" s="0">
-        <v>0</v>
+      <c r="O11">
+        <v>437.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>45849</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>55</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="J12" s="0">
+      <c r="D12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" t="s">
+        <v>631</v>
+      </c>
+      <c r="F12" t="s">
+        <v>672</v>
+      </c>
+      <c r="G12" t="s">
+        <v>712</v>
+      </c>
+      <c r="H12" t="s">
+        <v>752</v>
+      </c>
+      <c r="I12" t="s">
+        <v>792</v>
+      </c>
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>60.262545454545453</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>1.2781899135448596</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12">
         <v>1.3487022264137103</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <v>177</v>
       </c>
-      <c r="O12" s="0">
-        <v>0</v>
+      <c r="O12">
+        <v>323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>45849</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>129</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="J13" s="0">
+      <c r="D13" t="s">
+        <v>591</v>
+      </c>
+      <c r="E13" t="s">
+        <v>632</v>
+      </c>
+      <c r="F13" t="s">
+        <v>673</v>
+      </c>
+      <c r="G13" t="s">
+        <v>713</v>
+      </c>
+      <c r="H13" t="s">
+        <v>753</v>
+      </c>
+      <c r="I13" t="s">
+        <v>793</v>
+      </c>
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>60.122558139534888</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>1.2860151337567483</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13">
         <v>1.4950089040475298</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>459</v>
       </c>
-      <c r="O13" s="0">
-        <v>0</v>
+      <c r="O13">
+        <v>519.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>45850</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>69</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="J14" s="0">
+      <c r="D14" t="s">
+        <v>592</v>
+      </c>
+      <c r="E14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H14" t="s">
+        <v>754</v>
+      </c>
+      <c r="I14" t="s">
+        <v>794</v>
+      </c>
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>60.224637681159422</v>
       </c>
-      <c r="L14" s="0">
+      <c r="L14">
         <v>1.2841491053152883</v>
       </c>
-      <c r="M14" s="0">
+      <c r="M14">
         <v>1.3492381884218603</v>
       </c>
-      <c r="N14" s="0">
+      <c r="N14">
         <v>222</v>
       </c>
-      <c r="O14" s="0">
-        <v>0</v>
+      <c r="O14">
+        <v>402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>45850</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>129</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="J15" s="0">
+      <c r="D15" t="s">
+        <v>591</v>
+      </c>
+      <c r="E15" t="s">
+        <v>632</v>
+      </c>
+      <c r="F15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G15" t="s">
+        <v>713</v>
+      </c>
+      <c r="H15" t="s">
+        <v>753</v>
+      </c>
+      <c r="I15" t="s">
+        <v>793</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>60.122558139534888</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>1.2860151337567483</v>
       </c>
-      <c r="M15" s="0">
+      <c r="M15">
         <v>1.4950089040475298</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <v>459</v>
       </c>
-      <c r="O15" s="0">
-        <v>0</v>
+      <c r="O15">
+        <v>519.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>45852</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>92</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="J16" s="0">
+      <c r="D16" t="s">
+        <v>593</v>
+      </c>
+      <c r="E16" t="s">
+        <v>634</v>
+      </c>
+      <c r="F16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G16" t="s">
+        <v>715</v>
+      </c>
+      <c r="H16" t="s">
+        <v>755</v>
+      </c>
+      <c r="I16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J16">
         <v>6</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>60.201956521739127</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>1.2839136198617533</v>
       </c>
-      <c r="M16" s="0">
+      <c r="M16">
         <v>1.2995449845850213</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <v>285</v>
       </c>
-      <c r="O16" s="0">
-        <v>0</v>
+      <c r="O16">
+        <v>478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>45852</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>152</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="J17" s="0">
+      <c r="D17" t="s">
+        <v>594</v>
+      </c>
+      <c r="E17" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" t="s">
+        <v>676</v>
+      </c>
+      <c r="G17" t="s">
+        <v>716</v>
+      </c>
+      <c r="H17" t="s">
+        <v>756</v>
+      </c>
+      <c r="I17" t="s">
+        <v>796</v>
+      </c>
+      <c r="J17">
         <v>7</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>60.134539473684214</v>
       </c>
-      <c r="L17" s="0">
+      <c r="L17">
         <v>1.2867267011285366</v>
       </c>
-      <c r="M17" s="0">
+      <c r="M17">
         <v>1.4675189606192951</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <v>531</v>
       </c>
-      <c r="O17" s="0">
-        <v>0</v>
+      <c r="O17">
+        <v>595.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>45853</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>116</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="J18" s="0">
+      <c r="D18" t="s">
+        <v>595</v>
+      </c>
+      <c r="E18" t="s">
+        <v>636</v>
+      </c>
+      <c r="F18" t="s">
+        <v>677</v>
+      </c>
+      <c r="G18" t="s">
+        <v>717</v>
+      </c>
+      <c r="H18" t="s">
+        <v>757</v>
+      </c>
+      <c r="I18" t="s">
+        <v>797</v>
+      </c>
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>60.19603448275862</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>1.2930333425712321</v>
       </c>
-      <c r="M18" s="0">
+      <c r="M18">
         <v>1.3237651351126467</v>
       </c>
-      <c r="N18" s="0">
+      <c r="N18">
         <v>366</v>
       </c>
-      <c r="O18" s="0">
-        <v>0</v>
+      <c r="O18">
+        <v>563.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>45853</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>177</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" t="s">
+        <v>678</v>
+      </c>
+      <c r="G19" t="s">
+        <v>718</v>
+      </c>
+      <c r="H19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I19" t="s">
+        <v>798</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>60.13627118644068</v>
+      </c>
+      <c r="L19">
+        <v>1.2951506239415631</v>
+      </c>
+      <c r="M19">
+        <v>1.4524095895687366</v>
+      </c>
+      <c r="N19">
         <v>612</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="J19" s="0">
-        <v>8</v>
-      </c>
-      <c r="K19" s="0">
-        <v>60.13627118644068</v>
-      </c>
-      <c r="L19" s="0">
-        <v>1.2951506239415631</v>
-      </c>
-      <c r="M19" s="0">
-        <v>1.4524095895687366</v>
-      </c>
-      <c r="N19" s="0">
-        <v>612</v>
-      </c>
-      <c r="O19" s="0">
-        <v>0</v>
+      <c r="O19">
+        <v>681</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>45854</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>132</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="J20" s="0">
+      <c r="D20" t="s">
+        <v>597</v>
+      </c>
+      <c r="E20" t="s">
+        <v>638</v>
+      </c>
+      <c r="F20" t="s">
+        <v>679</v>
+      </c>
+      <c r="G20" t="s">
+        <v>719</v>
+      </c>
+      <c r="H20" t="s">
+        <v>759</v>
+      </c>
+      <c r="I20" t="s">
+        <v>799</v>
+      </c>
+      <c r="J20">
         <v>8</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>60.193484848484843</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>1.2925762290724021</v>
       </c>
-      <c r="M20" s="0">
+      <c r="M20">
         <v>1.3636317584845581</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20">
         <v>429</v>
       </c>
-      <c r="O20" s="0">
-        <v>0</v>
+      <c r="O20">
+        <v>636.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>45854</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>194</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="J21" s="0">
+      <c r="D21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E21" t="s">
+        <v>639</v>
+      </c>
+      <c r="F21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G21" t="s">
+        <v>720</v>
+      </c>
+      <c r="H21" t="s">
+        <v>760</v>
+      </c>
+      <c r="I21" t="s">
+        <v>800</v>
+      </c>
+      <c r="J21">
         <v>9</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>60.144845360824746</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>1.2987456398203561</v>
       </c>
-      <c r="M21" s="0">
+      <c r="M21">
         <v>1.4418524190767137</v>
       </c>
-      <c r="N21" s="0">
+      <c r="N21">
         <v>666</v>
       </c>
-      <c r="O21" s="0">
-        <v>0</v>
+      <c r="O21">
+        <v>754.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>45856</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>134</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="J22" s="0">
+      <c r="D22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E22" t="s">
+        <v>640</v>
+      </c>
+      <c r="F22" t="s">
+        <v>681</v>
+      </c>
+      <c r="G22" t="s">
+        <v>719</v>
+      </c>
+      <c r="H22" t="s">
+        <v>761</v>
+      </c>
+      <c r="I22" t="s">
+        <v>801</v>
+      </c>
+      <c r="J22">
         <v>9</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <v>60.192835820895517</v>
       </c>
-      <c r="L22" s="0">
+      <c r="L22">
         <v>1.290662844686796</v>
       </c>
-      <c r="M22" s="0">
+      <c r="M22">
         <v>1.399683367070838</v>
       </c>
-      <c r="N22" s="0">
+      <c r="N22">
         <v>447</v>
       </c>
-      <c r="O22" s="0">
-        <v>0</v>
+      <c r="O22">
+        <v>706.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>45856</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>194</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="J23" s="0">
+      <c r="D23" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" t="s">
+        <v>639</v>
+      </c>
+      <c r="F23" t="s">
+        <v>680</v>
+      </c>
+      <c r="G23" t="s">
+        <v>720</v>
+      </c>
+      <c r="H23" t="s">
+        <v>760</v>
+      </c>
+      <c r="I23" t="s">
+        <v>800</v>
+      </c>
+      <c r="J23">
         <v>9</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <v>60.144845360824746</v>
       </c>
-      <c r="L23" s="0">
+      <c r="L23">
         <v>1.2987456398203561</v>
       </c>
-      <c r="M23" s="0">
+      <c r="M23">
         <v>1.4418524190767137</v>
       </c>
-      <c r="N23" s="0">
+      <c r="N23">
         <v>666</v>
       </c>
-      <c r="O23" s="0">
-        <v>0</v>
+      <c r="O23">
+        <v>754.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>45859</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>160</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="J24" s="0">
+      <c r="D24" t="s">
+        <v>600</v>
+      </c>
+      <c r="E24" t="s">
+        <v>641</v>
+      </c>
+      <c r="F24" t="s">
+        <v>682</v>
+      </c>
+      <c r="G24" t="s">
+        <v>721</v>
+      </c>
+      <c r="H24" t="s">
+        <v>762</v>
+      </c>
+      <c r="I24" t="s">
+        <v>802</v>
+      </c>
+      <c r="J24">
         <v>10</v>
       </c>
-      <c r="K24" s="0">
+      <c r="K24">
         <v>60.197124999999993</v>
       </c>
-      <c r="L24" s="0">
+      <c r="L24">
         <v>1.2874008155186405</v>
       </c>
-      <c r="M24" s="0">
+      <c r="M24">
         <v>1.3845642216937986</v>
       </c>
-      <c r="N24" s="0">
+      <c r="N24">
         <v>528</v>
       </c>
-      <c r="O24" s="0">
-        <v>0</v>
+      <c r="O24">
+        <v>790.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>45859</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>219</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="J25" s="0">
+      <c r="D25" t="s">
+        <v>601</v>
+      </c>
+      <c r="E25" t="s">
+        <v>642</v>
+      </c>
+      <c r="F25" t="s">
+        <v>683</v>
+      </c>
+      <c r="G25" t="s">
+        <v>722</v>
+      </c>
+      <c r="H25" t="s">
+        <v>763</v>
+      </c>
+      <c r="I25" t="s">
+        <v>803</v>
+      </c>
+      <c r="J25">
         <v>10</v>
       </c>
-      <c r="K25" s="0">
+      <c r="K25">
         <v>60.144748858447493</v>
       </c>
-      <c r="L25" s="0">
+      <c r="L25">
         <v>1.3036330601942983</v>
       </c>
-      <c r="M25" s="0">
+      <c r="M25">
         <v>1.4325779367217408</v>
       </c>
-      <c r="N25" s="0">
+      <c r="N25">
         <v>747</v>
       </c>
-      <c r="O25" s="0">
-        <v>0</v>
+      <c r="O25">
+        <v>838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>45860</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>186</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="J26" s="0">
+      <c r="D26" t="s">
+        <v>602</v>
+      </c>
+      <c r="E26" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" t="s">
+        <v>684</v>
+      </c>
+      <c r="G26" t="s">
+        <v>723</v>
+      </c>
+      <c r="H26" t="s">
+        <v>764</v>
+      </c>
+      <c r="I26" t="s">
+        <v>804</v>
+      </c>
+      <c r="J26">
         <v>11</v>
       </c>
-      <c r="K26" s="0">
+      <c r="K26">
         <v>60.208118279569888</v>
       </c>
-      <c r="L26" s="0">
+      <c r="L26">
         <v>1.2818270912938132</v>
       </c>
-      <c r="M26" s="0">
+      <c r="M26">
         <v>1.3735006100874503</v>
       </c>
-      <c r="N26" s="0">
+      <c r="N26">
         <v>609</v>
       </c>
-      <c r="O26" s="0">
-        <v>0</v>
+      <c r="O26">
+        <v>892.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>45860</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>243</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="J27" s="0">
+      <c r="D27" t="s">
+        <v>603</v>
+      </c>
+      <c r="E27" t="s">
+        <v>644</v>
+      </c>
+      <c r="F27" t="s">
+        <v>685</v>
+      </c>
+      <c r="G27" t="s">
+        <v>724</v>
+      </c>
+      <c r="H27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I27" t="s">
+        <v>805</v>
+      </c>
+      <c r="J27">
         <v>11</v>
       </c>
-      <c r="K27" s="0">
+      <c r="K27">
         <v>60.115020576131691</v>
       </c>
-      <c r="L27" s="0">
+      <c r="L27">
         <v>1.3041230257124312</v>
       </c>
-      <c r="M27" s="0">
+      <c r="M27">
         <v>1.4317713133339147</v>
       </c>
-      <c r="N27" s="0">
+      <c r="N27">
         <v>828</v>
       </c>
-      <c r="O27" s="0">
-        <v>0</v>
+      <c r="O27">
+        <v>940.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>45861</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>200</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="J28" s="0">
+      <c r="D28" t="s">
+        <v>604</v>
+      </c>
+      <c r="E28" t="s">
+        <v>645</v>
+      </c>
+      <c r="F28" t="s">
+        <v>686</v>
+      </c>
+      <c r="G28" t="s">
+        <v>725</v>
+      </c>
+      <c r="H28" t="s">
+        <v>766</v>
+      </c>
+      <c r="I28" t="s">
+        <v>806</v>
+      </c>
+      <c r="J28">
         <v>12</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <v>60.21009999999999</v>
       </c>
-      <c r="L28" s="0">
+      <c r="L28">
         <v>1.2816525108028491</v>
       </c>
-      <c r="M28" s="0">
-        <v>1.2773555673813288</v>
-      </c>
-      <c r="N28" s="0">
-        <v>609</v>
-      </c>
-      <c r="O28" s="0">
-        <v>0</v>
+      <c r="M28">
+        <v>1.4283022558533629</v>
+      </c>
+      <c r="N28">
+        <v>681</v>
+      </c>
+      <c r="O28">
+        <v>1017</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>45861</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>243</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="J29" s="0">
+      <c r="D29" t="s">
+        <v>603</v>
+      </c>
+      <c r="E29" t="s">
+        <v>644</v>
+      </c>
+      <c r="F29" t="s">
+        <v>685</v>
+      </c>
+      <c r="G29" t="s">
+        <v>724</v>
+      </c>
+      <c r="H29" t="s">
+        <v>765</v>
+      </c>
+      <c r="I29" t="s">
+        <v>805</v>
+      </c>
+      <c r="J29">
         <v>11</v>
       </c>
-      <c r="K29" s="0">
+      <c r="K29">
         <v>60.115020576131691</v>
       </c>
-      <c r="L29" s="0">
+      <c r="L29">
         <v>1.3041230257124312</v>
       </c>
-      <c r="M29" s="0">
+      <c r="M29">
         <v>1.4317713133339147</v>
       </c>
-      <c r="N29" s="0">
+      <c r="N29">
         <v>828</v>
       </c>
-      <c r="O29" s="0">
-        <v>0</v>
+      <c r="O29">
+        <v>940.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>45863</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>220</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="J30" s="0">
+      <c r="D30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E30" t="s">
+        <v>646</v>
+      </c>
+      <c r="F30" t="s">
+        <v>687</v>
+      </c>
+      <c r="G30" t="s">
+        <v>726</v>
+      </c>
+      <c r="H30" t="s">
+        <v>767</v>
+      </c>
+      <c r="I30" t="s">
+        <v>807</v>
+      </c>
+      <c r="J30">
         <v>13</v>
       </c>
-      <c r="K30" s="0">
+      <c r="K30">
         <v>60.206409090909084</v>
       </c>
-      <c r="L30" s="0">
+      <c r="L30">
         <v>1.289418949686115</v>
       </c>
-      <c r="M30" s="0">
-        <v>1.2814371227420462</v>
-      </c>
-      <c r="N30" s="0">
-        <v>672</v>
-      </c>
-      <c r="O30" s="0">
-        <v>0</v>
+      <c r="M30">
+        <v>1.4186613849893497</v>
+      </c>
+      <c r="N30">
+        <v>744</v>
+      </c>
+      <c r="O30">
+        <v>1085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>45863</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>248</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="J31" s="0">
+      <c r="D31" t="s">
+        <v>606</v>
+      </c>
+      <c r="E31" t="s">
+        <v>647</v>
+      </c>
+      <c r="F31" t="s">
+        <v>688</v>
+      </c>
+      <c r="G31" t="s">
+        <v>727</v>
+      </c>
+      <c r="H31" t="s">
+        <v>768</v>
+      </c>
+      <c r="I31" t="s">
+        <v>808</v>
+      </c>
+      <c r="J31">
         <v>12</v>
       </c>
-      <c r="K31" s="0">
+      <c r="K31">
         <v>60.115806451612904</v>
       </c>
-      <c r="L31" s="0">
+      <c r="L31">
         <v>1.3047358219240393</v>
       </c>
-      <c r="M31" s="0">
+      <c r="M31">
         <v>1.43337945814131</v>
       </c>
-      <c r="N31" s="0">
+      <c r="N31">
         <v>846</v>
       </c>
-      <c r="O31" s="0">
-        <v>0</v>
+      <c r="O31">
+        <v>1008.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>45864</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>238</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="J32" s="0">
+      <c r="D32" t="s">
+        <v>607</v>
+      </c>
+      <c r="E32" t="s">
+        <v>648</v>
+      </c>
+      <c r="F32" t="s">
+        <v>689</v>
+      </c>
+      <c r="G32" t="s">
+        <v>728</v>
+      </c>
+      <c r="H32" t="s">
+        <v>769</v>
+      </c>
+      <c r="I32" t="s">
+        <v>809</v>
+      </c>
+      <c r="J32">
         <v>14</v>
       </c>
-      <c r="K32" s="0">
+      <c r="K32">
         <v>60.198907563025202</v>
       </c>
-      <c r="L32" s="0">
+      <c r="L32">
         <v>1.295337353520118</v>
       </c>
-      <c r="M32" s="0">
-        <v>1.2798606784587203</v>
-      </c>
-      <c r="N32" s="0">
-        <v>726</v>
-      </c>
-      <c r="O32" s="0">
-        <v>0</v>
+      <c r="M32">
+        <v>1.4067066351579085</v>
+      </c>
+      <c r="N32">
+        <v>798</v>
+      </c>
+      <c r="O32">
+        <v>1158</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>45864</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>248</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="J33" s="0">
+      <c r="D33" t="s">
+        <v>606</v>
+      </c>
+      <c r="E33" t="s">
+        <v>647</v>
+      </c>
+      <c r="F33" t="s">
+        <v>688</v>
+      </c>
+      <c r="G33" t="s">
+        <v>727</v>
+      </c>
+      <c r="H33" t="s">
+        <v>768</v>
+      </c>
+      <c r="I33" t="s">
+        <v>808</v>
+      </c>
+      <c r="J33">
         <v>12</v>
       </c>
-      <c r="K33" s="0">
+      <c r="K33">
         <v>60.115806451612904</v>
       </c>
-      <c r="L33" s="0">
+      <c r="L33">
         <v>1.3047358219240393</v>
       </c>
-      <c r="M33" s="0">
+      <c r="M33">
         <v>1.43337945814131</v>
       </c>
-      <c r="N33" s="0">
+      <c r="N33">
         <v>846</v>
       </c>
-      <c r="O33" s="0">
-        <v>0</v>
+      <c r="O33">
+        <v>1008.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>45866</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>265</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="J34" s="0">
+      <c r="D34" t="s">
+        <v>608</v>
+      </c>
+      <c r="E34" t="s">
+        <v>649</v>
+      </c>
+      <c r="F34" t="s">
+        <v>690</v>
+      </c>
+      <c r="G34" t="s">
+        <v>729</v>
+      </c>
+      <c r="H34" t="s">
+        <v>770</v>
+      </c>
+      <c r="I34" t="s">
+        <v>810</v>
+      </c>
+      <c r="J34">
         <v>15</v>
       </c>
-      <c r="K34" s="0">
+      <c r="K34">
         <v>60.19671698113207</v>
       </c>
-      <c r="L34" s="0">
+      <c r="L34">
         <v>1.2922193204875814</v>
       </c>
-      <c r="M34" s="0">
-        <v>1.2777477615928881</v>
-      </c>
-      <c r="N34" s="0">
-        <v>807</v>
-      </c>
-      <c r="O34" s="0">
-        <v>83.25</v>
+      <c r="M34">
+        <v>1.3916697906283855</v>
+      </c>
+      <c r="N34">
+        <v>879</v>
+      </c>
+      <c r="O34">
+        <v>1241.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>45866</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>272</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="J35" s="0">
+      <c r="D35" t="s">
+        <v>609</v>
+      </c>
+      <c r="E35" t="s">
+        <v>650</v>
+      </c>
+      <c r="F35" t="s">
+        <v>691</v>
+      </c>
+      <c r="G35" t="s">
+        <v>730</v>
+      </c>
+      <c r="H35" t="s">
+        <v>771</v>
+      </c>
+      <c r="I35" t="s">
+        <v>811</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
-      <c r="K35" s="0">
+      <c r="K35">
         <v>60.133529411764712</v>
       </c>
-      <c r="L35" s="0">
+      <c r="L35">
         <v>1.3073853761185308</v>
       </c>
-      <c r="M35" s="0">
+      <c r="M35">
         <v>1.4316026845463836</v>
       </c>
-      <c r="N35" s="0">
+      <c r="N35">
         <v>927</v>
       </c>
-      <c r="O35" s="0">
-        <v>83.25</v>
+      <c r="O35">
+        <v>1091.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>45867</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>277</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="J36" s="0">
+      <c r="D36" t="s">
+        <v>610</v>
+      </c>
+      <c r="E36" t="s">
+        <v>651</v>
+      </c>
+      <c r="F36" t="s">
+        <v>692</v>
+      </c>
+      <c r="G36" t="s">
+        <v>731</v>
+      </c>
+      <c r="H36" t="s">
+        <v>772</v>
+      </c>
+      <c r="I36" t="s">
+        <v>812</v>
+      </c>
+      <c r="J36">
         <v>16</v>
       </c>
-      <c r="K36" s="0">
+      <c r="K36">
         <v>60.197689530685913</v>
       </c>
-      <c r="L36" s="0">
+      <c r="L36">
         <v>1.2911792397106061</v>
       </c>
-      <c r="M36" s="0">
-        <v>1.2905303303787605</v>
-      </c>
-      <c r="N36" s="0">
-        <v>852</v>
-      </c>
-      <c r="O36" s="0">
-        <v>154</v>
+      <c r="M36">
+        <v>1.3995171090589296</v>
+      </c>
+      <c r="N36">
+        <v>924</v>
+      </c>
+      <c r="O36">
+        <v>1312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
         <v>45867</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>288</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="J37" s="0">
+      <c r="D37" t="s">
+        <v>611</v>
+      </c>
+      <c r="E37" t="s">
+        <v>652</v>
+      </c>
+      <c r="F37" t="s">
+        <v>693</v>
+      </c>
+      <c r="G37" t="s">
+        <v>732</v>
+      </c>
+      <c r="H37" t="s">
+        <v>773</v>
+      </c>
+      <c r="I37" t="s">
+        <v>813</v>
+      </c>
+      <c r="J37">
         <v>14</v>
       </c>
-      <c r="K37" s="0">
+      <c r="K37">
         <v>60.141736111111122</v>
       </c>
-      <c r="L37" s="0">
+      <c r="L37">
         <v>1.3093437513971073</v>
       </c>
-      <c r="M37" s="0">
+      <c r="M37">
         <v>1.4306288134266854</v>
       </c>
-      <c r="N37" s="0">
+      <c r="N37">
         <v>981</v>
       </c>
-      <c r="O37" s="0">
-        <v>154</v>
+      <c r="O37">
+        <v>1162.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>45868</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>283</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="J38" s="0">
+      <c r="D38" t="s">
+        <v>612</v>
+      </c>
+      <c r="E38" t="s">
+        <v>653</v>
+      </c>
+      <c r="F38" t="s">
+        <v>694</v>
+      </c>
+      <c r="G38" t="s">
+        <v>733</v>
+      </c>
+      <c r="H38" t="s">
+        <v>774</v>
+      </c>
+      <c r="I38" t="s">
+        <v>814</v>
+      </c>
+      <c r="J38">
         <v>17</v>
       </c>
-      <c r="K38" s="0">
+      <c r="K38">
         <v>60.198056537102474</v>
       </c>
-      <c r="L38" s="0">
+      <c r="L38">
         <v>1.2886391497722196</v>
       </c>
-      <c r="M38" s="0">
-        <v>1.3165262970553773</v>
-      </c>
-      <c r="N38" s="0">
-        <v>888</v>
-      </c>
-      <c r="O38" s="0">
-        <v>213.5</v>
+      <c r="M38">
+        <v>1.4232024019826097</v>
+      </c>
+      <c r="N38">
+        <v>960</v>
+      </c>
+      <c r="O38">
+        <v>1371.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>45868</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>295</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="J39" s="0">
+      <c r="D39" t="s">
+        <v>613</v>
+      </c>
+      <c r="E39" t="s">
+        <v>654</v>
+      </c>
+      <c r="F39" t="s">
+        <v>695</v>
+      </c>
+      <c r="G39" t="s">
+        <v>734</v>
+      </c>
+      <c r="H39" t="s">
+        <v>775</v>
+      </c>
+      <c r="I39" t="s">
+        <v>815</v>
+      </c>
+      <c r="J39">
         <v>15</v>
       </c>
-      <c r="K39" s="0">
+      <c r="K39">
         <v>60.149389830508483</v>
       </c>
-      <c r="L39" s="0">
+      <c r="L39">
         <v>1.3099757014977467</v>
       </c>
-      <c r="M39" s="0">
+      <c r="M39">
         <v>1.4349133463696768</v>
       </c>
-      <c r="N39" s="0">
+      <c r="N39">
         <v>1008</v>
       </c>
-      <c r="O39" s="0">
-        <v>213.5</v>
+      <c r="O39">
+        <v>1221.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>45869</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>310</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="J40" s="0">
+      <c r="D40" t="s">
+        <v>614</v>
+      </c>
+      <c r="E40" t="s">
+        <v>655</v>
+      </c>
+      <c r="F40" t="s">
+        <v>696</v>
+      </c>
+      <c r="G40" t="s">
+        <v>735</v>
+      </c>
+      <c r="H40" t="s">
+        <v>776</v>
+      </c>
+      <c r="I40" t="s">
+        <v>816</v>
+      </c>
+      <c r="J40">
         <v>18</v>
       </c>
-      <c r="K40" s="0">
+      <c r="K40">
         <v>60.205741935483864</v>
       </c>
-      <c r="L40" s="0">
+      <c r="L40">
         <v>1.2868365794261254</v>
       </c>
-      <c r="M40" s="0">
-        <v>1.3113285593374104</v>
-      </c>
-      <c r="N40" s="0">
-        <v>969</v>
-      </c>
-      <c r="O40" s="0">
-        <v>296.5</v>
+      <c r="M40">
+        <v>1.4087135196419485</v>
+      </c>
+      <c r="N40">
+        <v>1041</v>
+      </c>
+      <c r="O40">
+        <v>1454.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
         <v>45869</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>320</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="J41" s="0">
+      <c r="D41" t="s">
+        <v>615</v>
+      </c>
+      <c r="E41" t="s">
+        <v>656</v>
+      </c>
+      <c r="F41" t="s">
+        <v>697</v>
+      </c>
+      <c r="G41" t="s">
+        <v>736</v>
+      </c>
+      <c r="H41" t="s">
+        <v>777</v>
+      </c>
+      <c r="I41" t="s">
+        <v>817</v>
+      </c>
+      <c r="J41">
         <v>16</v>
       </c>
-      <c r="K41" s="0">
+      <c r="K41">
         <v>60.170812500000011</v>
       </c>
-      <c r="L41" s="0">
+      <c r="L41">
         <v>1.3108217630126617</v>
       </c>
-      <c r="M41" s="0">
+      <c r="M41">
         <v>1.4286163638584604</v>
       </c>
-      <c r="N41" s="0">
+      <c r="N41">
         <v>1089</v>
       </c>
-      <c r="O41" s="0">
-        <v>296.5</v>
+      <c r="O41">
+        <v>1304.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>45870</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>337</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="J42" s="0">
+      <c r="D42" t="s">
+        <v>616</v>
+      </c>
+      <c r="E42" t="s">
+        <v>657</v>
+      </c>
+      <c r="F42" t="s">
+        <v>698</v>
+      </c>
+      <c r="G42" t="s">
+        <v>737</v>
+      </c>
+      <c r="H42" t="s">
+        <v>778</v>
+      </c>
+      <c r="I42" t="s">
+        <v>818</v>
+      </c>
+      <c r="J42">
         <v>19</v>
       </c>
-      <c r="K42" s="0">
+      <c r="K42">
         <v>60.211543026706224</v>
       </c>
-      <c r="L42" s="0">
+      <c r="L42">
         <v>1.2854099373680412</v>
       </c>
-      <c r="M42" s="0">
-        <v>1.3181673806876135</v>
-      </c>
-      <c r="N42" s="0">
-        <v>1059</v>
-      </c>
-      <c r="O42" s="0">
-        <v>376.75</v>
+      <c r="M42">
+        <v>1.4077499851220547</v>
+      </c>
+      <c r="N42">
+        <v>1131</v>
+      </c>
+      <c r="O42">
+        <v>1534.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>45870</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>345</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="J43" s="0">
+      <c r="D43" t="s">
+        <v>617</v>
+      </c>
+      <c r="E43" t="s">
+        <v>658</v>
+      </c>
+      <c r="F43" t="s">
+        <v>699</v>
+      </c>
+      <c r="G43" t="s">
+        <v>738</v>
+      </c>
+      <c r="H43" t="s">
+        <v>779</v>
+      </c>
+      <c r="I43" t="s">
+        <v>819</v>
+      </c>
+      <c r="J43">
         <v>17</v>
       </c>
-      <c r="K43" s="0">
+      <c r="K43">
         <v>60.183797101449287</v>
       </c>
-      <c r="L43" s="0">
+      <c r="L43">
         <v>1.3112397844556614</v>
       </c>
-      <c r="M43" s="0">
+      <c r="M43">
         <v>1.4233516726313145</v>
       </c>
-      <c r="N43" s="0">
+      <c r="N43">
         <v>1170</v>
       </c>
-      <c r="O43" s="0">
-        <v>376.75</v>
+      <c r="O43">
+        <v>1385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>45873</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="0">
-        <v>357</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="C44">
+        <v>356</v>
+      </c>
+      <c r="D44" t="s">
+        <v>618</v>
+      </c>
+      <c r="E44" t="s">
+        <v>659</v>
+      </c>
+      <c r="F44" t="s">
+        <v>700</v>
+      </c>
+      <c r="G44" t="s">
+        <v>739</v>
+      </c>
+      <c r="H44" t="s">
         <v>780</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="J44" s="0">
+      <c r="I44" t="s">
+        <v>820</v>
+      </c>
+      <c r="J44">
         <v>20</v>
       </c>
-      <c r="K44" s="0">
-        <v>60.072100840336127</v>
-      </c>
-      <c r="L44" s="0">
-        <v>1.2870855621883042</v>
-      </c>
-      <c r="M44" s="0">
-        <v>1.2443204686042737</v>
-      </c>
-      <c r="N44" s="0">
-        <v>1059</v>
-      </c>
-      <c r="O44" s="0">
-        <v>376.75</v>
+      <c r="K44">
+        <v>60.213960674157299</v>
+      </c>
+      <c r="L44">
+        <v>1.2839113191397868</v>
+      </c>
+      <c r="M44">
+        <v>1.4173900429116972</v>
+      </c>
+      <c r="N44">
+        <v>1203</v>
+      </c>
+      <c r="O44">
+        <v>1627</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>45873</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>363</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="D45" t="s">
+        <v>619</v>
+      </c>
+      <c r="E45" t="s">
+        <v>660</v>
+      </c>
+      <c r="F45" t="s">
+        <v>701</v>
+      </c>
+      <c r="G45" t="s">
+        <v>740</v>
+      </c>
+      <c r="H45" t="s">
         <v>781</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="J45" s="0">
+      <c r="I45" t="s">
+        <v>821</v>
+      </c>
+      <c r="J45">
         <v>18</v>
       </c>
-      <c r="K45" s="0">
+      <c r="K45">
         <v>60.182176308539958</v>
       </c>
-      <c r="L45" s="0">
+      <c r="L45">
         <v>1.3123704043006732</v>
       </c>
-      <c r="M45" s="0">
-        <v>1.3527722508479436</v>
-      </c>
-      <c r="N45" s="0">
-        <v>1170</v>
-      </c>
-      <c r="O45" s="0">
-        <v>376.75</v>
+      <c r="M45">
+        <v>1.4152353868221064</v>
+      </c>
+      <c r="N45">
+        <v>1224</v>
+      </c>
+      <c r="O45">
+        <v>1477.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>45874</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="0">
-        <v>380</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="J46" s="0">
+      <c r="C46">
+        <v>379</v>
+      </c>
+      <c r="D46" t="s">
+        <v>620</v>
+      </c>
+      <c r="E46" t="s">
+        <v>661</v>
+      </c>
+      <c r="F46" t="s">
+        <v>702</v>
+      </c>
+      <c r="G46" t="s">
+        <v>741</v>
+      </c>
+      <c r="H46" t="s">
+        <v>782</v>
+      </c>
+      <c r="I46" t="s">
+        <v>822</v>
+      </c>
+      <c r="J46">
         <v>21</v>
       </c>
-      <c r="K46" s="0">
-        <v>60.083868421052628</v>
-      </c>
-      <c r="L46" s="0">
-        <v>1.2855737499644477</v>
-      </c>
-      <c r="M46" s="0">
-        <v>1.1690063349782256</v>
-      </c>
-      <c r="N46" s="0">
-        <v>1059</v>
-      </c>
-      <c r="O46" s="0">
-        <v>376.75</v>
+      <c r="K46">
+        <v>60.217150395778361</v>
+      </c>
+      <c r="L46">
+        <v>1.2825881501293659</v>
+      </c>
+      <c r="M46">
+        <v>1.4109897582744422</v>
+      </c>
+      <c r="N46">
+        <v>1275</v>
+      </c>
+      <c r="O46">
+        <v>1715</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>45874</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>385</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="J47" s="0">
+      <c r="D47" t="s">
+        <v>621</v>
+      </c>
+      <c r="E47" t="s">
+        <v>662</v>
+      </c>
+      <c r="F47" t="s">
+        <v>703</v>
+      </c>
+      <c r="G47" t="s">
+        <v>742</v>
+      </c>
+      <c r="H47" t="s">
+        <v>783</v>
+      </c>
+      <c r="I47" t="s">
+        <v>823</v>
+      </c>
+      <c r="J47">
         <v>19</v>
       </c>
-      <c r="K47" s="0">
+      <c r="K47">
         <v>60.180259740259757</v>
       </c>
-      <c r="L47" s="0">
+      <c r="L47">
         <v>1.3109479351977733</v>
       </c>
-      <c r="M47" s="0">
-        <v>1.2754709793709182</v>
-      </c>
-      <c r="N47" s="0">
-        <v>1170</v>
-      </c>
-      <c r="O47" s="0">
-        <v>376.75</v>
+      <c r="M47">
+        <v>1.4128931093397128</v>
+      </c>
+      <c r="N47">
+        <v>1296</v>
+      </c>
+      <c r="O47">
+        <v>1565.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>45875</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="0">
-        <v>385</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="J48" s="0">
+      <c r="C48">
+        <v>398</v>
+      </c>
+      <c r="D48" t="s">
+        <v>622</v>
+      </c>
+      <c r="E48" t="s">
+        <v>663</v>
+      </c>
+      <c r="F48" t="s">
+        <v>704</v>
+      </c>
+      <c r="G48" t="s">
+        <v>743</v>
+      </c>
+      <c r="H48" t="s">
+        <v>784</v>
+      </c>
+      <c r="I48" t="s">
+        <v>824</v>
+      </c>
+      <c r="J48">
         <v>22</v>
       </c>
-      <c r="K48" s="0">
-        <v>60.087142857142858</v>
-      </c>
-      <c r="L48" s="0">
-        <v>1.2855569259102302</v>
-      </c>
-      <c r="M48" s="0">
-        <v>1.153824434523963</v>
-      </c>
-      <c r="N48" s="0">
-        <v>1059</v>
-      </c>
-      <c r="O48" s="0">
-        <v>376.75</v>
+      <c r="K48">
+        <v>60.22092964824121</v>
+      </c>
+      <c r="L48">
+        <v>1.281901948377169</v>
+      </c>
+      <c r="M48">
+        <v>1.343630950718627</v>
+      </c>
+      <c r="N48">
+        <v>1275</v>
+      </c>
+      <c r="O48">
+        <v>1715</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>45875</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="0">
-        <v>390</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="J49" s="0">
+      <c r="C49">
+        <v>400</v>
+      </c>
+      <c r="D49" t="s">
+        <v>623</v>
+      </c>
+      <c r="E49" t="s">
+        <v>664</v>
+      </c>
+      <c r="F49" t="s">
+        <v>705</v>
+      </c>
+      <c r="G49" t="s">
+        <v>744</v>
+      </c>
+      <c r="H49" t="s">
+        <v>785</v>
+      </c>
+      <c r="I49" t="s">
+        <v>825</v>
+      </c>
+      <c r="J49">
         <v>20</v>
       </c>
-      <c r="K49" s="0">
-        <v>60.179538461538471</v>
-      </c>
-      <c r="L49" s="0">
-        <v>1.3083223944468592</v>
-      </c>
-      <c r="M49" s="0">
-        <v>1.2591187873277012</v>
-      </c>
-      <c r="N49" s="0">
-        <v>1170</v>
-      </c>
-      <c r="O49" s="0">
-        <v>376.75</v>
+      <c r="K49">
+        <v>60.177875000000014</v>
+      </c>
+      <c r="L49">
+        <v>1.3106444985439945</v>
+      </c>
+      <c r="M49">
+        <v>1.3599096177394736</v>
+      </c>
+      <c r="N49">
+        <v>1296</v>
+      </c>
+      <c r="O49">
+        <v>1565.25</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Summary/1640-SiteProgression.xlsx
+++ b/assets/data/Summary/1640-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1101" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2642" uniqueCount="1038">
   <si>
     <t>Time</t>
   </si>
@@ -151,7 +151,7 @@
     <t>3.1853 hr</t>
   </si>
   <si>
-    <t>3.8758 hr</t>
+    <t>4.1008 hr</t>
   </si>
   <si>
     <t>5.3792 hr</t>
@@ -160,6 +160,33 @@
     <t>5.5678 hr</t>
   </si>
   <si>
+    <t>4.6611 hr</t>
+  </si>
+  <si>
+    <t>4.6458 hr</t>
+  </si>
+  <si>
+    <t>2.1697 hr</t>
+  </si>
+  <si>
+    <t>2.6944 hr</t>
+  </si>
+  <si>
+    <t>3.5989 hr</t>
+  </si>
+  <si>
+    <t>5.065 hr</t>
+  </si>
+  <si>
+    <t>4.9917 hr</t>
+  </si>
+  <si>
+    <t>3.15 hr</t>
+  </si>
+  <si>
+    <t>3.0475 hr</t>
+  </si>
+  <si>
     <t>mean_MoveTime</t>
   </si>
   <si>
@@ -280,7 +307,7 @@
     <t>8.6871 min</t>
   </si>
   <si>
-    <t>11.074 min</t>
+    <t>12.302 min</t>
   </si>
   <si>
     <t>17.931 min</t>
@@ -289,6 +316,33 @@
     <t>23.862 min</t>
   </si>
   <si>
+    <t>15.537 min</t>
+  </si>
+  <si>
+    <t>12.12 min</t>
+  </si>
+  <si>
+    <t>8.1365 min</t>
+  </si>
+  <si>
+    <t>7.029 min</t>
+  </si>
+  <si>
+    <t>10.283 min</t>
+  </si>
+  <si>
+    <t>13.814 min</t>
+  </si>
+  <si>
+    <t>13.022 min</t>
+  </si>
+  <si>
+    <t>13.5 min</t>
+  </si>
+  <si>
+    <t>9.6237 min</t>
+  </si>
+  <si>
     <t>sum_DrillTime</t>
   </si>
   <si>
@@ -409,7 +463,7 @@
     <t>2.2381 hr</t>
   </si>
   <si>
-    <t>2.2683 hr</t>
+    <t>2.1872 hr</t>
   </si>
   <si>
     <t>1.8236 hr</t>
@@ -418,6 +472,33 @@
     <t>1.7553 hr</t>
   </si>
   <si>
+    <t>1.9894 hr</t>
+  </si>
+  <si>
+    <t>2.9244 hr</t>
+  </si>
+  <si>
+    <t>1.6539 hr</t>
+  </si>
+  <si>
+    <t>2.9267 hr</t>
+  </si>
+  <si>
+    <t>2.2289 hr</t>
+  </si>
+  <si>
+    <t>2.3753 hr</t>
+  </si>
+  <si>
+    <t>2.9239 hr</t>
+  </si>
+  <si>
+    <t>1.5853 hr</t>
+  </si>
+  <si>
+    <t>2.5992 hr</t>
+  </si>
+  <si>
     <t>mean_DrillTime</t>
   </si>
   <si>
@@ -538,7 +619,7 @@
     <t>5.8384 min</t>
   </si>
   <si>
-    <t>6.1864 min</t>
+    <t>6.2492 min</t>
   </si>
   <si>
     <t>5.7588 min</t>
@@ -547,6 +628,33 @@
     <t>7.0211 min</t>
   </si>
   <si>
+    <t>6.2825 min</t>
+  </si>
+  <si>
+    <t>7.3111 min</t>
+  </si>
+  <si>
+    <t>5.8373 min</t>
+  </si>
+  <si>
+    <t>7.3167 min</t>
+  </si>
+  <si>
+    <t>6.0788 min</t>
+  </si>
+  <si>
+    <t>6.1964 min</t>
+  </si>
+  <si>
+    <t>7.3097 min</t>
+  </si>
+  <si>
+    <t>6.3411 min</t>
+  </si>
+  <si>
+    <t>7.7975 min</t>
+  </si>
+  <si>
     <t>sum_GroutTime</t>
   </si>
   <si>
@@ -667,7 +775,7 @@
     <t>1.9489 hr</t>
   </si>
   <si>
-    <t>1.9411 hr</t>
+    <t>1.8033 hr</t>
   </si>
   <si>
     <t>1.5939 hr</t>
@@ -676,6 +784,33 @@
     <t>1.1764 hr</t>
   </si>
   <si>
+    <t>1.7478 hr</t>
+  </si>
+  <si>
+    <t>1.8678 hr</t>
+  </si>
+  <si>
+    <t>1.5142 hr</t>
+  </si>
+  <si>
+    <t>1.9769 hr</t>
+  </si>
+  <si>
+    <t>1.7972 hr</t>
+  </si>
+  <si>
+    <t>1.8344 hr</t>
+  </si>
+  <si>
+    <t>1.9111 hr</t>
+  </si>
+  <si>
+    <t>1.3439 hr</t>
+  </si>
+  <si>
+    <t>1.5489 hr</t>
+  </si>
+  <si>
     <t>mean_GroutTime</t>
   </si>
   <si>
@@ -796,7 +931,7 @@
     <t>5.0841 min</t>
   </si>
   <si>
-    <t>5.546 min</t>
+    <t>5.41 min</t>
   </si>
   <si>
     <t>5.0333 min</t>
@@ -805,6 +940,33 @@
     <t>5.0417 min</t>
   </si>
   <si>
+    <t>5.5193 min</t>
+  </si>
+  <si>
+    <t>4.8725 min</t>
+  </si>
+  <si>
+    <t>5.3441 min</t>
+  </si>
+  <si>
+    <t>5.1572 min</t>
+  </si>
+  <si>
+    <t>4.9015 min</t>
+  </si>
+  <si>
+    <t>4.7855 min</t>
+  </si>
+  <si>
+    <t>4.9855 min</t>
+  </si>
+  <si>
+    <t>5.3756 min</t>
+  </si>
+  <si>
+    <t>5.4667 min</t>
+  </si>
+  <si>
     <t>sum_InstallTime</t>
   </si>
   <si>
@@ -925,7 +1087,7 @@
     <t>4.5347 hr</t>
   </si>
   <si>
-    <t>4.1161 hr</t>
+    <t>3.8911 hr</t>
   </si>
   <si>
     <t>3.6381 hr</t>
@@ -934,6 +1096,33 @@
     <t>2.7297 hr</t>
   </si>
   <si>
+    <t>3.9878 hr</t>
+  </si>
+  <si>
+    <t>4.6069 hr</t>
+  </si>
+  <si>
+    <t>3.3944 hr</t>
+  </si>
+  <si>
+    <t>4.3239 hr</t>
+  </si>
+  <si>
+    <t>4.2633 hr</t>
+  </si>
+  <si>
+    <t>4.3956 hr</t>
+  </si>
+  <si>
+    <t>4.3708 hr</t>
+  </si>
+  <si>
+    <t>3.1256 hr</t>
+  </si>
+  <si>
+    <t>3.7225 hr</t>
+  </si>
+  <si>
     <t>mean_InstallTime</t>
   </si>
   <si>
@@ -1054,7 +1243,7 @@
     <t>11.83 min</t>
   </si>
   <si>
-    <t>11.226 min</t>
+    <t>11.117 min</t>
   </si>
   <si>
     <t>11.489 min</t>
@@ -1063,6 +1252,33 @@
     <t>10.919 min</t>
   </si>
   <si>
+    <t>12.593 min</t>
+  </si>
+  <si>
+    <t>11.517 min</t>
+  </si>
+  <si>
+    <t>11.98 min</t>
+  </si>
+  <si>
+    <t>10.81 min</t>
+  </si>
+  <si>
+    <t>11.627 min</t>
+  </si>
+  <si>
+    <t>11.467 min</t>
+  </si>
+  <si>
+    <t>10.927 min</t>
+  </si>
+  <si>
+    <t>12.502 min</t>
+  </si>
+  <si>
+    <t>11.168 min</t>
+  </si>
+  <si>
     <t>sum_DelayTime</t>
   </si>
   <si>
@@ -1138,9 +1354,6 @@
     <t>0.55444 hr</t>
   </si>
   <si>
-    <t>1.3439 hr</t>
-  </si>
-  <si>
     <t>2.2656 hr</t>
   </si>
   <si>
@@ -1177,7 +1390,7 @@
     <t>1.4625 hr</t>
   </si>
   <si>
-    <t>2.1861 hr</t>
+    <t>2.4944 hr</t>
   </si>
   <si>
     <t>3.9844 hr</t>
@@ -1186,6 +1399,33 @@
     <t>4.4978 hr</t>
   </si>
   <si>
+    <t>3.2306 hr</t>
+  </si>
+  <si>
+    <t>2.8511 hr</t>
+  </si>
+  <si>
+    <t>0.94639 hr</t>
+  </si>
+  <si>
+    <t>0.91222 hr</t>
+  </si>
+  <si>
+    <t>2.0083 hr</t>
+  </si>
+  <si>
+    <t>3.2767 hr</t>
+  </si>
+  <si>
+    <t>3.2978 hr</t>
+  </si>
+  <si>
+    <t>2.0281 hr</t>
+  </si>
+  <si>
+    <t>1.6661 hr</t>
+  </si>
+  <si>
     <t>mean_DelayTime</t>
   </si>
   <si>
@@ -1297,7 +1537,7 @@
     <t>3.9886 min</t>
   </si>
   <si>
-    <t>6.246 min</t>
+    <t>7.4833 min</t>
   </si>
   <si>
     <t>13.281 min</t>
@@ -1306,6 +1546,33 @@
     <t>19.276 min</t>
   </si>
   <si>
+    <t>10.769 min</t>
+  </si>
+  <si>
+    <t>7.4377 min</t>
+  </si>
+  <si>
+    <t>3.549 min</t>
+  </si>
+  <si>
+    <t>2.3797 min</t>
+  </si>
+  <si>
+    <t>5.7381 min</t>
+  </si>
+  <si>
+    <t>8.9364 min</t>
+  </si>
+  <si>
+    <t>8.6029 min</t>
+  </si>
+  <si>
+    <t>8.6917 min</t>
+  </si>
+  <si>
+    <t>5.2614 min</t>
+  </si>
+  <si>
     <t>sum_CycleTime</t>
   </si>
   <si>
@@ -1432,6 +1699,33 @@
     <t>8.0522 hr</t>
   </si>
   <si>
+    <t>8.4567 hr</t>
+  </si>
+  <si>
+    <t>9.0864 hr</t>
+  </si>
+  <si>
+    <t>5.3897 hr</t>
+  </si>
+  <si>
+    <t>6.84 hr</t>
+  </si>
+  <si>
+    <t>7.6719 hr</t>
+  </si>
+  <si>
+    <t>9.2742 hr</t>
+  </si>
+  <si>
+    <t>9.1461 hr</t>
+  </si>
+  <si>
+    <t>6.0981 hr</t>
+  </si>
+  <si>
+    <t>6.5811 hr</t>
+  </si>
+  <si>
     <t>mean_CycleTime</t>
   </si>
   <si>
@@ -1549,7 +1843,7 @@
     <t>20.536 min</t>
   </si>
   <si>
-    <t>22.194 min</t>
+    <t>23.304 min</t>
   </si>
   <si>
     <t>29.324 min</t>
@@ -1558,6 +1852,33 @@
     <t>34.51 min</t>
   </si>
   <si>
+    <t>28.189 min</t>
+  </si>
+  <si>
+    <t>23.704 min</t>
+  </si>
+  <si>
+    <t>20.211 min</t>
+  </si>
+  <si>
+    <t>17.843 min</t>
+  </si>
+  <si>
+    <t>21.92 min</t>
+  </si>
+  <si>
+    <t>25.293 min</t>
+  </si>
+  <si>
+    <t>23.859 min</t>
+  </si>
+  <si>
+    <t>26.135 min</t>
+  </si>
+  <si>
+    <t>20.782 min</t>
+  </si>
+  <si>
     <t>sum_PileLength</t>
   </si>
   <si>
@@ -1699,6 +2020,33 @@
     <t>9.0172 hr</t>
   </si>
   <si>
+    <t>8.6489 hr</t>
+  </si>
+  <si>
+    <t>9.2528 hr</t>
+  </si>
+  <si>
+    <t>5.5642 hr</t>
+  </si>
+  <si>
+    <t>7.0183 hr</t>
+  </si>
+  <si>
+    <t>7.8622 hr</t>
+  </si>
+  <si>
+    <t>9.3625 hr</t>
+  </si>
+  <si>
+    <t>9.4606 hr</t>
+  </si>
+  <si>
+    <t>6.77 hr</t>
+  </si>
+  <si>
+    <t>6.2756 hr</t>
+  </si>
+  <si>
     <t>PileWaste</t>
   </si>
   <si>
@@ -1879,13 +2227,40 @@
     <t>55.032 hr</t>
   </si>
   <si>
-    <t>63.128 hr</t>
+    <t>63.353 hr</t>
   </si>
   <si>
     <t>60.412 hr</t>
   </si>
   <si>
-    <t>68.696 hr</t>
+    <t>68.921 hr</t>
+  </si>
+  <si>
+    <t>65.073 hr</t>
+  </si>
+  <si>
+    <t>73.567 hr</t>
+  </si>
+  <si>
+    <t>67.242 hr</t>
+  </si>
+  <si>
+    <t>76.261 hr</t>
+  </si>
+  <si>
+    <t>70.841 hr</t>
+  </si>
+  <si>
+    <t>75.906 hr</t>
+  </si>
+  <si>
+    <t>81.253 hr</t>
+  </si>
+  <si>
+    <t>79.056 hr</t>
+  </si>
+  <si>
+    <t>84.301 hr</t>
   </si>
   <si>
     <t>HoursDrilled</t>
@@ -2002,13 +2377,40 @@
     <t>39.659 hr</t>
   </si>
   <si>
-    <t>48.958 hr</t>
+    <t>48.877 hr</t>
   </si>
   <si>
     <t>41.483 hr</t>
   </si>
   <si>
-    <t>50.713 hr</t>
+    <t>50.632 hr</t>
+  </si>
+  <si>
+    <t>43.472 hr</t>
+  </si>
+  <si>
+    <t>53.556 hr</t>
+  </si>
+  <si>
+    <t>45.126 hr</t>
+  </si>
+  <si>
+    <t>56.483 hr</t>
+  </si>
+  <si>
+    <t>47.355 hr</t>
+  </si>
+  <si>
+    <t>49.73 hr</t>
+  </si>
+  <si>
+    <t>59.407 hr</t>
+  </si>
+  <si>
+    <t>51.316 hr</t>
+  </si>
+  <si>
+    <t>62.006 hr</t>
   </si>
   <si>
     <t>HoursGrouted</t>
@@ -2125,13 +2527,40 @@
     <t>35.405 hr</t>
   </si>
   <si>
-    <t>35.897 hr</t>
+    <t>35.759 hr</t>
   </si>
   <si>
     <t>36.999 hr</t>
   </si>
   <si>
-    <t>37.073 hr</t>
+    <t>36.935 hr</t>
+  </si>
+  <si>
+    <t>38.747 hr</t>
+  </si>
+  <si>
+    <t>38.803 hr</t>
+  </si>
+  <si>
+    <t>40.261 hr</t>
+  </si>
+  <si>
+    <t>40.78 hr</t>
+  </si>
+  <si>
+    <t>42.058 hr</t>
+  </si>
+  <si>
+    <t>43.892 hr</t>
+  </si>
+  <si>
+    <t>42.691 hr</t>
+  </si>
+  <si>
+    <t>45.236 hr</t>
+  </si>
+  <si>
+    <t>44.24 hr</t>
   </si>
   <si>
     <t>HoursDelayed</t>
@@ -2242,13 +2671,40 @@
     <t>28.559 hr</t>
   </si>
   <si>
-    <t>33.861 hr</t>
+    <t>34.169 hr</t>
   </si>
   <si>
     <t>32.544 hr</t>
   </si>
   <si>
-    <t>38.359 hr</t>
+    <t>38.667 hr</t>
+  </si>
+  <si>
+    <t>35.774 hr</t>
+  </si>
+  <si>
+    <t>41.518 hr</t>
+  </si>
+  <si>
+    <t>36.721 hr</t>
+  </si>
+  <si>
+    <t>42.43 hr</t>
+  </si>
+  <si>
+    <t>38.729 hr</t>
+  </si>
+  <si>
+    <t>42.006 hr</t>
+  </si>
+  <si>
+    <t>45.728 hr</t>
+  </si>
+  <si>
+    <t>44.034 hr</t>
+  </si>
+  <si>
+    <t>47.394 hr</t>
   </si>
   <si>
     <t>HoursTurn</t>
@@ -2374,6 +2830,33 @@
     <t>134.33 hr</t>
   </si>
   <si>
+    <t>167.96 hr</t>
+  </si>
+  <si>
+    <t>143.58 hr</t>
+  </si>
+  <si>
+    <t>173.53 hr</t>
+  </si>
+  <si>
+    <t>150.6 hr</t>
+  </si>
+  <si>
+    <t>181.39 hr</t>
+  </si>
+  <si>
+    <t>190.75 hr</t>
+  </si>
+  <si>
+    <t>160.06 hr</t>
+  </si>
+  <si>
+    <t>197.52 hr</t>
+  </si>
+  <si>
+    <t>166.33 hr</t>
+  </si>
+  <si>
     <t>HoursCycle</t>
   </si>
   <si>
@@ -2494,6 +2977,33 @@
     <t>144.24 hr</t>
   </si>
   <si>
+    <t>148.38 hr</t>
+  </si>
+  <si>
+    <t>153.32 hr</t>
+  </si>
+  <si>
+    <t>153.77 hr</t>
+  </si>
+  <si>
+    <t>160.16 hr</t>
+  </si>
+  <si>
+    <t>161.44 hr</t>
+  </si>
+  <si>
+    <t>170.71 hr</t>
+  </si>
+  <si>
+    <t>169.31 hr</t>
+  </si>
+  <si>
+    <t>176.81 hr</t>
+  </si>
+  <si>
+    <t>175.89 hr</t>
+  </si>
+  <si>
     <t>DaysRigDrilled</t>
   </si>
   <si>
@@ -2504,6 +3014,120 @@
   </si>
   <si>
     <t>AverageRigWaste</t>
+  </si>
+  <si>
+    <t>3.4689 hr</t>
+  </si>
+  <si>
+    <t>3.2139 hr</t>
+  </si>
+  <si>
+    <t>13.008 min</t>
+  </si>
+  <si>
+    <t>9.1825 min</t>
+  </si>
+  <si>
+    <t>1.8067 hr</t>
+  </si>
+  <si>
+    <t>2.8822 hr</t>
+  </si>
+  <si>
+    <t>6.3765 min</t>
+  </si>
+  <si>
+    <t>7.8606 min</t>
+  </si>
+  <si>
+    <t>1.5119 hr</t>
+  </si>
+  <si>
+    <t>1.7319 hr</t>
+  </si>
+  <si>
+    <t>5.3363 min</t>
+  </si>
+  <si>
+    <t>5.4693 min</t>
+  </si>
+  <si>
+    <t>3.5406 hr</t>
+  </si>
+  <si>
+    <t>4.125 hr</t>
+  </si>
+  <si>
+    <t>12.496 min</t>
+  </si>
+  <si>
+    <t>11.25 min</t>
+  </si>
+  <si>
+    <t>2.1803 hr</t>
+  </si>
+  <si>
+    <t>1.6844 hr</t>
+  </si>
+  <si>
+    <t>8.176 min</t>
+  </si>
+  <si>
+    <t>4.8127 min</t>
+  </si>
+  <si>
+    <t>6.8319 hr</t>
+  </si>
+  <si>
+    <t>7.15 hr</t>
+  </si>
+  <si>
+    <t>25.62 min</t>
+  </si>
+  <si>
+    <t>20.429 min</t>
+  </si>
+  <si>
+    <t>7.3389 hr</t>
+  </si>
+  <si>
+    <t>7.0094 hr</t>
+  </si>
+  <si>
+    <t>79.375 hr</t>
+  </si>
+  <si>
+    <t>84.467 hr</t>
+  </si>
+  <si>
+    <t>51.537 hr</t>
+  </si>
+  <si>
+    <t>62.289 hr</t>
+  </si>
+  <si>
+    <t>45.404 hr</t>
+  </si>
+  <si>
+    <t>44.423 hr</t>
+  </si>
+  <si>
+    <t>44.186 hr</t>
+  </si>
+  <si>
+    <t>47.412 hr</t>
+  </si>
+  <si>
+    <t>198.09 hr</t>
+  </si>
+  <si>
+    <t>167.07 hr</t>
+  </si>
+  <si>
+    <t>177.55 hr</t>
+  </si>
+  <si>
+    <t>176.46 hr</t>
   </si>
 </sst>
 </file>
@@ -2549,7 +3173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2601,82 +3225,82 @@
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>472</v>
+        <v>570</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>514</v>
+        <v>621</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>515</v>
+        <v>622</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>516</v>
+        <v>623</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>517</v>
+        <v>624</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>518</v>
+        <v>625</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>519</v>
+        <v>626</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>561</v>
+        <v>677</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>562</v>
+        <v>678</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>564</v>
+        <v>680</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>565</v>
+        <v>681</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>566</v>
+        <v>682</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>567</v>
+        <v>683</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>568</v>
+        <v>684</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>583</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2">
@@ -2693,37 +3317,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -2757,7 +3381,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="0" t="s">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="AD2" s="0"/>
     </row>
@@ -2775,37 +3399,37 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>350</v>
+        <v>422</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>391</v>
+        <v>471</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="P3" s="0">
         <v>957.36999999999989</v>
@@ -2823,7 +3447,7 @@
         <v>37.905262700513319</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>520</v>
+        <v>627</v>
       </c>
       <c r="V3" s="0">
         <v>1.2306998204597133</v>
@@ -2847,7 +3471,7 @@
         <v>45839.645833333336</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>570</v>
+        <v>686</v>
       </c>
       <c r="AD3" s="0">
         <v>1.8994723917063097</v>
@@ -2867,37 +3491,37 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -2931,7 +3555,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="0" t="s">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="AD4" s="0"/>
     </row>
@@ -2949,37 +3573,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="P5" s="0">
         <v>1263.9100000000003</v>
@@ -2997,7 +3621,7 @@
         <v>50.042136874777562</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>521</v>
+        <v>628</v>
       </c>
       <c r="V5" s="0">
         <v>1.2489474651411521</v>
@@ -3021,7 +3645,7 @@
         <v>45840.677083333336</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>571</v>
+        <v>687</v>
       </c>
       <c r="AD5" s="0">
         <v>1.438787479842607</v>
@@ -3041,37 +3665,37 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P6" s="0">
         <v>60.189999999999998</v>
@@ -3089,7 +3713,7 @@
         <v>2.3831097297219426</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>522</v>
+        <v>629</v>
       </c>
       <c r="V6" s="0">
         <v>1.3864237801527943</v>
@@ -3113,7 +3737,7 @@
         <v>45846.708333333336</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="AD6" s="0">
         <v>3.7765780936365467</v>
@@ -3133,37 +3757,37 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>475</v>
+        <v>573</v>
       </c>
       <c r="P7" s="0">
         <v>1444.0800000000002</v>
@@ -3181,7 +3805,7 @@
         <v>57.175628817027139</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="V7" s="0">
         <v>1.2680227834837414</v>
@@ -3205,7 +3829,7 @@
         <v>45846.75</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="AD7" s="0">
         <v>1.5740972484625761</v>
@@ -3225,37 +3849,37 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>476</v>
+        <v>574</v>
       </c>
       <c r="P8" s="0">
         <v>1080.4299999999998</v>
@@ -3273,7 +3897,7 @@
         <v>42.777591714296044</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>523</v>
+        <v>630</v>
       </c>
       <c r="V8" s="0">
         <v>1.2592340485123177</v>
@@ -3297,7 +3921,7 @@
         <v>45847.770833333336</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD8" s="0">
         <v>1.2623431529445703</v>
@@ -3317,37 +3941,37 @@
         <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>477</v>
+        <v>575</v>
       </c>
       <c r="P9" s="0">
         <v>1443.3699999999999</v>
@@ -3365,7 +3989,7 @@
         <v>57.1475177037508</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>524</v>
+        <v>631</v>
       </c>
       <c r="V9" s="0">
         <v>1.2909747083407932</v>
@@ -3389,7 +4013,7 @@
         <v>45847.770833333336</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD9" s="0">
         <v>1.4173843983897778</v>
@@ -3409,37 +4033,37 @@
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>355</v>
+        <v>427</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>478</v>
+        <v>576</v>
       </c>
       <c r="P10" s="0">
         <v>667.83000000000004</v>
@@ -3457,7 +4081,7 @@
         <v>26.441471520189491</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>525</v>
+        <v>632</v>
       </c>
       <c r="V10" s="0">
         <v>1.2718656741294321</v>
@@ -3481,7 +4105,7 @@
         <v>45848.729166666664</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD10" s="0">
         <v>1.3614975994249054</v>
@@ -3501,37 +4125,37 @@
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>479</v>
+        <v>577</v>
       </c>
       <c r="P11" s="0">
         <v>1322.6800000000001</v>
@@ -3549,7 +4173,7 @@
         <v>52.369024377946829</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>526</v>
+        <v>633</v>
       </c>
       <c r="V11" s="0">
         <v>1.3257073398762043</v>
@@ -3573,7 +4197,7 @@
         <v>45848.75</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="AD11" s="0">
         <v>1.374858532409857</v>
@@ -3593,37 +4217,37 @@
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>438</v>
+        <v>527</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="P12" s="0">
         <v>1505.9900000000002</v>
@@ -3641,7 +4265,7 @@
         <v>59.626838708488926</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>527</v>
+        <v>634</v>
       </c>
       <c r="V12" s="0">
         <v>1.2902914470467604</v>
@@ -3665,7 +4289,7 @@
         <v>45849.770833333336</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD12" s="0">
         <v>1.308135760497652</v>
@@ -3685,37 +4309,37 @@
         <v>15</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>481</v>
+        <v>579</v>
       </c>
       <c r="P13" s="0">
         <v>1324.3999999999999</v>
@@ -3733,7 +4357,7 @@
         <v>52.437124539686678</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>528</v>
+        <v>635</v>
       </c>
       <c r="V13" s="0">
         <v>1.3361525944652537</v>
@@ -3757,7 +4381,7 @@
         <v>45849.770833333336</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD13" s="0">
         <v>1.3730730018482857</v>
@@ -3777,37 +4401,37 @@
         <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>482</v>
+        <v>580</v>
       </c>
       <c r="P14" s="0">
         <v>841.06000000000006</v>
@@ -3825,7 +4449,7 @@
         <v>33.300187228442219</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>529</v>
+        <v>636</v>
       </c>
       <c r="V14" s="0">
         <v>1.3075602158419721</v>
@@ -3849,7 +4473,7 @@
         <v>45850.625</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
       <c r="AD14" s="0">
         <v>1.3513437534538779</v>
@@ -3869,37 +4493,37 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
@@ -3933,7 +4557,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="0" t="s">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="AD15" s="0"/>
     </row>
@@ -3951,37 +4575,37 @@
         <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>483</v>
+        <v>581</v>
       </c>
       <c r="P16" s="0">
         <v>1383.0799999999999</v>
@@ -3999,7 +4623,7 @@
         <v>54.760448662299787</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>530</v>
+        <v>637</v>
       </c>
       <c r="V16" s="0">
         <v>1.2832071635011486</v>
@@ -4023,7 +4647,7 @@
         <v>45852.770833333336</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD16" s="0">
         <v>1.1504653730745049</v>
@@ -4043,37 +4667,37 @@
         <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>402</v>
+        <v>482</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>484</v>
+        <v>582</v>
       </c>
       <c r="P17" s="0">
         <v>1384.6400000000001</v>
@@ -4091,7 +4715,7 @@
         <v>54.822213925273161</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>531</v>
+        <v>638</v>
       </c>
       <c r="V17" s="0">
         <v>1.2907176659529154</v>
@@ -4115,7 +4739,7 @@
         <v>45852.770833333336</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD17" s="0">
         <v>1.3133362344348491</v>
@@ -4135,37 +4759,37 @@
         <v>19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>443</v>
+        <v>532</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>485</v>
+        <v>583</v>
       </c>
       <c r="P18" s="0">
         <v>1444.1600000000001</v>
@@ -4183,7 +4807,7 @@
         <v>57.178796266410387</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>532</v>
+        <v>639</v>
       </c>
       <c r="V18" s="0">
         <v>1.3279922796242345</v>
@@ -4207,7 +4831,7 @@
         <v>45853.770833333336</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD18" s="0">
         <v>1.4166090454685445</v>
@@ -4227,37 +4851,37 @@
         <v>20</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>404</v>
+        <v>484</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>486</v>
+        <v>584</v>
       </c>
       <c r="P19" s="0">
         <v>1503.6700000000003</v>
@@ -4275,7 +4899,7 @@
         <v>59.53498267637471</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>533</v>
+        <v>640</v>
       </c>
       <c r="V19" s="0">
         <v>1.3463680746447639</v>
@@ -4299,7 +4923,7 @@
         <v>45853.770833333336</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD19" s="0">
         <v>1.3605446135813399</v>
@@ -4319,37 +4943,37 @@
         <v>21</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>487</v>
+        <v>585</v>
       </c>
       <c r="P20" s="0">
         <v>962.79999999999973</v>
@@ -4367,7 +4991,7 @@
         <v>38.120253327401343</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>534</v>
+        <v>641</v>
       </c>
       <c r="V20" s="0">
         <v>1.2892621562058839</v>
@@ -4391,7 +5015,7 @@
         <v>45854.6875</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>577</v>
+        <v>693</v>
       </c>
       <c r="AD20" s="0">
         <v>1.6526647779309158</v>
@@ -4411,37 +5035,37 @@
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>365</v>
+        <v>437</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>446</v>
+        <v>535</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
       <c r="P21" s="0">
         <v>1023.98</v>
@@ -4459,7 +5083,7 @@
         <v>40.542560243240985</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>535</v>
+        <v>642</v>
       </c>
       <c r="V21" s="0">
         <v>1.3361760992642595</v>
@@ -4483,7 +5107,7 @@
         <v>45854.6875</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>577</v>
+        <v>693</v>
       </c>
       <c r="AD21" s="0">
         <v>1.3319336439538882</v>
@@ -4503,37 +5127,37 @@
         <v>23</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>489</v>
+        <v>587</v>
       </c>
       <c r="P22" s="0">
         <v>120.3</v>
@@ -4551,7 +5175,7 @@
         <v>4.7630520100606368</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>536</v>
+        <v>643</v>
       </c>
       <c r="V22" s="0">
         <v>1.164379475236802</v>
@@ -4575,7 +5199,7 @@
         <v>45856.458333333336</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>578</v>
+        <v>694</v>
       </c>
       <c r="AD22" s="0">
         <v>3.7790895337653154</v>
@@ -4595,37 +5219,37 @@
         <v>6</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4659,7 +5283,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="0" t="s">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="AD23" s="0"/>
     </row>
@@ -4677,37 +5301,37 @@
         <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>490</v>
+        <v>588</v>
       </c>
       <c r="P24" s="0">
         <v>1565.7000000000005</v>
@@ -4725,7 +5349,7 @@
         <v>61.990943741911387</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>537</v>
+        <v>644</v>
       </c>
       <c r="V24" s="0">
         <v>1.2705888190366077</v>
@@ -4749,7 +5373,7 @@
         <v>45859.75</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="AD24" s="0">
         <v>1.3066424724429031</v>
@@ -4769,37 +5393,37 @@
         <v>25</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="P25" s="0">
         <v>1503.5999999999997</v>
@@ -4817,7 +5441,7 @@
         <v>59.532211158164358</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>538</v>
+        <v>645</v>
       </c>
       <c r="V25" s="0">
         <v>1.341559442296089</v>
@@ -4841,7 +5465,7 @@
         <v>45859.770833333336</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD25" s="0">
         <v>1.3606079536471494</v>
@@ -4861,37 +5485,37 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>450</v>
+        <v>539</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="P26" s="0">
         <v>1567.1699999999996</v>
@@ -4909,7 +5533,7 @@
         <v>62.049145624328595</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
       <c r="V26" s="0">
         <v>1.2475272499102614</v>
@@ -4933,7 +5557,7 @@
         <v>45860.75</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="AD26" s="0">
         <v>1.3054168463560769</v>
@@ -4953,37 +5577,37 @@
         <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="P27" s="0">
         <v>1436.25</v>
@@ -5001,7 +5625,7 @@
         <v>56.865614708641644</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>540</v>
+        <v>647</v>
       </c>
       <c r="V27" s="0">
         <v>1.3085939610653958</v>
@@ -5025,7 +5649,7 @@
         <v>45860.791666666664</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="AD27" s="0">
         <v>1.4244108749200024</v>
@@ -5045,37 +5669,37 @@
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>452</v>
+        <v>541</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
       <c r="P28" s="0">
         <v>843.30999999999995</v>
@@ -5093,7 +5717,7 @@
         <v>33.389271742346097</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>541</v>
+        <v>648</v>
       </c>
       <c r="V28" s="0">
         <v>1.2793330842800392</v>
@@ -5117,7 +5741,7 @@
         <v>45861.666666666664</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="AD28" s="0">
         <v>2.1563812638861983</v>
@@ -5137,37 +5761,37 @@
         <v>6</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
@@ -5201,7 +5825,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="0" t="s">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="AD29" s="0"/>
     </row>
@@ -5219,37 +5843,37 @@
         <v>29</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="P30" s="0">
         <v>1203.3899999999999</v>
@@ -5267,7 +5891,7 @@
         <v>47.645961416349692</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>542</v>
+        <v>649</v>
       </c>
       <c r="V30" s="0">
         <v>1.3670833385187731</v>
@@ -5291,7 +5915,7 @@
         <v>45863.708333333336</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>577</v>
+        <v>693</v>
       </c>
       <c r="AD30" s="0">
         <v>1.3222526763492188</v>
@@ -5311,37 +5935,37 @@
         <v>30</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>372</v>
+        <v>444</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>454</v>
+        <v>543</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="P31" s="0">
         <v>300.76999999999998</v>
@@ -5359,7 +5983,7 @@
         <v>11.908421887497402</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="V31" s="0">
         <v>1.3345177178081791</v>
@@ -5383,7 +6007,7 @@
         <v>45863.520833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>580</v>
+        <v>696</v>
       </c>
       <c r="AD31" s="0">
         <v>1.5115352957807211</v>
@@ -5403,37 +6027,37 @@
         <v>31</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>455</v>
+        <v>544</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="P32" s="0">
         <v>1081.9300000000001</v>
@@ -5451,7 +6075,7 @@
         <v>42.836981390231962</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>544</v>
+        <v>651</v>
       </c>
       <c r="V32" s="0">
         <v>1.3676734003801554</v>
@@ -5475,7 +6099,7 @@
         <v>45864.583333333336</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>581</v>
+        <v>697</v>
       </c>
       <c r="AD32" s="0">
         <v>1.2605930261069591</v>
@@ -5495,37 +6119,37 @@
         <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
@@ -5559,7 +6183,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="0" t="s">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="AD33" s="0"/>
     </row>
@@ -5577,37 +6201,37 @@
         <v>32</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="P34" s="0">
         <v>1624.7900000000004</v>
@@ -5625,7 +6249,7 @@
         <v>64.330501042613662</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>545</v>
+        <v>652</v>
       </c>
       <c r="V34" s="0">
         <v>1.2647344367192943</v>
@@ -5649,7 +6273,7 @@
         <v>45866.770833333336</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="AD34" s="0">
         <v>1.2591227907014773</v>
@@ -5669,37 +6293,37 @@
         <v>33</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>457</v>
+        <v>546</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="P35" s="0">
         <v>1447.6000000000001</v>
@@ -5717,7 +6341,7 @@
         <v>57.314996589890093</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>546</v>
+        <v>653</v>
       </c>
       <c r="V35" s="0">
         <v>1.3347641027949453</v>
@@ -5741,7 +6365,7 @@
         <v>45866.791666666664</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="AD35" s="0">
         <v>1.4132426907321451</v>
@@ -5761,37 +6385,37 @@
         <v>34</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>458</v>
+        <v>547</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="P36" s="0">
         <v>722.63</v>
@@ -5809,7 +6433,7 @@
         <v>28.611174347715025</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>547</v>
+        <v>654</v>
       </c>
       <c r="V36" s="0">
         <v>1.2682107892190668</v>
@@ -5833,7 +6457,7 @@
         <v>45867.6875</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="AD36" s="0">
         <v>1.5728120577334441</v>
@@ -5853,37 +6477,37 @@
         <v>35</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>459</v>
+        <v>548</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="P37" s="0">
         <v>964.50000000000011</v>
@@ -5901,7 +6525,7 @@
         <v>38.187561626795386</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>548</v>
+        <v>655</v>
       </c>
       <c r="V37" s="0">
         <v>1.3426361311329063</v>
@@ -5925,7 +6549,7 @@
         <v>45867.6875</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="AD37" s="0">
         <v>1.4140730043918115</v>
@@ -5945,37 +6569,37 @@
         <v>36</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>419</v>
+        <v>499</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>460</v>
+        <v>549</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="P38" s="0">
         <v>361.29000000000002</v>
@@ -5993,7 +6617,7 @@
         <v>14.304597345925249</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>549</v>
+        <v>656</v>
       </c>
       <c r="V38" s="0">
         <v>1.1713716642833745</v>
@@ -6017,7 +6641,7 @@
         <v>45868.541666666664</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>581</v>
+        <v>697</v>
       </c>
       <c r="AD38" s="0">
         <v>2.5166734252925211</v>
@@ -6037,37 +6661,37 @@
         <v>37</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>379</v>
+        <v>450</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>461</v>
+        <v>550</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="P39" s="0">
         <v>423.25</v>
@@ -6085,7 +6709,7 @@
         <v>16.757786893251573</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>550</v>
+        <v>657</v>
       </c>
       <c r="V39" s="0">
         <v>1.3359759342097695</v>
@@ -6109,7 +6733,7 @@
         <v>45868.541666666664</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>581</v>
+        <v>697</v>
       </c>
       <c r="AD39" s="0">
         <v>1.6111912731670437</v>
@@ -6129,37 +6753,37 @@
         <v>38</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>462</v>
+        <v>551</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>504</v>
+        <v>602</v>
       </c>
       <c r="P40" s="0">
         <v>1627.7299999999998</v>
@@ -6177,7 +6801,7 @@
         <v>64.44690480744805</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>551</v>
+        <v>658</v>
       </c>
       <c r="V40" s="0">
         <v>1.2679429717244739</v>
@@ -6201,7 +6825,7 @@
         <v>45869.6875</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="AD40" s="0">
         <v>1.2568485677009416</v>
@@ -6221,37 +6845,37 @@
         <v>39</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>421</v>
+        <v>501</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>463</v>
+        <v>552</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>505</v>
+        <v>603</v>
       </c>
       <c r="P41" s="0">
         <v>1510.5899999999999</v>
@@ -6269,7 +6893,7 @@
         <v>59.80896704802575</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>552</v>
+        <v>659</v>
       </c>
       <c r="V41" s="0">
         <v>1.3208052888886601</v>
@@ -6293,7 +6917,7 @@
         <v>45869.6875</v>
       </c>
       <c r="AC41" s="0" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="AD41" s="0">
         <v>1.3543119702261059</v>
@@ -6313,37 +6937,37 @@
         <v>40</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>464</v>
+        <v>553</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>506</v>
+        <v>604</v>
       </c>
       <c r="P42" s="0">
         <v>1627.5099999999995</v>
@@ -6361,7 +6985,7 @@
         <v>64.438194321644104</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>553</v>
+        <v>660</v>
       </c>
       <c r="V42" s="0">
         <v>1.2690299729974424</v>
@@ -6385,7 +7009,7 @@
         <v>45870.708333333336</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD42" s="0">
         <v>1.3966871813751298</v>
@@ -6405,37 +7029,37 @@
         <v>41</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>465</v>
+        <v>554</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>507</v>
+        <v>605</v>
       </c>
       <c r="P43" s="0">
         <v>1508.7499999999998</v>
@@ -6453,7 +7077,7 @@
         <v>59.736115712211017</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>554</v>
+        <v>661</v>
       </c>
       <c r="V43" s="0">
         <v>1.316590458926058</v>
@@ -6477,7 +7101,7 @@
         <v>45870.708333333336</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD43" s="0">
         <v>1.3559636249238467</v>
@@ -6497,37 +7121,37 @@
         <v>42</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="P44" s="0">
         <v>1144.8799999999999</v>
@@ -6545,7 +7169,7 @@
         <v>45.329368123676005</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="V44" s="0">
         <v>1.2573305642491719</v>
@@ -6569,7 +7193,7 @@
         <v>45873.708333333336</v>
       </c>
       <c r="AC44" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD44" s="0">
         <v>1.588374225812198</v>
@@ -6589,37 +7213,37 @@
         <v>43</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
       <c r="P45" s="0">
         <v>1082.7199999999998</v>
@@ -6637,7 +7261,7 @@
         <v>42.868259952891549</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="V45" s="0">
         <v>1.3340406179967317</v>
@@ -6661,7 +7285,7 @@
         <v>45873.708333333336</v>
       </c>
       <c r="AC45" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD45" s="0">
         <v>1.2596732421456167</v>
@@ -6681,37 +7305,37 @@
         <v>44</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>510</v>
+        <v>608</v>
       </c>
       <c r="P46" s="0">
         <v>1386.1299999999997</v>
@@ -6729,7 +7353,7 @@
         <v>54.881207670036169</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>557</v>
+        <v>664</v>
       </c>
       <c r="V46" s="0">
         <v>1.2621077950115438</v>
@@ -6753,7 +7377,7 @@
         <v>45874.708333333336</v>
       </c>
       <c r="AC46" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD46" s="0">
         <v>1.311924483019536</v>
@@ -6767,64 +7391,64 @@
         <v>3</v>
       </c>
       <c r="C47" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="P47" s="0">
-        <v>1323.2700000000002</v>
+        <v>1263.1600000000001</v>
       </c>
       <c r="Q47" s="0">
-        <v>60.148636363636371</v>
+        <v>60.150476190476198</v>
       </c>
       <c r="R47" s="0">
-        <v>1.288129148126965</v>
+        <v>1.3742487691527061</v>
       </c>
       <c r="S47" s="0">
-        <v>67.453999999999979</v>
+        <v>68.729999999999976</v>
       </c>
       <c r="T47" s="0">
-        <v>52.392384317148291</v>
+        <v>50.012442036809595</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>558</v>
+        <v>665</v>
       </c>
       <c r="V47" s="0">
-        <v>1.287477194999922</v>
+        <v>1.37425802862044</v>
       </c>
       <c r="W47" s="0">
         <v>72</v>
@@ -6845,10 +7469,10 @@
         <v>45874.708333333336</v>
       </c>
       <c r="AC47" s="0" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="AD47" s="0">
-        <v>1.3742455308802206</v>
+        <v>1.4396417584849659</v>
       </c>
     </row>
     <row r="48">
@@ -6865,37 +7489,37 @@
         <v>46</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>470</v>
+        <v>559</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="P48" s="0">
         <v>1145.6300000000001</v>
@@ -6913,16 +7537,16 @@
         <v>45.359062961643943</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>559</v>
+        <v>666</v>
       </c>
       <c r="V48" s="0">
         <v>1.2682140292149262</v>
       </c>
       <c r="W48" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="Y48" s="1">
         <v>45875.3200462963</v>
@@ -6930,13 +7554,17 @@
       <c r="Z48" s="1">
         <v>45875.665775462963</v>
       </c>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
+      <c r="AA48" s="1">
+        <v>45875.291666666664</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>45875.75</v>
+      </c>
       <c r="AC48" s="0" t="s">
-        <v>569</v>
+        <v>691</v>
       </c>
       <c r="AD48" s="0">
-        <v>0</v>
+        <v>1.3889175808872727</v>
       </c>
     </row>
     <row r="49">
@@ -6953,37 +7581,37 @@
         <v>47</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="P49" s="0">
         <v>901.75</v>
@@ -6992,25 +7620,25 @@
         <v>60.116666666666667</v>
       </c>
       <c r="R49" s="0">
-        <v>1.3028771223178701</v>
+        <v>1.3938294590156466</v>
       </c>
       <c r="S49" s="0">
-        <v>46.515999999999991</v>
+        <v>49.763999999999989</v>
       </c>
       <c r="T49" s="0">
         <v>35.703093516809467</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>560</v>
+        <v>667</v>
       </c>
       <c r="V49" s="0">
-        <v>1.3028562910970074</v>
+        <v>1.3938288002010377</v>
       </c>
       <c r="W49" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="X49" s="0">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="Y49" s="1">
         <v>45875.333993055552</v>
@@ -7018,12 +7646,922 @@
       <c r="Z49" s="1">
         <v>45875.709710648145</v>
       </c>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
+      <c r="AA49" s="1">
+        <v>45875.291666666664</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>45875.75</v>
+      </c>
       <c r="AC49" s="0" t="s">
-        <v>569</v>
+        <v>691</v>
       </c>
       <c r="AD49" s="0">
+        <v>1.7645529783109355</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0">
+        <v>19</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="P50" s="0">
+        <v>1143.8699999999999</v>
+      </c>
+      <c r="Q50" s="0">
+        <v>60.203684210526312</v>
+      </c>
+      <c r="R50" s="0">
+        <v>1.2897184551725969</v>
+      </c>
+      <c r="S50" s="0">
+        <v>58.409999999999982</v>
+      </c>
+      <c r="T50" s="0">
+        <v>45.28937907521248</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="V50" s="0">
+        <v>1.2897063548386911</v>
+      </c>
+      <c r="W50" s="0">
+        <v>72</v>
+      </c>
+      <c r="X50" s="0">
+        <v>94</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45876.318912037037</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>45876.679282407407</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>45876.291666666664</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>45876.645833333336</v>
+      </c>
+      <c r="AC50" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>1.5897767085839034</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="0">
+        <v>24</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="P51" s="0">
+        <v>1443.99</v>
+      </c>
+      <c r="Q51" s="0">
+        <v>60.166249999999998</v>
+      </c>
+      <c r="R51" s="0">
+        <v>1.3523176005152715</v>
+      </c>
+      <c r="S51" s="0">
+        <v>77.314000000000007</v>
+      </c>
+      <c r="T51" s="0">
+        <v>57.172065436470987</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="V51" s="0">
+        <v>1.3523037764992158</v>
+      </c>
+      <c r="W51" s="0">
+        <v>90</v>
+      </c>
+      <c r="X51" s="0">
+        <v>94</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45876.319421296299</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>45876.704953703702</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>45876.291666666664</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>45876.75</v>
+      </c>
+      <c r="AC51" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD51" s="0">
+        <v>1.5741953576962699</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>17</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="P52" s="0">
+        <v>1022.8399999999999</v>
+      </c>
+      <c r="Q52" s="0">
+        <v>60.167058823529409</v>
+      </c>
+      <c r="R52" s="0">
+        <v>1.2645711950466667</v>
+      </c>
+      <c r="S52" s="0">
+        <v>51.211999999999982</v>
+      </c>
+      <c r="T52" s="0">
+        <v>40.497424089529687</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="V52" s="0">
+        <v>1.2645742575326036</v>
+      </c>
+      <c r="W52" s="0">
+        <v>54</v>
+      </c>
+      <c r="X52" s="0">
+        <v>87.25</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45877.306134259263</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>45877.537974537037</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>45877.291666666664</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>45877.645833333336</v>
+      </c>
+      <c r="AC52" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD52" s="0">
+        <v>1.3334181423643017</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0">
+        <v>24</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="P53" s="0">
+        <v>1448.9200000000001</v>
+      </c>
+      <c r="Q53" s="0">
+        <v>60.37166666666667</v>
+      </c>
+      <c r="R53" s="0">
+        <v>1.3760167862454711</v>
+      </c>
+      <c r="S53" s="0">
+        <v>78.937999999999988</v>
+      </c>
+      <c r="T53" s="0">
+        <v>57.367259504713687</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="V53" s="0">
+        <v>1.3760113465680526</v>
+      </c>
+      <c r="W53" s="0">
+        <v>81</v>
+      </c>
+      <c r="X53" s="0">
+        <v>87.25</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45877.326377314814</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>45877.618807870371</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>45877.291666666664</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>45877.75</v>
+      </c>
+      <c r="AC53" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD53" s="0">
+        <v>1.4119551935951287</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0">
+        <v>22</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="P54" s="0">
+        <v>1324.24</v>
+      </c>
+      <c r="Q54" s="0">
+        <v>60.192727272727275</v>
+      </c>
+      <c r="R54" s="0">
+        <v>1.2749509565190731</v>
+      </c>
+      <c r="S54" s="0">
+        <v>66.84699999999998</v>
+      </c>
+      <c r="T54" s="0">
+        <v>52.430789640920189</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="V54" s="0">
+        <v>1.2749569567388033</v>
+      </c>
+      <c r="W54" s="0">
+        <v>81</v>
+      </c>
+      <c r="X54" s="0">
+        <v>159</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45880.297326388885</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>45880.624918981484</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>45880.291666666664</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>45880.708333333336</v>
+      </c>
+      <c r="AC54" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD54" s="0">
+        <v>1.5448937648038521</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0">
+        <v>0</v>
+      </c>
+      <c r="R55" s="0">
+        <v>0</v>
+      </c>
+      <c r="S55" s="0">
+        <v>0</v>
+      </c>
+      <c r="T55" s="0">
+        <v>0</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="V55" s="0">
+        <v>0</v>
+      </c>
+      <c r="W55" s="0">
+        <v>0</v>
+      </c>
+      <c r="X55" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1">
+        <v>45880.291666666664</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>45880.645833333336</v>
+      </c>
+      <c r="AC55" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0">
+        <v>23</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="P56" s="0">
+        <v>1385.46</v>
+      </c>
+      <c r="Q56" s="0">
+        <v>60.237391304347831</v>
+      </c>
+      <c r="R56" s="0">
+        <v>1.2723910408534074</v>
+      </c>
+      <c r="S56" s="0">
+        <v>69.796999999999969</v>
+      </c>
+      <c r="T56" s="0">
+        <v>54.854680281451451</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="V56" s="0">
+        <v>1.2723982646855589</v>
+      </c>
+      <c r="W56" s="0">
+        <v>81</v>
+      </c>
+      <c r="X56" s="0">
+        <v>86.5</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45881.269074074073</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>45881.659178240741</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>45881.25</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>45881.729166666664</v>
+      </c>
+      <c r="AC56" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="AD56" s="0">
+        <v>1.4766287869038828</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0">
+        <v>24</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="P57" s="0">
+        <v>1443.2800000000002</v>
+      </c>
+      <c r="Q57" s="0">
+        <v>60.136666666666677</v>
+      </c>
+      <c r="R57" s="0">
+        <v>1.3519652415431638</v>
+      </c>
+      <c r="S57" s="0">
+        <v>77.256</v>
+      </c>
+      <c r="T57" s="0">
+        <v>57.143954323194649</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="V57" s="0">
+        <v>1.3519540415956461</v>
+      </c>
+      <c r="W57" s="0">
+        <v>81</v>
+      </c>
+      <c r="X57" s="0">
+        <v>86.5</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45881.290798611109</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>45881.684988425928</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>45881.25</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>45881.708333333336</v>
+      </c>
+      <c r="AC57" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD57" s="0">
+        <v>1.4174727835928256</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="0">
+        <v>17</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P58" s="0">
+        <v>1023.9999999999999</v>
+      </c>
+      <c r="Q58" s="0">
+        <v>60.235294117647051</v>
+      </c>
+      <c r="R58" s="0">
+        <v>1.2747854483486445</v>
+      </c>
+      <c r="S58" s="0">
+        <v>51.683999999999983</v>
+      </c>
+      <c r="T58" s="0">
+        <v>40.543352105586791</v>
+      </c>
+      <c r="U58" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="V58" s="0">
+        <v>1.2747835912876586</v>
+      </c>
+      <c r="W58" s="0">
+        <v>0</v>
+      </c>
+      <c r="X58" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45883.277546296296</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>45883.583333333336</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="AD58" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="0">
+        <v>22</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P59" s="0">
+        <v>1328.22</v>
+      </c>
+      <c r="Q59" s="0">
+        <v>60.373636363636365</v>
+      </c>
+      <c r="R59" s="0">
+        <v>1.3455011812576692</v>
+      </c>
+      <c r="S59" s="0">
+        <v>70.759999999999991</v>
+      </c>
+      <c r="T59" s="0">
+        <v>52.588370247736812</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="V59" s="0">
+        <v>1.3455446454541005</v>
+      </c>
+      <c r="W59" s="0">
+        <v>0</v>
+      </c>
+      <c r="X59" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>45883.296319444446</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>45883.588379629633</v>
+      </c>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="AD59" s="0">
         <v>0</v>
       </c>
     </row>
@@ -7033,7 +8571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7057,90 +8595,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E1" t="s">
-        <v>624</v>
-      </c>
-      <c r="F1" t="s">
-        <v>665</v>
-      </c>
-      <c r="G1" t="s">
-        <v>706</v>
-      </c>
-      <c r="H1" t="s">
-        <v>745</v>
-      </c>
-      <c r="I1" t="s">
-        <v>786</v>
-      </c>
-      <c r="J1" t="s">
-        <v>826</v>
-      </c>
-      <c r="K1" t="s">
-        <v>827</v>
-      </c>
-      <c r="L1" t="s">
-        <v>828</v>
-      </c>
-      <c r="M1" t="s">
-        <v>829</v>
-      </c>
-      <c r="N1" t="s">
-        <v>562</v>
-      </c>
-      <c r="O1" t="s">
-        <v>563</v>
+      <c r="D1" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>45839</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>0</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2">
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>0</v>
       </c>
     </row>
@@ -7148,46 +8686,46 @@
       <c r="A3" s="1">
         <v>45839</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="I3" t="s">
-        <v>431</v>
-      </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>59.835624999999993</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>1.2306998204597133</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>1.8994723917063097</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>72</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0">
         <v>94.5</v>
       </c>
     </row>
@@ -7195,40 +8733,40 @@
       <c r="A4" s="1">
         <v>45840</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>0</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4">
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0">
         <v>0</v>
       </c>
     </row>
@@ -7236,46 +8774,46 @@
       <c r="A5" s="1">
         <v>45840</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F5" t="s">
-        <v>666</v>
-      </c>
-      <c r="G5" t="s">
-        <v>707</v>
-      </c>
-      <c r="H5" t="s">
-        <v>746</v>
-      </c>
-      <c r="I5" t="s">
-        <v>787</v>
-      </c>
-      <c r="J5">
+      <c r="D5" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="J5" s="0">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>60.034594594594601</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>1.2410565917653948</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>1.6380025768647488</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <v>144</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <v>196.75</v>
       </c>
     </row>
@@ -7283,46 +8821,46 @@
       <c r="A6" s="1">
         <v>45846</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>60.189999999999998</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0">
         <v>1.3864237801527943</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0">
         <v>3.7765780936365467</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <v>9</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <v>78.25</v>
       </c>
     </row>
@@ -7330,46 +8868,46 @@
       <c r="A7" s="1">
         <v>45846</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
-        <v>586</v>
-      </c>
-      <c r="E7" t="s">
-        <v>626</v>
-      </c>
-      <c r="F7" t="s">
-        <v>667</v>
-      </c>
-      <c r="G7" t="s">
-        <v>708</v>
-      </c>
-      <c r="H7" t="s">
-        <v>747</v>
-      </c>
-      <c r="I7" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7">
+      <c r="D7" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="J7" s="0">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>60.087868852459025</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>1.2516662409660557</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>1.6128594968376644</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <v>234</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <v>275</v>
       </c>
     </row>
@@ -7377,46 +8915,46 @@
       <c r="A8" s="1">
         <v>45847</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>627</v>
-      </c>
-      <c r="F8" t="s">
-        <v>668</v>
-      </c>
-      <c r="G8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" t="s">
-        <v>748</v>
-      </c>
-      <c r="I8" t="s">
-        <v>434</v>
-      </c>
-      <c r="J8">
+      <c r="E8" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J8" s="0">
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>60.03263157894736</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>1.2659282449144478</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>1.3946713077178323</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0">
         <v>63</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0">
         <v>158.25</v>
       </c>
     </row>
@@ -7424,46 +8962,46 @@
       <c r="A9" s="1">
         <v>45847</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E9" t="s">
-        <v>628</v>
-      </c>
-      <c r="F9" t="s">
-        <v>669</v>
-      </c>
-      <c r="G9" t="s">
-        <v>709</v>
-      </c>
-      <c r="H9" t="s">
-        <v>749</v>
-      </c>
-      <c r="I9" t="s">
-        <v>789</v>
-      </c>
-      <c r="J9">
+      <c r="D9" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="J9" s="0">
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>60.10270588235295</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>1.2627651023424522</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>1.5576665278641435</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>315</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0">
         <v>355</v>
       </c>
     </row>
@@ -7471,46 +9009,46 @@
       <c r="A10" s="1">
         <v>45848</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>588</v>
-      </c>
-      <c r="E10" t="s">
-        <v>629</v>
-      </c>
-      <c r="F10" t="s">
-        <v>670</v>
-      </c>
-      <c r="G10" t="s">
-        <v>710</v>
-      </c>
-      <c r="H10" t="s">
-        <v>750</v>
-      </c>
-      <c r="I10" t="s">
-        <v>790</v>
-      </c>
-      <c r="J10">
+      <c r="D10" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="J10" s="0">
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0">
         <v>60.281666666666659</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>1.2681053022932753</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>1.3825076146770925</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <v>99</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <v>240.5</v>
       </c>
     </row>
@@ -7518,46 +9056,46 @@
       <c r="A11" s="1">
         <v>45848</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>107</v>
       </c>
-      <c r="D11" t="s">
-        <v>589</v>
-      </c>
-      <c r="E11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F11" t="s">
-        <v>671</v>
-      </c>
-      <c r="G11" t="s">
-        <v>711</v>
-      </c>
-      <c r="H11" t="s">
-        <v>751</v>
-      </c>
-      <c r="I11" t="s">
-        <v>791</v>
-      </c>
-      <c r="J11">
+      <c r="D11" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="J11" s="0">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>60.106635514018699</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>1.27570649697556</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>1.5200798372099913</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <v>387</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <v>437.25</v>
       </c>
     </row>
@@ -7565,46 +9103,46 @@
       <c r="A12" s="1">
         <v>45849</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>590</v>
-      </c>
-      <c r="E12" t="s">
-        <v>631</v>
-      </c>
-      <c r="F12" t="s">
-        <v>672</v>
-      </c>
-      <c r="G12" t="s">
-        <v>712</v>
-      </c>
-      <c r="H12" t="s">
-        <v>752</v>
-      </c>
-      <c r="I12" t="s">
-        <v>792</v>
-      </c>
-      <c r="J12">
+      <c r="D12" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="J12" s="0">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>60.262545454545453</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>1.2781899135448596</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>1.3487022264137103</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <v>177</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <v>323</v>
       </c>
     </row>
@@ -7612,46 +9150,46 @@
       <c r="A13" s="1">
         <v>45849</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>129</v>
       </c>
-      <c r="D13" t="s">
-        <v>591</v>
-      </c>
-      <c r="E13" t="s">
-        <v>632</v>
-      </c>
-      <c r="F13" t="s">
-        <v>673</v>
-      </c>
-      <c r="G13" t="s">
-        <v>713</v>
-      </c>
-      <c r="H13" t="s">
-        <v>753</v>
-      </c>
-      <c r="I13" t="s">
-        <v>793</v>
-      </c>
-      <c r="J13">
+      <c r="D13" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="J13" s="0">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <v>60.122558139534888</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>1.2860151337567483</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0">
         <v>1.4950089040475298</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0">
         <v>459</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0">
         <v>519.75</v>
       </c>
     </row>
@@ -7659,46 +9197,46 @@
       <c r="A14" s="1">
         <v>45850</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
-        <v>592</v>
-      </c>
-      <c r="E14" t="s">
-        <v>633</v>
-      </c>
-      <c r="F14" t="s">
-        <v>674</v>
-      </c>
-      <c r="G14" t="s">
-        <v>714</v>
-      </c>
-      <c r="H14" t="s">
-        <v>754</v>
-      </c>
-      <c r="I14" t="s">
-        <v>794</v>
-      </c>
-      <c r="J14">
+      <c r="D14" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="J14" s="0">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>60.224637681159422</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0">
         <v>1.2841491053152883</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0">
         <v>1.3492381884218603</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0">
         <v>222</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0">
         <v>402</v>
       </c>
     </row>
@@ -7706,46 +9244,46 @@
       <c r="A15" s="1">
         <v>45850</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>129</v>
       </c>
-      <c r="D15" t="s">
-        <v>591</v>
-      </c>
-      <c r="E15" t="s">
-        <v>632</v>
-      </c>
-      <c r="F15" t="s">
-        <v>673</v>
-      </c>
-      <c r="G15" t="s">
-        <v>713</v>
-      </c>
-      <c r="H15" t="s">
-        <v>753</v>
-      </c>
-      <c r="I15" t="s">
-        <v>793</v>
-      </c>
-      <c r="J15">
+      <c r="D15" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="J15" s="0">
         <v>6</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>60.122558139534888</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0">
         <v>1.2860151337567483</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0">
         <v>1.4950089040475298</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <v>459</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <v>519.75</v>
       </c>
     </row>
@@ -7753,46 +9291,46 @@
       <c r="A16" s="1">
         <v>45852</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
-        <v>593</v>
-      </c>
-      <c r="E16" t="s">
-        <v>634</v>
-      </c>
-      <c r="F16" t="s">
-        <v>675</v>
-      </c>
-      <c r="G16" t="s">
-        <v>715</v>
-      </c>
-      <c r="H16" t="s">
-        <v>755</v>
-      </c>
-      <c r="I16" t="s">
-        <v>795</v>
-      </c>
-      <c r="J16">
+      <c r="D16" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="J16" s="0">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>60.201956521739127</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0">
         <v>1.2839136198617533</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0">
         <v>1.2995449845850213</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <v>285</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <v>478</v>
       </c>
     </row>
@@ -7800,46 +9338,46 @@
       <c r="A17" s="1">
         <v>45852</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>152</v>
       </c>
-      <c r="D17" t="s">
-        <v>594</v>
-      </c>
-      <c r="E17" t="s">
-        <v>635</v>
-      </c>
-      <c r="F17" t="s">
-        <v>676</v>
-      </c>
-      <c r="G17" t="s">
-        <v>716</v>
-      </c>
-      <c r="H17" t="s">
-        <v>756</v>
-      </c>
-      <c r="I17" t="s">
-        <v>796</v>
-      </c>
-      <c r="J17">
+      <c r="D17" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="J17" s="0">
         <v>7</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <v>60.134539473684214</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0">
         <v>1.2867267011285366</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0">
         <v>1.4675189606192951</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <v>531</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <v>595.75</v>
       </c>
     </row>
@@ -7847,46 +9385,46 @@
       <c r="A18" s="1">
         <v>45853</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>116</v>
       </c>
-      <c r="D18" t="s">
-        <v>595</v>
-      </c>
-      <c r="E18" t="s">
-        <v>636</v>
-      </c>
-      <c r="F18" t="s">
-        <v>677</v>
-      </c>
-      <c r="G18" t="s">
-        <v>717</v>
-      </c>
-      <c r="H18" t="s">
-        <v>757</v>
-      </c>
-      <c r="I18" t="s">
-        <v>797</v>
-      </c>
-      <c r="J18">
+      <c r="D18" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="J18" s="0">
         <v>7</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <v>60.19603448275862</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>1.2930333425712321</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0">
         <v>1.3237651351126467</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0">
         <v>366</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0">
         <v>563.25</v>
       </c>
     </row>
@@ -7894,46 +9432,46 @@
       <c r="A19" s="1">
         <v>45853</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>177</v>
       </c>
-      <c r="D19" t="s">
-        <v>596</v>
-      </c>
-      <c r="E19" t="s">
-        <v>637</v>
-      </c>
-      <c r="F19" t="s">
-        <v>678</v>
-      </c>
-      <c r="G19" t="s">
-        <v>718</v>
-      </c>
-      <c r="H19" t="s">
-        <v>758</v>
-      </c>
-      <c r="I19" t="s">
-        <v>798</v>
-      </c>
-      <c r="J19">
+      <c r="D19" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="J19" s="0">
         <v>8</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>60.13627118644068</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0">
         <v>1.2951506239415631</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0">
         <v>1.4524095895687366</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0">
         <v>612</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0">
         <v>681</v>
       </c>
     </row>
@@ -7941,46 +9479,46 @@
       <c r="A20" s="1">
         <v>45854</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>132</v>
       </c>
-      <c r="D20" t="s">
-        <v>597</v>
-      </c>
-      <c r="E20" t="s">
-        <v>638</v>
-      </c>
-      <c r="F20" t="s">
-        <v>679</v>
-      </c>
-      <c r="G20" t="s">
-        <v>719</v>
-      </c>
-      <c r="H20" t="s">
-        <v>759</v>
-      </c>
-      <c r="I20" t="s">
-        <v>799</v>
-      </c>
-      <c r="J20">
+      <c r="D20" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="J20" s="0">
         <v>8</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>60.193484848484843</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>1.2925762290724021</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0">
         <v>1.3636317584845581</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0">
         <v>429</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0">
         <v>636.75</v>
       </c>
     </row>
@@ -7988,46 +9526,46 @@
       <c r="A21" s="1">
         <v>45854</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>194</v>
       </c>
-      <c r="D21" t="s">
-        <v>598</v>
-      </c>
-      <c r="E21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F21" t="s">
-        <v>680</v>
-      </c>
-      <c r="G21" t="s">
-        <v>720</v>
-      </c>
-      <c r="H21" t="s">
-        <v>760</v>
-      </c>
-      <c r="I21" t="s">
-        <v>800</v>
-      </c>
-      <c r="J21">
+      <c r="D21" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="J21" s="0">
         <v>9</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <v>60.144845360824746</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>1.2987456398203561</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0">
         <v>1.4418524190767137</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0">
         <v>666</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="0">
         <v>754.5</v>
       </c>
     </row>
@@ -8035,46 +9573,46 @@
       <c r="A22" s="1">
         <v>45856</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>134</v>
       </c>
-      <c r="D22" t="s">
-        <v>599</v>
-      </c>
-      <c r="E22" t="s">
-        <v>640</v>
-      </c>
-      <c r="F22" t="s">
-        <v>681</v>
-      </c>
-      <c r="G22" t="s">
-        <v>719</v>
-      </c>
-      <c r="H22" t="s">
-        <v>761</v>
-      </c>
-      <c r="I22" t="s">
-        <v>801</v>
-      </c>
-      <c r="J22">
+      <c r="D22" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="J22" s="0">
         <v>9</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <v>60.192835820895517</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0">
         <v>1.290662844686796</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0">
         <v>1.399683367070838</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0">
         <v>447</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0">
         <v>706.75</v>
       </c>
     </row>
@@ -8082,46 +9620,46 @@
       <c r="A23" s="1">
         <v>45856</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>194</v>
       </c>
-      <c r="D23" t="s">
-        <v>598</v>
-      </c>
-      <c r="E23" t="s">
-        <v>639</v>
-      </c>
-      <c r="F23" t="s">
-        <v>680</v>
-      </c>
-      <c r="G23" t="s">
-        <v>720</v>
-      </c>
-      <c r="H23" t="s">
-        <v>760</v>
-      </c>
-      <c r="I23" t="s">
-        <v>800</v>
-      </c>
-      <c r="J23">
+      <c r="D23" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="J23" s="0">
         <v>9</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <v>60.144845360824746</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0">
         <v>1.2987456398203561</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0">
         <v>1.4418524190767137</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0">
         <v>666</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="0">
         <v>754.5</v>
       </c>
     </row>
@@ -8129,46 +9667,46 @@
       <c r="A24" s="1">
         <v>45859</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>160</v>
       </c>
-      <c r="D24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E24" t="s">
-        <v>641</v>
-      </c>
-      <c r="F24" t="s">
-        <v>682</v>
-      </c>
-      <c r="G24" t="s">
-        <v>721</v>
-      </c>
-      <c r="H24" t="s">
-        <v>762</v>
-      </c>
-      <c r="I24" t="s">
-        <v>802</v>
-      </c>
-      <c r="J24">
+      <c r="D24" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="J24" s="0">
         <v>10</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0">
         <v>60.197124999999993</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0">
         <v>1.2874008155186405</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0">
         <v>1.3845642216937986</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0">
         <v>528</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0">
         <v>790.25</v>
       </c>
     </row>
@@ -8176,46 +9714,46 @@
       <c r="A25" s="1">
         <v>45859</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>219</v>
       </c>
-      <c r="D25" t="s">
-        <v>601</v>
-      </c>
-      <c r="E25" t="s">
-        <v>642</v>
-      </c>
-      <c r="F25" t="s">
-        <v>683</v>
-      </c>
-      <c r="G25" t="s">
-        <v>722</v>
-      </c>
-      <c r="H25" t="s">
-        <v>763</v>
-      </c>
-      <c r="I25" t="s">
-        <v>803</v>
-      </c>
-      <c r="J25">
+      <c r="D25" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="J25" s="0">
         <v>10</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0">
         <v>60.144748858447493</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0">
         <v>1.3036330601942983</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0">
         <v>1.4325779367217408</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0">
         <v>747</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="0">
         <v>838</v>
       </c>
     </row>
@@ -8223,46 +9761,46 @@
       <c r="A26" s="1">
         <v>45860</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>186</v>
       </c>
-      <c r="D26" t="s">
-        <v>602</v>
-      </c>
-      <c r="E26" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" t="s">
-        <v>684</v>
-      </c>
-      <c r="G26" t="s">
-        <v>723</v>
-      </c>
-      <c r="H26" t="s">
-        <v>764</v>
-      </c>
-      <c r="I26" t="s">
-        <v>804</v>
-      </c>
-      <c r="J26">
+      <c r="D26" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="J26" s="0">
         <v>11</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0">
         <v>60.208118279569888</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0">
         <v>1.2818270912938132</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0">
         <v>1.3735006100874503</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0">
         <v>609</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0">
         <v>892.5</v>
       </c>
     </row>
@@ -8270,46 +9808,46 @@
       <c r="A27" s="1">
         <v>45860</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>243</v>
       </c>
-      <c r="D27" t="s">
-        <v>603</v>
-      </c>
-      <c r="E27" t="s">
-        <v>644</v>
-      </c>
-      <c r="F27" t="s">
-        <v>685</v>
-      </c>
-      <c r="G27" t="s">
-        <v>724</v>
-      </c>
-      <c r="H27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I27" t="s">
-        <v>805</v>
-      </c>
-      <c r="J27">
+      <c r="D27" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="J27" s="0">
         <v>11</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0">
         <v>60.115020576131691</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0">
         <v>1.3041230257124312</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0">
         <v>1.4317713133339147</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0">
         <v>828</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0">
         <v>940.25</v>
       </c>
     </row>
@@ -8317,46 +9855,46 @@
       <c r="A28" s="1">
         <v>45861</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>200</v>
       </c>
-      <c r="D28" t="s">
-        <v>604</v>
-      </c>
-      <c r="E28" t="s">
-        <v>645</v>
-      </c>
-      <c r="F28" t="s">
-        <v>686</v>
-      </c>
-      <c r="G28" t="s">
-        <v>725</v>
-      </c>
-      <c r="H28" t="s">
-        <v>766</v>
-      </c>
-      <c r="I28" t="s">
-        <v>806</v>
-      </c>
-      <c r="J28">
+      <c r="D28" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="J28" s="0">
         <v>12</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0">
         <v>60.21009999999999</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0">
         <v>1.2816525108028491</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0">
         <v>1.4283022558533629</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0">
         <v>681</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="0">
         <v>1017</v>
       </c>
     </row>
@@ -8364,46 +9902,46 @@
       <c r="A29" s="1">
         <v>45861</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>243</v>
       </c>
-      <c r="D29" t="s">
-        <v>603</v>
-      </c>
-      <c r="E29" t="s">
-        <v>644</v>
-      </c>
-      <c r="F29" t="s">
-        <v>685</v>
-      </c>
-      <c r="G29" t="s">
-        <v>724</v>
-      </c>
-      <c r="H29" t="s">
-        <v>765</v>
-      </c>
-      <c r="I29" t="s">
-        <v>805</v>
-      </c>
-      <c r="J29">
+      <c r="D29" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="J29" s="0">
         <v>11</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0">
         <v>60.115020576131691</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0">
         <v>1.3041230257124312</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0">
         <v>1.4317713133339147</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0">
         <v>828</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0">
         <v>940.25</v>
       </c>
     </row>
@@ -8411,46 +9949,46 @@
       <c r="A30" s="1">
         <v>45863</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>220</v>
       </c>
-      <c r="D30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F30" t="s">
-        <v>687</v>
-      </c>
-      <c r="G30" t="s">
-        <v>726</v>
-      </c>
-      <c r="H30" t="s">
-        <v>767</v>
-      </c>
-      <c r="I30" t="s">
-        <v>807</v>
-      </c>
-      <c r="J30">
+      <c r="D30" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="J30" s="0">
         <v>13</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0">
         <v>60.206409090909084</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0">
         <v>1.289418949686115</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0">
         <v>1.4186613849893497</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0">
         <v>744</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0">
         <v>1085</v>
       </c>
     </row>
@@ -8458,46 +9996,46 @@
       <c r="A31" s="1">
         <v>45863</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>248</v>
       </c>
-      <c r="D31" t="s">
-        <v>606</v>
-      </c>
-      <c r="E31" t="s">
-        <v>647</v>
-      </c>
-      <c r="F31" t="s">
-        <v>688</v>
-      </c>
-      <c r="G31" t="s">
-        <v>727</v>
-      </c>
-      <c r="H31" t="s">
-        <v>768</v>
-      </c>
-      <c r="I31" t="s">
-        <v>808</v>
-      </c>
-      <c r="J31">
+      <c r="D31" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="J31" s="0">
         <v>12</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0">
         <v>60.115806451612904</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0">
         <v>1.3047358219240393</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0">
         <v>1.43337945814131</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0">
         <v>846</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0">
         <v>1008.25</v>
       </c>
     </row>
@@ -8505,46 +10043,46 @@
       <c r="A32" s="1">
         <v>45864</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>238</v>
       </c>
-      <c r="D32" t="s">
-        <v>607</v>
-      </c>
-      <c r="E32" t="s">
-        <v>648</v>
-      </c>
-      <c r="F32" t="s">
-        <v>689</v>
-      </c>
-      <c r="G32" t="s">
-        <v>728</v>
-      </c>
-      <c r="H32" t="s">
-        <v>769</v>
-      </c>
-      <c r="I32" t="s">
-        <v>809</v>
-      </c>
-      <c r="J32">
+      <c r="D32" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="J32" s="0">
         <v>14</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0">
         <v>60.198907563025202</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0">
         <v>1.295337353520118</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0">
         <v>1.4067066351579085</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="0">
         <v>798</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="0">
         <v>1158</v>
       </c>
     </row>
@@ -8552,46 +10090,46 @@
       <c r="A33" s="1">
         <v>45864</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>248</v>
       </c>
-      <c r="D33" t="s">
-        <v>606</v>
-      </c>
-      <c r="E33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F33" t="s">
-        <v>688</v>
-      </c>
-      <c r="G33" t="s">
-        <v>727</v>
-      </c>
-      <c r="H33" t="s">
-        <v>768</v>
-      </c>
-      <c r="I33" t="s">
-        <v>808</v>
-      </c>
-      <c r="J33">
+      <c r="D33" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="J33" s="0">
         <v>12</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0">
         <v>60.115806451612904</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="0">
         <v>1.3047358219240393</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0">
         <v>1.43337945814131</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="0">
         <v>846</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="0">
         <v>1008.25</v>
       </c>
     </row>
@@ -8599,46 +10137,46 @@
       <c r="A34" s="1">
         <v>45866</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>265</v>
       </c>
-      <c r="D34" t="s">
-        <v>608</v>
-      </c>
-      <c r="E34" t="s">
-        <v>649</v>
-      </c>
-      <c r="F34" t="s">
-        <v>690</v>
-      </c>
-      <c r="G34" t="s">
-        <v>729</v>
-      </c>
-      <c r="H34" t="s">
-        <v>770</v>
-      </c>
-      <c r="I34" t="s">
-        <v>810</v>
-      </c>
-      <c r="J34">
+      <c r="D34" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="J34" s="0">
         <v>15</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0">
         <v>60.19671698113207</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0">
         <v>1.2922193204875814</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0">
         <v>1.3916697906283855</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="0">
         <v>879</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="0">
         <v>1241.25</v>
       </c>
     </row>
@@ -8646,46 +10184,46 @@
       <c r="A35" s="1">
         <v>45866</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>272</v>
       </c>
-      <c r="D35" t="s">
-        <v>609</v>
-      </c>
-      <c r="E35" t="s">
-        <v>650</v>
-      </c>
-      <c r="F35" t="s">
-        <v>691</v>
-      </c>
-      <c r="G35" t="s">
-        <v>730</v>
-      </c>
-      <c r="H35" t="s">
-        <v>771</v>
-      </c>
-      <c r="I35" t="s">
-        <v>811</v>
-      </c>
-      <c r="J35">
+      <c r="D35" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="J35" s="0">
         <v>13</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="0">
         <v>60.133529411764712</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="0">
         <v>1.3073853761185308</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="0">
         <v>1.4316026845463836</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="0">
         <v>927</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="0">
         <v>1091.5</v>
       </c>
     </row>
@@ -8693,46 +10231,46 @@
       <c r="A36" s="1">
         <v>45867</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>277</v>
       </c>
-      <c r="D36" t="s">
-        <v>610</v>
-      </c>
-      <c r="E36" t="s">
-        <v>651</v>
-      </c>
-      <c r="F36" t="s">
-        <v>692</v>
-      </c>
-      <c r="G36" t="s">
-        <v>731</v>
-      </c>
-      <c r="H36" t="s">
-        <v>772</v>
-      </c>
-      <c r="I36" t="s">
-        <v>812</v>
-      </c>
-      <c r="J36">
+      <c r="D36" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="J36" s="0">
         <v>16</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0">
         <v>60.197689530685913</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0">
         <v>1.2911792397106061</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0">
         <v>1.3995171090589296</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="0">
         <v>924</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="0">
         <v>1312</v>
       </c>
     </row>
@@ -8740,46 +10278,46 @@
       <c r="A37" s="1">
         <v>45867</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>288</v>
       </c>
-      <c r="D37" t="s">
-        <v>611</v>
-      </c>
-      <c r="E37" t="s">
-        <v>652</v>
-      </c>
-      <c r="F37" t="s">
-        <v>693</v>
-      </c>
-      <c r="G37" t="s">
-        <v>732</v>
-      </c>
-      <c r="H37" t="s">
-        <v>773</v>
-      </c>
-      <c r="I37" t="s">
-        <v>813</v>
-      </c>
-      <c r="J37">
+      <c r="D37" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="J37" s="0">
         <v>14</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="0">
         <v>60.141736111111122</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="0">
         <v>1.3093437513971073</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="0">
         <v>1.4306288134266854</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="0">
         <v>981</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="0">
         <v>1162.25</v>
       </c>
     </row>
@@ -8787,46 +10325,46 @@
       <c r="A38" s="1">
         <v>45868</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>283</v>
       </c>
-      <c r="D38" t="s">
-        <v>612</v>
-      </c>
-      <c r="E38" t="s">
-        <v>653</v>
-      </c>
-      <c r="F38" t="s">
-        <v>694</v>
-      </c>
-      <c r="G38" t="s">
-        <v>733</v>
-      </c>
-      <c r="H38" t="s">
-        <v>774</v>
-      </c>
-      <c r="I38" t="s">
-        <v>814</v>
-      </c>
-      <c r="J38">
+      <c r="D38" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="J38" s="0">
         <v>17</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="0">
         <v>60.198056537102474</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="0">
         <v>1.2886391497722196</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="0">
         <v>1.4232024019826097</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="0">
         <v>960</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="0">
         <v>1371.5</v>
       </c>
     </row>
@@ -8834,46 +10372,46 @@
       <c r="A39" s="1">
         <v>45868</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>295</v>
       </c>
-      <c r="D39" t="s">
-        <v>613</v>
-      </c>
-      <c r="E39" t="s">
-        <v>654</v>
-      </c>
-      <c r="F39" t="s">
-        <v>695</v>
-      </c>
-      <c r="G39" t="s">
-        <v>734</v>
-      </c>
-      <c r="H39" t="s">
-        <v>775</v>
-      </c>
-      <c r="I39" t="s">
-        <v>815</v>
-      </c>
-      <c r="J39">
+      <c r="D39" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="J39" s="0">
         <v>15</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0">
         <v>60.149389830508483</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0">
         <v>1.3099757014977467</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="0">
         <v>1.4349133463696768</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="0">
         <v>1008</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="0">
         <v>1221.75</v>
       </c>
     </row>
@@ -8881,46 +10419,46 @@
       <c r="A40" s="1">
         <v>45869</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>310</v>
       </c>
-      <c r="D40" t="s">
-        <v>614</v>
-      </c>
-      <c r="E40" t="s">
-        <v>655</v>
-      </c>
-      <c r="F40" t="s">
-        <v>696</v>
-      </c>
-      <c r="G40" t="s">
-        <v>735</v>
-      </c>
-      <c r="H40" t="s">
-        <v>776</v>
-      </c>
-      <c r="I40" t="s">
-        <v>816</v>
-      </c>
-      <c r="J40">
+      <c r="D40" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="J40" s="0">
         <v>18</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="0">
         <v>60.205741935483864</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0">
         <v>1.2868365794261254</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="0">
         <v>1.4087135196419485</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="0">
         <v>1041</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="0">
         <v>1454.5</v>
       </c>
     </row>
@@ -8928,46 +10466,46 @@
       <c r="A41" s="1">
         <v>45869</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>320</v>
       </c>
-      <c r="D41" t="s">
-        <v>615</v>
-      </c>
-      <c r="E41" t="s">
-        <v>656</v>
-      </c>
-      <c r="F41" t="s">
-        <v>697</v>
-      </c>
-      <c r="G41" t="s">
-        <v>736</v>
-      </c>
-      <c r="H41" t="s">
-        <v>777</v>
-      </c>
-      <c r="I41" t="s">
-        <v>817</v>
-      </c>
-      <c r="J41">
+      <c r="D41" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J41" s="0">
         <v>16</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="0">
         <v>60.170812500000011</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0">
         <v>1.3108217630126617</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="0">
         <v>1.4286163638584604</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="0">
         <v>1089</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="0">
         <v>1304.75</v>
       </c>
     </row>
@@ -8975,46 +10513,46 @@
       <c r="A42" s="1">
         <v>45870</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>337</v>
       </c>
-      <c r="D42" t="s">
-        <v>616</v>
-      </c>
-      <c r="E42" t="s">
-        <v>657</v>
-      </c>
-      <c r="F42" t="s">
-        <v>698</v>
-      </c>
-      <c r="G42" t="s">
-        <v>737</v>
-      </c>
-      <c r="H42" t="s">
-        <v>778</v>
-      </c>
-      <c r="I42" t="s">
-        <v>818</v>
-      </c>
-      <c r="J42">
+      <c r="D42" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="J42" s="0">
         <v>19</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="0">
         <v>60.211543026706224</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="0">
         <v>1.2854099373680412</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="0">
         <v>1.4077499851220547</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="0">
         <v>1131</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="0">
         <v>1534.75</v>
       </c>
     </row>
@@ -9022,46 +10560,46 @@
       <c r="A43" s="1">
         <v>45870</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>345</v>
       </c>
-      <c r="D43" t="s">
-        <v>617</v>
-      </c>
-      <c r="E43" t="s">
-        <v>658</v>
-      </c>
-      <c r="F43" t="s">
-        <v>699</v>
-      </c>
-      <c r="G43" t="s">
-        <v>738</v>
-      </c>
-      <c r="H43" t="s">
-        <v>779</v>
-      </c>
-      <c r="I43" t="s">
-        <v>819</v>
-      </c>
-      <c r="J43">
+      <c r="D43" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="J43" s="0">
         <v>17</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="0">
         <v>60.183797101449287</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0">
         <v>1.3112397844556614</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="0">
         <v>1.4233516726313145</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="0">
         <v>1170</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="0">
         <v>1385</v>
       </c>
     </row>
@@ -9069,46 +10607,46 @@
       <c r="A44" s="1">
         <v>45873</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>356</v>
       </c>
-      <c r="D44" t="s">
-        <v>618</v>
-      </c>
-      <c r="E44" t="s">
-        <v>659</v>
-      </c>
-      <c r="F44" t="s">
-        <v>700</v>
-      </c>
-      <c r="G44" t="s">
-        <v>739</v>
-      </c>
-      <c r="H44" t="s">
-        <v>780</v>
-      </c>
-      <c r="I44" t="s">
-        <v>820</v>
-      </c>
-      <c r="J44">
+      <c r="D44" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="J44" s="0">
         <v>20</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="0">
         <v>60.213960674157299</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0">
         <v>1.2839113191397868</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="0">
         <v>1.4173900429116972</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="0">
         <v>1203</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="0">
         <v>1627</v>
       </c>
     </row>
@@ -9116,46 +10654,46 @@
       <c r="A45" s="1">
         <v>45873</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>363</v>
       </c>
-      <c r="D45" t="s">
-        <v>619</v>
-      </c>
-      <c r="E45" t="s">
-        <v>660</v>
-      </c>
-      <c r="F45" t="s">
-        <v>701</v>
-      </c>
-      <c r="G45" t="s">
-        <v>740</v>
-      </c>
-      <c r="H45" t="s">
-        <v>781</v>
-      </c>
-      <c r="I45" t="s">
-        <v>821</v>
-      </c>
-      <c r="J45">
+      <c r="D45" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="J45" s="0">
         <v>18</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="0">
         <v>60.182176308539958</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0">
         <v>1.3123704043006732</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="0">
         <v>1.4152353868221064</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="0">
         <v>1224</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="0">
         <v>1477.25</v>
       </c>
     </row>
@@ -9163,46 +10701,46 @@
       <c r="A46" s="1">
         <v>45874</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>379</v>
       </c>
-      <c r="D46" t="s">
-        <v>620</v>
-      </c>
-      <c r="E46" t="s">
-        <v>661</v>
-      </c>
-      <c r="F46" t="s">
-        <v>702</v>
-      </c>
-      <c r="G46" t="s">
-        <v>741</v>
-      </c>
-      <c r="H46" t="s">
-        <v>782</v>
-      </c>
-      <c r="I46" t="s">
-        <v>822</v>
-      </c>
-      <c r="J46">
+      <c r="D46" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="J46" s="0">
         <v>21</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="0">
         <v>60.217150395778361</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="0">
         <v>1.2825881501293659</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="0">
         <v>1.4109897582744422</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="0">
         <v>1275</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="0">
         <v>1715</v>
       </c>
     </row>
@@ -9210,46 +10748,46 @@
       <c r="A47" s="1">
         <v>45874</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C47">
-        <v>385</v>
-      </c>
-      <c r="D47" t="s">
-        <v>621</v>
-      </c>
-      <c r="E47" t="s">
-        <v>662</v>
-      </c>
-      <c r="F47" t="s">
-        <v>703</v>
-      </c>
-      <c r="G47" t="s">
-        <v>742</v>
-      </c>
-      <c r="H47" t="s">
-        <v>783</v>
-      </c>
-      <c r="I47" t="s">
-        <v>823</v>
-      </c>
-      <c r="J47">
+      <c r="C47" s="0">
+        <v>384</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="J47" s="0">
         <v>19</v>
       </c>
-      <c r="K47">
-        <v>60.180259740259757</v>
-      </c>
-      <c r="L47">
-        <v>1.3109479351977733</v>
-      </c>
-      <c r="M47">
-        <v>1.4128931093397128</v>
-      </c>
-      <c r="N47">
+      <c r="K47" s="0">
+        <v>60.180442708333345</v>
+      </c>
+      <c r="L47" s="0">
+        <v>1.3157548837556605</v>
+      </c>
+      <c r="M47" s="0">
+        <v>1.4165701102724189</v>
+      </c>
+      <c r="N47" s="0">
         <v>1296</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="0">
         <v>1565.25</v>
       </c>
     </row>
@@ -9257,94 +10795,564 @@
       <c r="A48" s="1">
         <v>45875</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>398</v>
       </c>
-      <c r="D48" t="s">
-        <v>622</v>
-      </c>
-      <c r="E48" t="s">
-        <v>663</v>
-      </c>
-      <c r="F48" t="s">
-        <v>704</v>
-      </c>
-      <c r="G48" t="s">
-        <v>743</v>
-      </c>
-      <c r="H48" t="s">
-        <v>784</v>
-      </c>
-      <c r="I48" t="s">
-        <v>824</v>
-      </c>
-      <c r="J48">
+      <c r="D48" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="J48" s="0">
         <v>22</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="0">
         <v>60.22092964824121</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0">
         <v>1.281901948377169</v>
       </c>
-      <c r="M48">
-        <v>1.343630950718627</v>
-      </c>
-      <c r="N48">
-        <v>1275</v>
-      </c>
-      <c r="O48">
-        <v>1715</v>
+      <c r="M48" s="0">
+        <v>1.4099360613639995</v>
+      </c>
+      <c r="N48" s="0">
+        <v>1338</v>
+      </c>
+      <c r="O48" s="0">
+        <v>1809.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>45875</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C49">
-        <v>400</v>
-      </c>
-      <c r="D49" t="s">
-        <v>623</v>
-      </c>
-      <c r="E49" t="s">
-        <v>664</v>
-      </c>
-      <c r="F49" t="s">
-        <v>705</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="C49" s="0">
+        <v>399</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="J49" s="0">
+        <v>20</v>
+      </c>
+      <c r="K49" s="0">
+        <v>60.178045112781966</v>
+      </c>
+      <c r="L49" s="0">
+        <v>1.318689993396464</v>
+      </c>
+      <c r="M49" s="0">
+        <v>1.4296521729806337</v>
+      </c>
+      <c r="N49" s="0">
+        <v>1359</v>
+      </c>
+      <c r="O49" s="0">
+        <v>1659.75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0">
+        <v>417</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="J50" s="0">
+        <v>23</v>
+      </c>
+      <c r="K50" s="0">
+        <v>60.220143884892082</v>
+      </c>
+      <c r="L50" s="0">
+        <v>1.2822575448346485</v>
+      </c>
+      <c r="M50" s="0">
+        <v>1.4181302395346906</v>
+      </c>
+      <c r="N50" s="0">
+        <v>1410</v>
+      </c>
+      <c r="O50" s="0">
+        <v>1903.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="0">
+        <v>423</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="J51" s="0">
+        <v>21</v>
+      </c>
+      <c r="K51" s="0">
+        <v>60.177375886524835</v>
+      </c>
+      <c r="L51" s="0">
+        <v>1.3205971583952016</v>
+      </c>
+      <c r="M51" s="0">
+        <v>1.4378532047375492</v>
+      </c>
+      <c r="N51" s="0">
+        <v>1449</v>
+      </c>
+      <c r="O51" s="0">
+        <v>1753.75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>434</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="J52" s="0">
+        <v>24</v>
+      </c>
+      <c r="K52" s="0">
+        <v>60.218064516129033</v>
+      </c>
+      <c r="L52" s="0">
+        <v>1.2815648815071492</v>
+      </c>
+      <c r="M52" s="0">
+        <v>1.4148120237469104</v>
+      </c>
+      <c r="N52" s="0">
+        <v>1464</v>
+      </c>
+      <c r="O52" s="0">
+        <v>1990.75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0">
+        <v>447</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="J53" s="0">
+        <v>22</v>
+      </c>
+      <c r="K53" s="0">
+        <v>60.187807606263995</v>
+      </c>
+      <c r="L53" s="0">
+        <v>1.3235724168205898</v>
+      </c>
+      <c r="M53" s="0">
+        <v>1.4364627074950029</v>
+      </c>
+      <c r="N53" s="0">
+        <v>1530</v>
+      </c>
+      <c r="O53" s="0">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0">
+        <v>456</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="H49" t="s">
-        <v>785</v>
-      </c>
-      <c r="I49" t="s">
-        <v>825</v>
-      </c>
-      <c r="J49">
-        <v>20</v>
-      </c>
-      <c r="K49">
-        <v>60.177875000000014</v>
-      </c>
-      <c r="L49">
-        <v>1.3106444985439945</v>
-      </c>
-      <c r="M49">
-        <v>1.3599096177394736</v>
-      </c>
-      <c r="N49">
-        <v>1296</v>
-      </c>
-      <c r="O49">
-        <v>1565.25</v>
+      <c r="E54" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="J54" s="0">
+        <v>25</v>
+      </c>
+      <c r="K54" s="0">
+        <v>60.216842105263161</v>
+      </c>
+      <c r="L54" s="0">
+        <v>1.2812460781192025</v>
+      </c>
+      <c r="M54" s="0">
+        <v>1.4210878972189558</v>
+      </c>
+      <c r="N54" s="0">
+        <v>1545</v>
+      </c>
+      <c r="O54" s="0">
+        <v>2149.75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="0">
+        <v>447</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="J55" s="0">
+        <v>22</v>
+      </c>
+      <c r="K55" s="0">
+        <v>60.187807606263995</v>
+      </c>
+      <c r="L55" s="0">
+        <v>1.3235724168205898</v>
+      </c>
+      <c r="M55" s="0">
+        <v>1.4364627074950029</v>
+      </c>
+      <c r="N55" s="0">
+        <v>1530</v>
+      </c>
+      <c r="O55" s="0">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0">
+        <v>479</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="J56" s="0">
+        <v>26</v>
+      </c>
+      <c r="K56" s="0">
+        <v>60.217828810020876</v>
+      </c>
+      <c r="L56" s="0">
+        <v>1.2808212353029733</v>
+      </c>
+      <c r="M56" s="0">
+        <v>1.4237547875378562</v>
+      </c>
+      <c r="N56" s="0">
+        <v>1626</v>
+      </c>
+      <c r="O56" s="0">
+        <v>2236.25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0">
+        <v>471</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="J57" s="0">
+        <v>23</v>
+      </c>
+      <c r="K57" s="0">
+        <v>60.185201698513808</v>
+      </c>
+      <c r="L57" s="0">
+        <v>1.3250186142613569</v>
+      </c>
+      <c r="M57" s="0">
+        <v>1.4354950680604972</v>
+      </c>
+      <c r="N57" s="0">
+        <v>1611</v>
+      </c>
+      <c r="O57" s="0">
+        <v>1927.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="0">
+        <v>496</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J58" s="0">
+        <v>27</v>
+      </c>
+      <c r="K58" s="0">
+        <v>60.218427419354839</v>
+      </c>
+      <c r="L58" s="0">
+        <v>1.2806142999234162</v>
+      </c>
+      <c r="M58" s="0">
+        <v>1.374956740384341</v>
+      </c>
+      <c r="N58" s="0">
+        <v>1626</v>
+      </c>
+      <c r="O58" s="0">
+        <v>2236.25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="0">
+        <v>493</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J59" s="0">
+        <v>24</v>
+      </c>
+      <c r="K59" s="0">
+        <v>60.193610547667355</v>
+      </c>
+      <c r="L59" s="0">
+        <v>1.3259345831989642</v>
+      </c>
+      <c r="M59" s="0">
+        <v>1.3714364646176354</v>
+      </c>
+      <c r="N59" s="0">
+        <v>1611</v>
+      </c>
+      <c r="O59" s="0">
+        <v>1927.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Summary/1640-SiteProgression.xlsx
+++ b/assets/data/Summary/1640-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1497" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1673" uniqueCount="1269">
   <si>
     <t>Time</t>
   </si>
@@ -73,7 +73,7 @@
     <t>3.0497 hr</t>
   </si>
   <si>
-    <t>4.1544 hr</t>
+    <t>3.9711 hr</t>
   </si>
   <si>
     <t>3.2494 hr</t>
@@ -202,12 +202,33 @@
     <t>4.1483 hr</t>
   </si>
   <si>
+    <t>4.0547 hr</t>
+  </si>
+  <si>
+    <t>3.8383 hr</t>
+  </si>
+  <si>
     <t>4.2883 hr</t>
   </si>
   <si>
     <t>4.895 hr</t>
   </si>
   <si>
+    <t>3.3222 hr</t>
+  </si>
+  <si>
+    <t>4.7944 hr</t>
+  </si>
+  <si>
+    <t>2.7689 hr</t>
+  </si>
+  <si>
+    <t>4.6147 hr</t>
+  </si>
+  <si>
+    <t>2.0417 hr</t>
+  </si>
+  <si>
     <t>mean_MoveTime</t>
   </si>
   <si>
@@ -250,7 +271,7 @@
     <t>8.3174 min</t>
   </si>
   <si>
-    <t>10.838 min</t>
+    <t>9.9278 min</t>
   </si>
   <si>
     <t>8.1236 min</t>
@@ -379,12 +400,33 @@
     <t>10.822 min</t>
   </si>
   <si>
+    <t>11.058 min</t>
+  </si>
+  <si>
+    <t>15.353 min</t>
+  </si>
+  <si>
     <t>10.292 min</t>
   </si>
   <si>
     <t>11.748 min</t>
   </si>
   <si>
+    <t>8.6667 min</t>
+  </si>
+  <si>
+    <t>12.507 min</t>
+  </si>
+  <si>
+    <t>18.459 min</t>
+  </si>
+  <si>
+    <t>19.777 min</t>
+  </si>
+  <si>
+    <t>6.4474 min</t>
+  </si>
+  <si>
     <t>sum_DrillTime</t>
   </si>
   <si>
@@ -427,7 +469,7 @@
     <t>1.9194 hr</t>
   </si>
   <si>
-    <t>2.7072 hr</t>
+    <t>2.7739 hr</t>
   </si>
   <si>
     <t>2.3481 hr</t>
@@ -556,12 +598,33 @@
     <t>3.1611 hr</t>
   </si>
   <si>
+    <t>2.3769 hr</t>
+  </si>
+  <si>
+    <t>2.0108 hr</t>
+  </si>
+  <si>
     <t>2.6989 hr</t>
   </si>
   <si>
     <t>3.0244 hr</t>
   </si>
   <si>
+    <t>3.7469 hr</t>
+  </si>
+  <si>
+    <t>2.8817 hr</t>
+  </si>
+  <si>
+    <t>1.0464 hr</t>
+  </si>
+  <si>
+    <t>1.3228 hr</t>
+  </si>
+  <si>
+    <t>2.1847 hr</t>
+  </si>
+  <si>
     <t>mean_DrillTime</t>
   </si>
   <si>
@@ -604,7 +667,7 @@
     <t>5.0072 min</t>
   </si>
   <si>
-    <t>6.7681 min</t>
+    <t>6.6573 min</t>
   </si>
   <si>
     <t>5.6353 min</t>
@@ -733,12 +796,33 @@
     <t>7.9028 min</t>
   </si>
   <si>
+    <t>6.2007 min</t>
+  </si>
+  <si>
+    <t>7.5406 min</t>
+  </si>
+  <si>
     <t>6.2282 min</t>
   </si>
   <si>
     <t>6.9795 min</t>
   </si>
   <si>
+    <t>9.3674 min</t>
+  </si>
+  <si>
+    <t>7.2042 min</t>
+  </si>
+  <si>
+    <t>6.2783 min</t>
+  </si>
+  <si>
+    <t>5.2911 min</t>
+  </si>
+  <si>
+    <t>6.5542 min</t>
+  </si>
+  <si>
     <t>sum_GroutTime</t>
   </si>
   <si>
@@ -781,7 +865,7 @@
     <t>2.0664 hr</t>
   </si>
   <si>
-    <t>2.3633 hr</t>
+    <t>2.43 hr</t>
   </si>
   <si>
     <t>2.0578 hr</t>
@@ -910,12 +994,33 @@
     <t>2.6019 hr</t>
   </si>
   <si>
+    <t>1.7153 hr</t>
+  </si>
+  <si>
+    <t>1.3106 hr</t>
+  </si>
+  <si>
     <t>1.9564 hr</t>
   </si>
   <si>
     <t>2.0964 hr</t>
   </si>
   <si>
+    <t>1.7117 hr</t>
+  </si>
+  <si>
+    <t>2.1289 hr</t>
+  </si>
+  <si>
+    <t>0.78861 hr</t>
+  </si>
+  <si>
+    <t>0.9575 hr</t>
+  </si>
+  <si>
+    <t>1.705 hr</t>
+  </si>
+  <si>
     <t>mean_GroutTime</t>
   </si>
   <si>
@@ -958,7 +1063,7 @@
     <t>5.3906 min</t>
   </si>
   <si>
-    <t>5.9083 min</t>
+    <t>5.832 min</t>
   </si>
   <si>
     <t>5.3681 min</t>
@@ -1087,12 +1192,33 @@
     <t>6.5049 min</t>
   </si>
   <si>
+    <t>4.4746 min</t>
+  </si>
+  <si>
+    <t>4.9146 min</t>
+  </si>
+  <si>
     <t>4.5147 min</t>
   </si>
   <si>
     <t>5.0313 min</t>
   </si>
   <si>
+    <t>4.2792 min</t>
+  </si>
+  <si>
+    <t>5.3222 min</t>
+  </si>
+  <si>
+    <t>4.7317 min</t>
+  </si>
+  <si>
+    <t>4.1036 min</t>
+  </si>
+  <si>
+    <t>5.115 min</t>
+  </si>
+  <si>
     <t>sum_InstallTime</t>
   </si>
   <si>
@@ -1135,7 +1261,7 @@
     <t>3.9308 hr</t>
   </si>
   <si>
-    <t>5.5097 hr</t>
+    <t>5.6931 hr</t>
   </si>
   <si>
     <t>4.4306 hr</t>
@@ -1264,12 +1390,33 @@
     <t>4.8675 hr</t>
   </si>
   <si>
+    <t>4.3086 hr</t>
+  </si>
+  <si>
+    <t>2.8919 hr</t>
+  </si>
+  <si>
     <t>4.9456 hr</t>
   </si>
   <si>
     <t>4.5864 hr</t>
   </si>
   <si>
+    <t>5.7089 hr</t>
+  </si>
+  <si>
+    <t>4.3014 hr</t>
+  </si>
+  <si>
+    <t>1.71 hr</t>
+  </si>
+  <si>
+    <t>2.5161 hr</t>
+  </si>
+  <si>
+    <t>3.5928 hr</t>
+  </si>
+  <si>
     <t>mean_InstallTime</t>
   </si>
   <si>
@@ -1312,7 +1459,7 @@
     <t>10.254 min</t>
   </si>
   <si>
-    <t>13.774 min</t>
+    <t>13.663 min</t>
   </si>
   <si>
     <t>10.633 min</t>
@@ -1441,12 +1588,33 @@
     <t>12.169 min</t>
   </si>
   <si>
+    <t>11.24 min</t>
+  </si>
+  <si>
+    <t>10.845 min</t>
+  </si>
+  <si>
     <t>11.413 min</t>
   </si>
   <si>
     <t>10.584 min</t>
   </si>
   <si>
+    <t>14.272 min</t>
+  </si>
+  <si>
+    <t>10.753 min</t>
+  </si>
+  <si>
+    <t>10.26 min</t>
+  </si>
+  <si>
+    <t>10.064 min</t>
+  </si>
+  <si>
+    <t>10.778 min</t>
+  </si>
+  <si>
     <t>sum_DelayTime</t>
   </si>
   <si>
@@ -1486,7 +1654,7 @@
     <t>1.2717 hr</t>
   </si>
   <si>
-    <t>2.4081 hr</t>
+    <t>2.1414 hr</t>
   </si>
   <si>
     <t>1.3197 hr</t>
@@ -1612,12 +1780,33 @@
     <t>2.2783 hr</t>
   </si>
   <si>
+    <t>2.4078 hr</t>
+  </si>
+  <si>
+    <t>2.6367 hr</t>
+  </si>
+  <si>
     <t>2.52 hr</t>
   </si>
   <si>
     <t>2.9883 hr</t>
   </si>
   <si>
+    <t>1.6992 hr</t>
+  </si>
+  <si>
+    <t>3.0606 hr</t>
+  </si>
+  <si>
+    <t>2.1183 hr</t>
+  </si>
+  <si>
+    <t>3.5189 hr</t>
+  </si>
+  <si>
+    <t>0.75278 hr</t>
+  </si>
+  <si>
     <t>mean_DelayTime</t>
   </si>
   <si>
@@ -1657,7 +1846,7 @@
     <t>3.4682 min</t>
   </si>
   <si>
-    <t>6.2819 min</t>
+    <t>5.3535 min</t>
   </si>
   <si>
     <t>3.2993 min</t>
@@ -1780,12 +1969,33 @@
     <t>5.9435 min</t>
   </si>
   <si>
+    <t>6.5667 min</t>
+  </si>
+  <si>
+    <t>10.547 min</t>
+  </si>
+  <si>
     <t>6.048 min</t>
   </si>
   <si>
     <t>7.172 min</t>
   </si>
   <si>
+    <t>4.4326 min</t>
+  </si>
+  <si>
+    <t>7.9841 min</t>
+  </si>
+  <si>
+    <t>14.122 min</t>
+  </si>
+  <si>
+    <t>15.081 min</t>
+  </si>
+  <si>
+    <t>2.3772 min</t>
+  </si>
+  <si>
     <t>sum_CycleTime</t>
   </si>
   <si>
@@ -1954,12 +2164,33 @@
     <t>8.8128 hr</t>
   </si>
   <si>
+    <t>8.1764 hr</t>
+  </si>
+  <si>
+    <t>6.5094 hr</t>
+  </si>
+  <si>
     <t>9.0567 hr</t>
   </si>
   <si>
     <t>9.2867 hr</t>
   </si>
   <si>
+    <t>8.8683 hr</t>
+  </si>
+  <si>
+    <t>8.9067 hr</t>
+  </si>
+  <si>
+    <t>4.29 hr</t>
+  </si>
+  <si>
+    <t>6.9628 hr</t>
+  </si>
+  <si>
+    <t>5.4617 hr</t>
+  </si>
+  <si>
     <t>mean_CycleTime</t>
   </si>
   <si>
@@ -1999,7 +2230,7 @@
     <t>18.595 min</t>
   </si>
   <si>
-    <t>24.61 min</t>
+    <t>23.585 min</t>
   </si>
   <si>
     <t>18.805 min</t>
@@ -2128,12 +2359,33 @@
     <t>22.99 min</t>
   </si>
   <si>
+    <t>22.299 min</t>
+  </si>
+  <si>
+    <t>26.038 min</t>
+  </si>
+  <si>
     <t>21.736 min</t>
   </si>
   <si>
     <t>22.288 min</t>
   </si>
   <si>
+    <t>23.135 min</t>
+  </si>
+  <si>
+    <t>23.235 min</t>
+  </si>
+  <si>
+    <t>28.6 min</t>
+  </si>
+  <si>
+    <t>29.84 min</t>
+  </si>
+  <si>
+    <t>17.247 min</t>
+  </si>
+  <si>
     <t>sum_PileLength</t>
   </si>
   <si>
@@ -2317,12 +2569,33 @@
     <t>9.5944 hr</t>
   </si>
   <si>
+    <t>8.3633 hr</t>
+  </si>
+  <si>
+    <t>6.7303 hr</t>
+  </si>
+  <si>
     <t>9.4814 hr</t>
   </si>
   <si>
     <t>9.2339 hr</t>
   </si>
   <si>
+    <t>9.0958 hr</t>
+  </si>
+  <si>
+    <t>9.0311 hr</t>
+  </si>
+  <si>
+    <t>7.1308 hr</t>
+  </si>
+  <si>
+    <t>4.4789 hr</t>
+  </si>
+  <si>
+    <t>5.6344 hr</t>
+  </si>
+  <si>
     <t>PileWaste</t>
   </si>
   <si>
@@ -2392,6 +2665,9 @@
     <t>11.517 hr</t>
   </si>
   <si>
+    <t>6 hr</t>
+  </si>
+  <si>
     <t>RigWaste</t>
   </si>
   <si>
@@ -2428,139 +2704,160 @@
     <t>23.476 hr</t>
   </si>
   <si>
-    <t>16.161 hr</t>
+    <t>15.977 hr</t>
   </si>
   <si>
     <t>26.726 hr</t>
   </si>
   <si>
-    <t>18.254 hr</t>
+    <t>18.07 hr</t>
   </si>
   <si>
     <t>28.989 hr</t>
   </si>
   <si>
-    <t>18.322 hr</t>
-  </si>
-  <si>
-    <t>21.308 hr</t>
+    <t>18.139 hr</t>
+  </si>
+  <si>
+    <t>21.124 hr</t>
   </si>
   <si>
     <t>32.575 hr</t>
   </si>
   <si>
-    <t>24.381 hr</t>
+    <t>24.198 hr</t>
   </si>
   <si>
     <t>37.036 hr</t>
   </si>
   <si>
-    <t>26.438 hr</t>
-  </si>
-  <si>
-    <t>29.618 hr</t>
+    <t>26.254 hr</t>
+  </si>
+  <si>
+    <t>29.434 hr</t>
   </si>
   <si>
     <t>37.746 hr</t>
   </si>
   <si>
-    <t>31.249 hr</t>
-  </si>
-  <si>
-    <t>34.544 hr</t>
+    <t>31.065 hr</t>
+  </si>
+  <si>
+    <t>34.361 hr</t>
   </si>
   <si>
     <t>41.861 hr</t>
   </si>
   <si>
-    <t>39.398 hr</t>
+    <t>39.215 hr</t>
   </si>
   <si>
     <t>46.391 hr</t>
   </si>
   <si>
-    <t>39.912 hr</t>
+    <t>39.729 hr</t>
   </si>
   <si>
     <t>47.382 hr</t>
   </si>
   <si>
-    <t>43.012 hr</t>
+    <t>42.829 hr</t>
   </si>
   <si>
     <t>50.391 hr</t>
   </si>
   <si>
-    <t>46.479 hr</t>
+    <t>46.295 hr</t>
   </si>
   <si>
     <t>54.076 hr</t>
   </si>
   <si>
-    <t>51.847 hr</t>
+    <t>51.664 hr</t>
   </si>
   <si>
     <t>59.252 hr</t>
   </si>
   <si>
-    <t>55.032 hr</t>
+    <t>54.849 hr</t>
   </si>
   <si>
     <t>63.353 hr</t>
   </si>
   <si>
-    <t>60.412 hr</t>
+    <t>60.228 hr</t>
   </si>
   <si>
     <t>68.921 hr</t>
   </si>
   <si>
-    <t>65.073 hr</t>
+    <t>64.889 hr</t>
   </si>
   <si>
     <t>73.567 hr</t>
   </si>
   <si>
-    <t>67.242 hr</t>
+    <t>67.059 hr</t>
   </si>
   <si>
     <t>76.261 hr</t>
   </si>
   <si>
-    <t>70.841 hr</t>
-  </si>
-  <si>
-    <t>75.906 hr</t>
+    <t>70.658 hr</t>
+  </si>
+  <si>
+    <t>75.723 hr</t>
   </si>
   <si>
     <t>81.253 hr</t>
   </si>
   <si>
-    <t>80.23 hr</t>
+    <t>80.046 hr</t>
   </si>
   <si>
     <t>85.082 hr</t>
   </si>
   <si>
-    <t>84.552 hr</t>
+    <t>84.369 hr</t>
   </si>
   <si>
     <t>89.632 hr</t>
   </si>
   <si>
-    <t>87.106 hr</t>
-  </si>
-  <si>
-    <t>91.782 hr</t>
+    <t>86.922 hr</t>
+  </si>
+  <si>
+    <t>91.598 hr</t>
   </si>
   <si>
     <t>93.781 hr</t>
   </si>
   <si>
-    <t>96.07 hr</t>
-  </si>
-  <si>
-    <t>98.676 hr</t>
+    <t>95.653 hr</t>
+  </si>
+  <si>
+    <t>97.619 hr</t>
+  </si>
+  <si>
+    <t>99.941 hr</t>
+  </si>
+  <si>
+    <t>102.51 hr</t>
+  </si>
+  <si>
+    <t>103.26 hr</t>
+  </si>
+  <si>
+    <t>107.31 hr</t>
+  </si>
+  <si>
+    <t>106.03 hr</t>
+  </si>
+  <si>
+    <t>111.92 hr</t>
+  </si>
+  <si>
+    <t>108.07 hr</t>
   </si>
   <si>
     <t>HoursDrilled</t>
@@ -2599,139 +2896,160 @@
     <t>18.864 hr</t>
   </si>
   <si>
-    <t>12.059 hr</t>
+    <t>12.126 hr</t>
   </si>
   <si>
     <t>21.212 hr</t>
   </si>
   <si>
-    <t>13.732 hr</t>
+    <t>13.798 hr</t>
   </si>
   <si>
     <t>23.102 hr</t>
   </si>
   <si>
-    <t>13.934 hr</t>
-  </si>
-  <si>
-    <t>16.821 hr</t>
+    <t>14.001 hr</t>
+  </si>
+  <si>
+    <t>16.888 hr</t>
   </si>
   <si>
     <t>26.485 hr</t>
   </si>
   <si>
-    <t>19.688 hr</t>
+    <t>19.754 hr</t>
   </si>
   <si>
     <t>30.092 hr</t>
   </si>
   <si>
-    <t>21.306 hr</t>
-  </si>
-  <si>
-    <t>23.602 hr</t>
+    <t>21.373 hr</t>
+  </si>
+  <si>
+    <t>23.669 hr</t>
   </si>
   <si>
     <t>30.558 hr</t>
   </si>
   <si>
-    <t>25.673 hr</t>
-  </si>
-  <si>
-    <t>28.459 hr</t>
+    <t>25.74 hr</t>
+  </si>
+  <si>
+    <t>28.526 hr</t>
   </si>
   <si>
     <t>34.619 hr</t>
   </si>
   <si>
-    <t>29.741 hr</t>
+    <t>29.808 hr</t>
   </si>
   <si>
     <t>36.706 hr</t>
   </si>
   <si>
-    <t>30.311 hr</t>
+    <t>30.377 hr</t>
   </si>
   <si>
     <t>37.614 hr</t>
   </si>
   <si>
-    <t>32.778 hr</t>
+    <t>32.845 hr</t>
   </si>
   <si>
     <t>41.039 hr</t>
   </si>
   <si>
-    <t>35.409 hr</t>
+    <t>35.476 hr</t>
   </si>
   <si>
     <t>44.309 hr</t>
   </si>
   <si>
-    <t>37.421 hr</t>
+    <t>37.488 hr</t>
   </si>
   <si>
     <t>46.689 hr</t>
   </si>
   <si>
-    <t>39.659 hr</t>
+    <t>39.726 hr</t>
   </si>
   <si>
     <t>48.877 hr</t>
   </si>
   <si>
-    <t>41.483 hr</t>
+    <t>41.549 hr</t>
   </si>
   <si>
     <t>50.632 hr</t>
   </si>
   <si>
-    <t>43.472 hr</t>
+    <t>43.539 hr</t>
   </si>
   <si>
     <t>53.556 hr</t>
   </si>
   <si>
-    <t>45.126 hr</t>
+    <t>45.193 hr</t>
   </si>
   <si>
     <t>56.483 hr</t>
   </si>
   <si>
-    <t>47.355 hr</t>
-  </si>
-  <si>
-    <t>49.73 hr</t>
+    <t>47.422 hr</t>
+  </si>
+  <si>
+    <t>49.797 hr</t>
   </si>
   <si>
     <t>59.407 hr</t>
   </si>
   <si>
-    <t>52.242 hr</t>
+    <t>52.309 hr</t>
   </si>
   <si>
     <t>62.875 hr</t>
   </si>
   <si>
-    <t>54.571 hr</t>
+    <t>54.638 hr</t>
   </si>
   <si>
     <t>65.851 hr</t>
   </si>
   <si>
-    <t>56.98 hr</t>
-  </si>
-  <si>
-    <t>59.739 hr</t>
+    <t>57.047 hr</t>
+  </si>
+  <si>
+    <t>59.806 hr</t>
   </si>
   <si>
     <t>69.012 hr</t>
   </si>
   <si>
-    <t>62.438 hr</t>
-  </si>
-  <si>
-    <t>72.036 hr</t>
+    <t>62.183 hr</t>
+  </si>
+  <si>
+    <t>71.022 hr</t>
+  </si>
+  <si>
+    <t>64.882 hr</t>
+  </si>
+  <si>
+    <t>74.047 hr</t>
+  </si>
+  <si>
+    <t>68.629 hr</t>
+  </si>
+  <si>
+    <t>76.929 hr</t>
+  </si>
+  <si>
+    <t>69.675 hr</t>
+  </si>
+  <si>
+    <t>78.251 hr</t>
+  </si>
+  <si>
+    <t>71.86 hr</t>
   </si>
   <si>
     <t>HoursGrouted</t>
@@ -2770,139 +3088,160 @@
     <t>14.946 hr</t>
   </si>
   <si>
-    <t>12.003 hr</t>
+    <t>12.069 hr</t>
   </si>
   <si>
     <t>17.004 hr</t>
   </si>
   <si>
-    <t>13.548 hr</t>
+    <t>13.615 hr</t>
   </si>
   <si>
     <t>19.36 hr</t>
   </si>
   <si>
-    <t>13.791 hr</t>
-  </si>
-  <si>
-    <t>16.672 hr</t>
+    <t>13.858 hr</t>
+  </si>
+  <si>
+    <t>16.739 hr</t>
   </si>
   <si>
     <t>21.805 hr</t>
   </si>
   <si>
-    <t>19.095 hr</t>
+    <t>19.162 hr</t>
   </si>
   <si>
     <t>23.895 hr</t>
   </si>
   <si>
-    <t>20.251 hr</t>
-  </si>
-  <si>
-    <t>22.59 hr</t>
+    <t>20.318 hr</t>
+  </si>
+  <si>
+    <t>22.656 hr</t>
   </si>
   <si>
     <t>24.263 hr</t>
   </si>
   <si>
-    <t>24.139 hr</t>
-  </si>
-  <si>
-    <t>26.139 hr</t>
+    <t>24.206 hr</t>
+  </si>
+  <si>
+    <t>26.206 hr</t>
   </si>
   <si>
     <t>26.506 hr</t>
   </si>
   <si>
-    <t>27.304 hr</t>
+    <t>27.371 hr</t>
   </si>
   <si>
     <t>27.868 hr</t>
   </si>
   <si>
-    <t>27.736 hr</t>
+    <t>27.802 hr</t>
   </si>
   <si>
     <t>28.39 hr</t>
   </si>
   <si>
-    <t>29.913 hr</t>
+    <t>29.979 hr</t>
   </si>
   <si>
     <t>30.662 hr</t>
   </si>
   <si>
-    <t>31.919 hr</t>
+    <t>31.986 hr</t>
   </si>
   <si>
     <t>32.557 hr</t>
   </si>
   <si>
-    <t>33.456 hr</t>
+    <t>33.523 hr</t>
   </si>
   <si>
     <t>33.956 hr</t>
   </si>
   <si>
-    <t>35.405 hr</t>
+    <t>35.472 hr</t>
   </si>
   <si>
     <t>35.759 hr</t>
   </si>
   <si>
-    <t>36.999 hr</t>
+    <t>37.066 hr</t>
   </si>
   <si>
     <t>36.935 hr</t>
   </si>
   <si>
-    <t>38.747 hr</t>
+    <t>38.813 hr</t>
   </si>
   <si>
     <t>38.803 hr</t>
   </si>
   <si>
-    <t>40.261 hr</t>
+    <t>40.328 hr</t>
   </si>
   <si>
     <t>40.78 hr</t>
   </si>
   <si>
-    <t>42.058 hr</t>
-  </si>
-  <si>
-    <t>43.892 hr</t>
+    <t>42.125 hr</t>
+  </si>
+  <si>
+    <t>43.959 hr</t>
   </si>
   <si>
     <t>42.691 hr</t>
   </si>
   <si>
-    <t>46.062 hr</t>
+    <t>46.128 hr</t>
   </si>
   <si>
     <t>44.828 hr</t>
   </si>
   <si>
-    <t>47.982 hr</t>
+    <t>48.049 hr</t>
   </si>
   <si>
     <t>46.832 hr</t>
   </si>
   <si>
-    <t>49.509 hr</t>
-  </si>
-  <si>
-    <t>51.413 hr</t>
+    <t>49.576 hr</t>
+  </si>
+  <si>
+    <t>51.479 hr</t>
   </si>
   <si>
     <t>49.434 hr</t>
   </si>
   <si>
-    <t>53.369 hr</t>
-  </si>
-  <si>
-    <t>51.531 hr</t>
+    <t>53.195 hr</t>
+  </si>
+  <si>
+    <t>50.745 hr</t>
+  </si>
+  <si>
+    <t>55.151 hr</t>
+  </si>
+  <si>
+    <t>52.841 hr</t>
+  </si>
+  <si>
+    <t>56.863 hr</t>
+  </si>
+  <si>
+    <t>54.97 hr</t>
+  </si>
+  <si>
+    <t>57.651 hr</t>
+  </si>
+  <si>
+    <t>55.928 hr</t>
+  </si>
+  <si>
+    <t>59.356 hr</t>
   </si>
   <si>
     <t>HoursDelayed</t>
@@ -2938,136 +3277,157 @@
     <t>11.668 hr</t>
   </si>
   <si>
-    <t>8.3397 hr</t>
+    <t>8.0731 hr</t>
   </si>
   <si>
     <t>12.988 hr</t>
   </si>
   <si>
-    <t>9.2975 hr</t>
+    <t>9.0308 hr</t>
   </si>
   <si>
     <t>13.989 hr</t>
   </si>
   <si>
-    <t>10.347 hr</t>
+    <t>10.081 hr</t>
   </si>
   <si>
     <t>15.719 hr</t>
   </si>
   <si>
-    <t>11.531 hr</t>
+    <t>11.264 hr</t>
   </si>
   <si>
     <t>18.265 hr</t>
   </si>
   <si>
-    <t>12.724 hr</t>
-  </si>
-  <si>
-    <t>14.449 hr</t>
+    <t>12.457 hr</t>
+  </si>
+  <si>
+    <t>14.182 hr</t>
   </si>
   <si>
     <t>18.663 hr</t>
   </si>
   <si>
-    <t>15.003 hr</t>
-  </si>
-  <si>
-    <t>16.347 hr</t>
+    <t>14.737 hr</t>
+  </si>
+  <si>
+    <t>16.081 hr</t>
   </si>
   <si>
     <t>20.929 hr</t>
   </si>
   <si>
-    <t>20.343 hr</t>
+    <t>20.076 hr</t>
   </si>
   <si>
     <t>24.298 hr</t>
   </si>
   <si>
-    <t>20.476 hr</t>
+    <t>20.209 hr</t>
   </si>
   <si>
     <t>24.847 hr</t>
   </si>
   <si>
-    <t>21.628 hr</t>
+    <t>21.361 hr</t>
   </si>
   <si>
     <t>26.026 hr</t>
   </si>
   <si>
-    <t>23.094 hr</t>
+    <t>22.827 hr</t>
   </si>
   <si>
     <t>27.821 hr</t>
   </si>
   <si>
-    <t>27.097 hr</t>
+    <t>26.83 hr</t>
   </si>
   <si>
     <t>31.675 hr</t>
   </si>
   <si>
-    <t>28.559 hr</t>
+    <t>28.293 hr</t>
   </si>
   <si>
     <t>34.169 hr</t>
   </si>
   <si>
-    <t>32.544 hr</t>
+    <t>32.277 hr</t>
   </si>
   <si>
     <t>38.667 hr</t>
   </si>
   <si>
-    <t>35.774 hr</t>
+    <t>35.508 hr</t>
   </si>
   <si>
     <t>41.518 hr</t>
   </si>
   <si>
-    <t>36.721 hr</t>
+    <t>36.454 hr</t>
   </si>
   <si>
     <t>42.43 hr</t>
   </si>
   <si>
-    <t>38.729 hr</t>
-  </si>
-  <si>
-    <t>42.006 hr</t>
+    <t>38.462 hr</t>
+  </si>
+  <si>
+    <t>41.739 hr</t>
   </si>
   <si>
     <t>45.728 hr</t>
   </si>
   <si>
-    <t>44.528 hr</t>
+    <t>44.261 hr</t>
   </si>
   <si>
     <t>47.659 hr</t>
   </si>
   <si>
-    <t>47.166 hr</t>
+    <t>46.899 hr</t>
   </si>
   <si>
     <t>50.411 hr</t>
   </si>
   <si>
-    <t>48.058 hr</t>
-  </si>
-  <si>
-    <t>50.853 hr</t>
+    <t>47.791 hr</t>
+  </si>
+  <si>
+    <t>50.586 hr</t>
   </si>
   <si>
     <t>52.689 hr</t>
   </si>
   <si>
-    <t>53.373 hr</t>
-  </si>
-  <si>
-    <t>55.678 hr</t>
+    <t>52.994 hr</t>
+  </si>
+  <si>
+    <t>55.326 hr</t>
+  </si>
+  <si>
+    <t>55.514 hr</t>
+  </si>
+  <si>
+    <t>58.314 hr</t>
+  </si>
+  <si>
+    <t>57.213 hr</t>
+  </si>
+  <si>
+    <t>61.375 hr</t>
+  </si>
+  <si>
+    <t>59.332 hr</t>
+  </si>
+  <si>
+    <t>64.894 hr</t>
+  </si>
+  <si>
+    <t>60.084 hr</t>
   </si>
   <si>
     <t>HoursTurn</t>
@@ -3235,10 +3595,31 @@
     <t>187.67 hr</t>
   </si>
   <si>
-    <t>234.14 hr</t>
-  </si>
-  <si>
-    <t>196.9 hr</t>
+    <t>233.02 hr</t>
+  </si>
+  <si>
+    <t>194.4 hr</t>
+  </si>
+  <si>
+    <t>242.5 hr</t>
+  </si>
+  <si>
+    <t>203.63 hr</t>
+  </si>
+  <si>
+    <t>251.6 hr</t>
+  </si>
+  <si>
+    <t>212.66 hr</t>
+  </si>
+  <si>
+    <t>258.73 hr</t>
+  </si>
+  <si>
+    <t>217.14 hr</t>
+  </si>
+  <si>
+    <t>264.37 hr</t>
   </si>
   <si>
     <t>HoursCycle</t>
@@ -3403,10 +3784,31 @@
     <t>195.68 hr</t>
   </si>
   <si>
-    <t>213.58 hr</t>
-  </si>
-  <si>
-    <t>204.97 hr</t>
+    <t>212.7 hr</t>
+  </si>
+  <si>
+    <t>202.19 hr</t>
+  </si>
+  <si>
+    <t>221.76 hr</t>
+  </si>
+  <si>
+    <t>211.48 hr</t>
+  </si>
+  <si>
+    <t>230.63 hr</t>
+  </si>
+  <si>
+    <t>220.38 hr</t>
+  </si>
+  <si>
+    <t>234.92 hr</t>
+  </si>
+  <si>
+    <t>227.35 hr</t>
+  </si>
+  <si>
+    <t>240.38 hr</t>
   </si>
   <si>
     <t>DaysRigDrilled</t>
@@ -3464,7 +3866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AD75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3516,82 +3918,82 @@
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>770</v>
+        <v>861</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>771</v>
+        <v>862</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>792</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2">
@@ -3608,37 +4010,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -3672,7 +4074,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD2" s="0"/>
     </row>
@@ -3690,37 +4092,37 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="P3" s="0">
         <v>957.36999999999989</v>
@@ -3738,7 +4140,7 @@
         <v>37.905262700513319</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="V3" s="0">
         <v>1.2306998204597133</v>
@@ -3762,7 +4164,7 @@
         <v>45839.645833333336</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="AD3" s="0">
         <v>1.8994723917063097</v>
@@ -3782,37 +4184,37 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -3846,7 +4248,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD4" s="0"/>
     </row>
@@ -3864,37 +4266,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="P5" s="0">
         <v>1263.9100000000003</v>
@@ -3912,7 +4314,7 @@
         <v>50.042136874777562</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="V5" s="0">
         <v>1.2489474651411521</v>
@@ -3936,7 +4338,7 @@
         <v>45840.677083333336</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="AD5" s="0">
         <v>1.438787479842607</v>
@@ -3956,37 +4358,37 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P6" s="0">
         <v>60.189999999999998</v>
@@ -4004,7 +4406,7 @@
         <v>2.3831097297219426</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="V6" s="0">
         <v>1.3864237801527943</v>
@@ -4028,7 +4430,7 @@
         <v>45846.708333333336</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="AD6" s="0">
         <v>3.7765780936365467</v>
@@ -4048,37 +4450,37 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="P7" s="0">
         <v>1444.0800000000002</v>
@@ -4096,7 +4498,7 @@
         <v>57.175628817027139</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="V7" s="0">
         <v>1.2680227834837414</v>
@@ -4120,7 +4522,7 @@
         <v>45846.75</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD7" s="0">
         <v>1.5740972484625761</v>
@@ -4140,37 +4542,37 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="P8" s="0">
         <v>1080.4299999999998</v>
@@ -4188,7 +4590,7 @@
         <v>42.777591714296044</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
       <c r="V8" s="0">
         <v>1.2592340485123177</v>
@@ -4212,7 +4614,7 @@
         <v>45847.770833333336</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD8" s="0">
         <v>1.2623431529445703</v>
@@ -4232,37 +4634,37 @@
         <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="P9" s="0">
         <v>1443.3699999999999</v>
@@ -4280,7 +4682,7 @@
         <v>57.1475177037508</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="V9" s="0">
         <v>1.2909747083407932</v>
@@ -4304,7 +4706,7 @@
         <v>45847.770833333336</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD9" s="0">
         <v>1.4173843983897778</v>
@@ -4324,37 +4726,37 @@
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="P10" s="0">
         <v>667.83000000000004</v>
@@ -4372,7 +4774,7 @@
         <v>26.441471520189491</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="V10" s="0">
         <v>1.2718656741294321</v>
@@ -4396,7 +4798,7 @@
         <v>45848.729166666664</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD10" s="0">
         <v>1.3614975994249054</v>
@@ -4416,37 +4818,37 @@
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="P11" s="0">
         <v>1322.6800000000001</v>
@@ -4464,7 +4866,7 @@
         <v>52.369024377946829</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="V11" s="0">
         <v>1.3257073398762043</v>
@@ -4488,7 +4890,7 @@
         <v>45848.75</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD11" s="0">
         <v>1.374858532409857</v>
@@ -4508,37 +4910,37 @@
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="P12" s="0">
         <v>1505.9900000000002</v>
@@ -4556,7 +4958,7 @@
         <v>59.626838708488926</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="V12" s="0">
         <v>1.2902914470467604</v>
@@ -4580,7 +4982,7 @@
         <v>45849.770833333336</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD12" s="0">
         <v>1.308135760497652</v>
@@ -4600,37 +5002,37 @@
         <v>15</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="P13" s="0">
         <v>1324.3999999999999</v>
@@ -4648,7 +5050,7 @@
         <v>52.437124539686678</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="V13" s="0">
         <v>1.3361525944652537</v>
@@ -4672,7 +5074,7 @@
         <v>45849.770833333336</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD13" s="0">
         <v>1.3730730018482857</v>
@@ -4692,37 +5094,37 @@
         <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="P14" s="0">
         <v>841.06000000000006</v>
@@ -4740,7 +5142,7 @@
         <v>33.300187228442219</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="V14" s="0">
         <v>1.3075602158419721</v>
@@ -4764,7 +5166,7 @@
         <v>45850.625</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="AD14" s="0">
         <v>1.3513437534538779</v>
@@ -4784,37 +5186,37 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
@@ -4848,7 +5250,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD15" s="0"/>
     </row>
@@ -4866,37 +5268,37 @@
         <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="P16" s="0">
         <v>1383.0799999999999</v>
@@ -4914,7 +5316,7 @@
         <v>54.760448662299787</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="V16" s="0">
         <v>1.2832071635011486</v>
@@ -4938,7 +5340,7 @@
         <v>45852.770833333336</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD16" s="0">
         <v>1.1504653730745049</v>
@@ -4958,37 +5360,37 @@
         <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="P17" s="0">
         <v>1384.6400000000001</v>
@@ -5006,7 +5408,7 @@
         <v>54.822213925273161</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="V17" s="0">
         <v>1.2907176659529154</v>
@@ -5030,7 +5432,7 @@
         <v>45852.770833333336</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD17" s="0">
         <v>1.3133362344348491</v>
@@ -5044,64 +5446,64 @@
         <v>2</v>
       </c>
       <c r="C18" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="P18" s="0">
-        <v>1444.1600000000001</v>
+        <v>1504.3100000000002</v>
       </c>
       <c r="Q18" s="0">
-        <v>60.173333333333339</v>
+        <v>60.17240000000001</v>
       </c>
       <c r="R18" s="0">
         <v>1.3279947697625607</v>
       </c>
       <c r="S18" s="0">
-        <v>75.932999999999993</v>
+        <v>79.296999999999997</v>
       </c>
       <c r="T18" s="0">
         <v>57.178796266410387</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="V18" s="0">
-        <v>1.3279922796242345</v>
+        <v>1.3868252775125824</v>
       </c>
       <c r="W18" s="0">
         <v>81</v>
@@ -5122,7 +5524,7 @@
         <v>45853.770833333336</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD18" s="0">
         <v>1.4166090454685445</v>
@@ -5142,37 +5544,37 @@
         <v>20</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="P19" s="0">
         <v>1503.6700000000003</v>
@@ -5190,7 +5592,7 @@
         <v>59.53498267637471</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
       <c r="V19" s="0">
         <v>1.3463680746447639</v>
@@ -5214,7 +5616,7 @@
         <v>45853.770833333336</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD19" s="0">
         <v>1.3605446135813399</v>
@@ -5234,37 +5636,37 @@
         <v>21</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="P20" s="0">
         <v>962.79999999999973</v>
@@ -5282,7 +5684,7 @@
         <v>38.120253327401343</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
       <c r="V20" s="0">
         <v>1.2892621562058839</v>
@@ -5306,7 +5708,7 @@
         <v>45854.6875</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
       <c r="AD20" s="0">
         <v>1.6526647779309158</v>
@@ -5326,37 +5728,37 @@
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="P21" s="0">
         <v>1023.98</v>
@@ -5374,7 +5776,7 @@
         <v>40.542560243240985</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="V21" s="0">
         <v>1.3361760992642595</v>
@@ -5398,7 +5800,7 @@
         <v>45854.6875</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
       <c r="AD21" s="0">
         <v>1.3319336439538882</v>
@@ -5418,37 +5820,37 @@
         <v>23</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="P22" s="0">
         <v>120.3</v>
@@ -5466,7 +5868,7 @@
         <v>4.7630520100606368</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>728</v>
+        <v>812</v>
       </c>
       <c r="V22" s="0">
         <v>1.164379475236802</v>
@@ -5490,7 +5892,7 @@
         <v>45856.458333333336</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>786</v>
+        <v>877</v>
       </c>
       <c r="AD22" s="0">
         <v>3.7790895337653154</v>
@@ -5510,37 +5912,37 @@
         <v>6</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -5574,7 +5976,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD23" s="0"/>
     </row>
@@ -5592,37 +5994,37 @@
         <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="P24" s="0">
         <v>1565.7000000000005</v>
@@ -5640,7 +6042,7 @@
         <v>61.990943741911387</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>729</v>
+        <v>813</v>
       </c>
       <c r="V24" s="0">
         <v>1.2705888190366077</v>
@@ -5664,7 +6066,7 @@
         <v>45859.75</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD24" s="0">
         <v>1.3066424724429031</v>
@@ -5684,37 +6086,37 @@
         <v>25</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="P25" s="0">
         <v>1503.5999999999997</v>
@@ -5732,7 +6134,7 @@
         <v>59.532211158164358</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="V25" s="0">
         <v>1.341559442296089</v>
@@ -5756,7 +6158,7 @@
         <v>45859.770833333336</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD25" s="0">
         <v>1.3606079536471494</v>
@@ -5776,37 +6178,37 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="P26" s="0">
         <v>1567.1699999999996</v>
@@ -5824,7 +6226,7 @@
         <v>62.049145624328595</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>731</v>
+        <v>815</v>
       </c>
       <c r="V26" s="0">
         <v>1.2475272499102614</v>
@@ -5848,7 +6250,7 @@
         <v>45860.75</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD26" s="0">
         <v>1.3054168463560769</v>
@@ -5868,37 +6270,37 @@
         <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="P27" s="0">
         <v>1436.25</v>
@@ -5916,7 +6318,7 @@
         <v>56.865614708641644</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>732</v>
+        <v>816</v>
       </c>
       <c r="V27" s="0">
         <v>1.3085939610653958</v>
@@ -5940,7 +6342,7 @@
         <v>45860.791666666664</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>787</v>
+        <v>878</v>
       </c>
       <c r="AD27" s="0">
         <v>1.4244108749200024</v>
@@ -5960,37 +6362,37 @@
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="P28" s="0">
         <v>843.30999999999995</v>
@@ -6008,7 +6410,7 @@
         <v>33.389271742346097</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>733</v>
+        <v>817</v>
       </c>
       <c r="V28" s="0">
         <v>1.2793330842800392</v>
@@ -6032,7 +6434,7 @@
         <v>45861.666666666664</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="AD28" s="0">
         <v>2.1563812638861983</v>
@@ -6052,37 +6454,37 @@
         <v>6</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
@@ -6116,7 +6518,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD29" s="0"/>
     </row>
@@ -6134,37 +6536,37 @@
         <v>29</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="P30" s="0">
         <v>1203.3899999999999</v>
@@ -6182,7 +6584,7 @@
         <v>47.645961416349692</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>734</v>
+        <v>818</v>
       </c>
       <c r="V30" s="0">
         <v>1.3670833385187731</v>
@@ -6206,7 +6608,7 @@
         <v>45863.708333333336</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
       <c r="AD30" s="0">
         <v>1.3222526763492188</v>
@@ -6226,37 +6628,37 @@
         <v>30</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="P31" s="0">
         <v>300.76999999999998</v>
@@ -6274,7 +6676,7 @@
         <v>11.908421887497402</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>735</v>
+        <v>819</v>
       </c>
       <c r="V31" s="0">
         <v>1.3345177178081791</v>
@@ -6298,7 +6700,7 @@
         <v>45863.520833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>788</v>
+        <v>879</v>
       </c>
       <c r="AD31" s="0">
         <v>1.5115352957807211</v>
@@ -6318,37 +6720,37 @@
         <v>31</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="P32" s="0">
         <v>1081.9300000000001</v>
@@ -6366,7 +6768,7 @@
         <v>42.836981390231962</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>736</v>
+        <v>820</v>
       </c>
       <c r="V32" s="0">
         <v>1.3676734003801554</v>
@@ -6390,7 +6792,7 @@
         <v>45864.583333333336</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>789</v>
+        <v>880</v>
       </c>
       <c r="AD32" s="0">
         <v>1.2605930261069591</v>
@@ -6410,37 +6812,37 @@
         <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
@@ -6474,7 +6876,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD33" s="0"/>
     </row>
@@ -6492,37 +6894,37 @@
         <v>32</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="P34" s="0">
         <v>1624.7900000000004</v>
@@ -6540,7 +6942,7 @@
         <v>64.330501042613662</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="V34" s="0">
         <v>1.2647344367192943</v>
@@ -6564,7 +6966,7 @@
         <v>45866.770833333336</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD34" s="0">
         <v>1.2591227907014773</v>
@@ -6584,37 +6986,37 @@
         <v>33</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="P35" s="0">
         <v>1447.6000000000001</v>
@@ -6632,7 +7034,7 @@
         <v>57.314996589890093</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>738</v>
+        <v>822</v>
       </c>
       <c r="V35" s="0">
         <v>1.3347641027949453</v>
@@ -6656,7 +7058,7 @@
         <v>45866.791666666664</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="AD35" s="0">
         <v>1.4132426907321451</v>
@@ -6676,37 +7078,37 @@
         <v>34</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="P36" s="0">
         <v>722.63</v>
@@ -6724,7 +7126,7 @@
         <v>28.611174347715025</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>739</v>
+        <v>823</v>
       </c>
       <c r="V36" s="0">
         <v>1.2682107892190668</v>
@@ -6748,7 +7150,7 @@
         <v>45867.6875</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
       <c r="AD36" s="0">
         <v>1.5728120577334441</v>
@@ -6768,37 +7170,37 @@
         <v>35</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="P37" s="0">
         <v>964.50000000000011</v>
@@ -6816,7 +7218,7 @@
         <v>38.187561626795386</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>740</v>
+        <v>824</v>
       </c>
       <c r="V37" s="0">
         <v>1.3426361311329063</v>
@@ -6840,7 +7242,7 @@
         <v>45867.6875</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
       <c r="AD37" s="0">
         <v>1.4140730043918115</v>
@@ -6860,37 +7262,37 @@
         <v>36</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>678</v>
+        <v>755</v>
       </c>
       <c r="P38" s="0">
         <v>361.29000000000002</v>
@@ -6908,7 +7310,7 @@
         <v>14.304597345925249</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>741</v>
+        <v>825</v>
       </c>
       <c r="V38" s="0">
         <v>1.1713716642833745</v>
@@ -6932,7 +7334,7 @@
         <v>45868.541666666664</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>789</v>
+        <v>880</v>
       </c>
       <c r="AD38" s="0">
         <v>2.5166734252925211</v>
@@ -6952,37 +7354,37 @@
         <v>37</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="P39" s="0">
         <v>423.25</v>
@@ -7000,7 +7402,7 @@
         <v>16.757786893251573</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>742</v>
+        <v>826</v>
       </c>
       <c r="V39" s="0">
         <v>1.3359759342097695</v>
@@ -7024,7 +7426,7 @@
         <v>45868.541666666664</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>789</v>
+        <v>880</v>
       </c>
       <c r="AD39" s="0">
         <v>1.6111912731670437</v>
@@ -7044,37 +7446,37 @@
         <v>38</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="P40" s="0">
         <v>1627.7299999999998</v>
@@ -7092,7 +7494,7 @@
         <v>64.44690480744805</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>743</v>
+        <v>827</v>
       </c>
       <c r="V40" s="0">
         <v>1.2679429717244739</v>
@@ -7116,7 +7518,7 @@
         <v>45869.6875</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
       <c r="AD40" s="0">
         <v>1.2568485677009416</v>
@@ -7136,37 +7538,37 @@
         <v>39</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="P41" s="0">
         <v>1510.5899999999999</v>
@@ -7184,7 +7586,7 @@
         <v>59.80896704802575</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>744</v>
+        <v>828</v>
       </c>
       <c r="V41" s="0">
         <v>1.3208052888886601</v>
@@ -7208,7 +7610,7 @@
         <v>45869.6875</v>
       </c>
       <c r="AC41" s="0" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
       <c r="AD41" s="0">
         <v>1.3543119702261059</v>
@@ -7228,37 +7630,37 @@
         <v>40</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
       <c r="P42" s="0">
         <v>1627.5099999999995</v>
@@ -7276,7 +7678,7 @@
         <v>64.438194321644104</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>745</v>
+        <v>829</v>
       </c>
       <c r="V42" s="0">
         <v>1.2690299729974424</v>
@@ -7300,7 +7702,7 @@
         <v>45870.708333333336</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD42" s="0">
         <v>1.3966871813751298</v>
@@ -7320,37 +7722,37 @@
         <v>41</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="P43" s="0">
         <v>1508.7499999999998</v>
@@ -7368,7 +7770,7 @@
         <v>59.736115712211017</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>746</v>
+        <v>830</v>
       </c>
       <c r="V43" s="0">
         <v>1.316590458926058</v>
@@ -7392,7 +7794,7 @@
         <v>45870.708333333336</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD43" s="0">
         <v>1.3559636249238467</v>
@@ -7412,37 +7814,37 @@
         <v>42</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="P44" s="0">
         <v>1144.8799999999999</v>
@@ -7460,7 +7862,7 @@
         <v>45.329368123676005</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>747</v>
+        <v>831</v>
       </c>
       <c r="V44" s="0">
         <v>1.2573305642491719</v>
@@ -7484,7 +7886,7 @@
         <v>45873.708333333336</v>
       </c>
       <c r="AC44" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD44" s="0">
         <v>1.588374225812198</v>
@@ -7504,37 +7906,37 @@
         <v>43</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="P45" s="0">
         <v>1082.7199999999998</v>
@@ -7552,7 +7954,7 @@
         <v>42.868259952891549</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>748</v>
+        <v>832</v>
       </c>
       <c r="V45" s="0">
         <v>1.3340406179967317</v>
@@ -7576,7 +7978,7 @@
         <v>45873.708333333336</v>
       </c>
       <c r="AC45" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD45" s="0">
         <v>1.2596732421456167</v>
@@ -7596,37 +7998,37 @@
         <v>44</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="P46" s="0">
         <v>1386.1299999999997</v>
@@ -7644,7 +8046,7 @@
         <v>54.881207670036169</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="V46" s="0">
         <v>1.2621077950115438</v>
@@ -7668,7 +8070,7 @@
         <v>45874.708333333336</v>
       </c>
       <c r="AC46" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD46" s="0">
         <v>1.311924483019536</v>
@@ -7688,37 +8090,37 @@
         <v>45</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="P47" s="0">
         <v>1263.1600000000001</v>
@@ -7736,7 +8138,7 @@
         <v>50.012442036809595</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>750</v>
+        <v>834</v>
       </c>
       <c r="V47" s="0">
         <v>1.37425802862044</v>
@@ -7760,7 +8162,7 @@
         <v>45874.708333333336</v>
       </c>
       <c r="AC47" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD47" s="0">
         <v>1.4396417584849659</v>
@@ -7780,37 +8182,37 @@
         <v>46</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>688</v>
+        <v>765</v>
       </c>
       <c r="P48" s="0">
         <v>1145.6300000000001</v>
@@ -7828,7 +8230,7 @@
         <v>45.359062961643943</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>751</v>
+        <v>835</v>
       </c>
       <c r="V48" s="0">
         <v>1.2682140292149262</v>
@@ -7852,7 +8254,7 @@
         <v>45875.75</v>
       </c>
       <c r="AC48" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD48" s="0">
         <v>1.3889175808872727</v>
@@ -7872,37 +8274,37 @@
         <v>47</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>689</v>
+        <v>766</v>
       </c>
       <c r="P49" s="0">
         <v>901.75</v>
@@ -7920,7 +8322,7 @@
         <v>35.703093516809467</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>752</v>
+        <v>836</v>
       </c>
       <c r="V49" s="0">
         <v>1.3938288002010377</v>
@@ -7944,7 +8346,7 @@
         <v>45875.75</v>
       </c>
       <c r="AC49" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD49" s="0">
         <v>1.7645529783109355</v>
@@ -7964,37 +8366,37 @@
         <v>48</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="P50" s="0">
         <v>1143.8699999999999</v>
@@ -8012,7 +8414,7 @@
         <v>45.28937907521248</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>753</v>
+        <v>837</v>
       </c>
       <c r="V50" s="0">
         <v>1.2897063548386911</v>
@@ -8036,7 +8438,7 @@
         <v>45876.645833333336</v>
       </c>
       <c r="AC50" s="0" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="AD50" s="0">
         <v>1.5897767085839034</v>
@@ -8056,37 +8458,37 @@
         <v>49</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="P51" s="0">
         <v>1443.99</v>
@@ -8104,7 +8506,7 @@
         <v>57.172065436470987</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>754</v>
+        <v>838</v>
       </c>
       <c r="V51" s="0">
         <v>1.3523037764992158</v>
@@ -8128,7 +8530,7 @@
         <v>45876.75</v>
       </c>
       <c r="AC51" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD51" s="0">
         <v>1.5741953576962699</v>
@@ -8148,37 +8550,37 @@
         <v>50</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="P52" s="0">
         <v>1022.8399999999999</v>
@@ -8196,7 +8598,7 @@
         <v>40.497424089529687</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>755</v>
+        <v>839</v>
       </c>
       <c r="V52" s="0">
         <v>1.2645742575326036</v>
@@ -8220,7 +8622,7 @@
         <v>45877.645833333336</v>
       </c>
       <c r="AC52" s="0" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="AD52" s="0">
         <v>1.3334181423643017</v>
@@ -8240,37 +8642,37 @@
         <v>51</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>693</v>
+        <v>770</v>
       </c>
       <c r="P53" s="0">
         <v>1448.9200000000001</v>
@@ -8288,7 +8690,7 @@
         <v>57.367259504713687</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>756</v>
+        <v>840</v>
       </c>
       <c r="V53" s="0">
         <v>1.3760113465680526</v>
@@ -8312,7 +8714,7 @@
         <v>45877.75</v>
       </c>
       <c r="AC53" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD53" s="0">
         <v>1.4119551935951287</v>
@@ -8332,37 +8734,37 @@
         <v>52</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="P54" s="0">
         <v>1324.24</v>
@@ -8380,7 +8782,7 @@
         <v>52.430789640920189</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>757</v>
+        <v>841</v>
       </c>
       <c r="V54" s="0">
         <v>1.2749569567388033</v>
@@ -8404,7 +8806,7 @@
         <v>45880.708333333336</v>
       </c>
       <c r="AC54" s="0" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
       <c r="AD54" s="0">
         <v>1.5448937648038521</v>
@@ -8424,37 +8826,37 @@
         <v>6</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -8492,7 +8894,7 @@
         <v>45880.645833333336</v>
       </c>
       <c r="AC55" s="0" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="AD55" s="0"/>
     </row>
@@ -8510,37 +8912,37 @@
         <v>53</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>695</v>
+        <v>772</v>
       </c>
       <c r="P56" s="0">
         <v>1385.46</v>
@@ -8558,7 +8960,7 @@
         <v>54.854680281451451</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>758</v>
+        <v>842</v>
       </c>
       <c r="V56" s="0">
         <v>1.2723982646855589</v>
@@ -8582,7 +8984,7 @@
         <v>45881.729166666664</v>
       </c>
       <c r="AC56" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD56" s="0">
         <v>1.4766287869038828</v>
@@ -8602,37 +9004,37 @@
         <v>54</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>696</v>
+        <v>773</v>
       </c>
       <c r="P57" s="0">
         <v>1443.2800000000002</v>
@@ -8650,7 +9052,7 @@
         <v>57.143954323194649</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>759</v>
+        <v>843</v>
       </c>
       <c r="V57" s="0">
         <v>1.3519540415956461</v>
@@ -8674,7 +9076,7 @@
         <v>45881.708333333336</v>
       </c>
       <c r="AC57" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD57" s="0">
         <v>1.4174727835928256</v>
@@ -8694,37 +9096,37 @@
         <v>55</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>697</v>
+        <v>774</v>
       </c>
       <c r="P58" s="0">
         <v>1445.8899999999999</v>
@@ -8742,7 +9144,7 @@
         <v>57.247292359323133</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>760</v>
+        <v>844</v>
       </c>
       <c r="V58" s="0">
         <v>1.2820868372134795</v>
@@ -8766,7 +9168,7 @@
         <v>45883.729166666664</v>
       </c>
       <c r="AC58" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD58" s="0">
         <v>1.4149140799810869</v>
@@ -8786,37 +9188,37 @@
         <v>56</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>526</v>
+        <v>582</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>698</v>
+        <v>775</v>
       </c>
       <c r="P59" s="0">
         <v>1630.03</v>
@@ -8834,7 +9236,7 @@
         <v>64.537968977216451</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>761</v>
+        <v>845</v>
       </c>
       <c r="V59" s="0">
         <v>1.3525371402811821</v>
@@ -8858,7 +9260,7 @@
         <v>45883.770833333336</v>
       </c>
       <c r="AC59" s="0" t="s">
-        <v>787</v>
+        <v>878</v>
       </c>
       <c r="AD59" s="0">
         <v>1.3945279255963616</v>
@@ -8878,37 +9280,37 @@
         <v>57</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>527</v>
+        <v>583</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>699</v>
+        <v>776</v>
       </c>
       <c r="P60" s="0">
         <v>1385.9799999999998</v>
@@ -8926,7 +9328,7 @@
         <v>54.875268702442575</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>762</v>
+        <v>846</v>
       </c>
       <c r="V60" s="0">
         <v>1.2837477002980819</v>
@@ -8950,7 +9352,7 @@
         <v>45884.729861111111</v>
       </c>
       <c r="AC60" s="0" t="s">
-        <v>791</v>
+        <v>882</v>
       </c>
       <c r="AD60" s="0">
         <v>1.3120664682375429</v>
@@ -8970,37 +9372,37 @@
         <v>58</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="P61" s="0">
         <v>1443.0700000000002</v>
@@ -9018,7 +9420,7 @@
         <v>57.135639768563614</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>763</v>
+        <v>847</v>
       </c>
       <c r="V61" s="0">
         <v>1.3744836028458858</v>
@@ -9042,7 +9444,7 @@
         <v>45884.729166666664</v>
       </c>
       <c r="AC61" s="0" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="AD61" s="0">
         <v>1.4176790586068961</v>
@@ -9062,37 +9464,37 @@
         <v>59</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>701</v>
+        <v>778</v>
       </c>
       <c r="P62" s="0">
         <v>1387.8199999999995</v>
@@ -9110,7 +9512,7 @@
         <v>54.948120038257308</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>764</v>
+        <v>848</v>
       </c>
       <c r="V62" s="0">
         <v>1.288488122081445</v>
@@ -9134,7 +9536,7 @@
         <v>45885.645833333336</v>
       </c>
       <c r="AC62" s="0" t="s">
-        <v>790</v>
+        <v>881</v>
       </c>
       <c r="AD62" s="0">
         <v>1.3103269038116394</v>
@@ -9154,37 +9556,37 @@
         <v>6</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -9218,7 +9620,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD63" s="0"/>
     </row>
@@ -9236,37 +9638,37 @@
         <v>60</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>702</v>
+        <v>779</v>
       </c>
       <c r="P64" s="0">
         <v>1569.3599999999997</v>
@@ -9284,7 +9686,7 @@
         <v>62.135854551195038</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>765</v>
+        <v>849</v>
       </c>
       <c r="V64" s="0">
         <v>1.2904143763555571</v>
@@ -9308,7 +9710,7 @@
         <v>45887.708333333336</v>
       </c>
       <c r="AC64" s="0" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="AD64" s="0">
         <v>0.96562605332102958</v>
@@ -9328,37 +9730,37 @@
         <v>61</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>703</v>
+        <v>780</v>
       </c>
       <c r="P65" s="0">
         <v>1442.9299999999994</v>
@@ -9376,7 +9778,7 @@
         <v>57.130096732142931</v>
       </c>
       <c r="U65" s="0" t="s">
-        <v>766</v>
+        <v>850</v>
       </c>
       <c r="V65" s="0">
         <v>1.384769228921845</v>
@@ -9400,7 +9802,7 @@
         <v>45887.666666666664</v>
       </c>
       <c r="AC65" s="0" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
       <c r="AD65" s="0">
         <v>1.0502345249179734</v>
@@ -9408,70 +9810,70 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>588</v>
+        <v>651</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>704</v>
+        <v>781</v>
       </c>
       <c r="P66" s="0">
-        <v>1570.6099999999999</v>
+        <v>1388.72</v>
       </c>
       <c r="Q66" s="0">
-        <v>60.408076923076919</v>
+        <v>60.37913043478261</v>
       </c>
       <c r="R66" s="0">
-        <v>1.2760932639435394</v>
+        <v>1.2619111937411964</v>
       </c>
       <c r="S66" s="0">
-        <v>79.354999999999961</v>
+        <v>69.383999999999972</v>
       </c>
       <c r="T66" s="0">
-        <v>62.185345947808294</v>
+        <v>54.983753843818846</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>767</v>
+        <v>851</v>
       </c>
       <c r="V66" s="0">
-        <v>1.2761045032474698</v>
+        <v>1.2619000186325031</v>
       </c>
       <c r="W66" s="0">
         <v>0</v>
@@ -9480,15 +9882,15 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>45889.275173611109</v>
+        <v>45888.282719907409</v>
       </c>
       <c r="Z66" s="1">
-        <v>45889.670231481483</v>
+        <v>45888.631192129629</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -9496,70 +9898,70 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>589</v>
+        <v>652</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>705</v>
+        <v>782</v>
       </c>
       <c r="P67" s="0">
-        <v>1562.9199999999998</v>
+        <v>961.85000000000014</v>
       </c>
       <c r="Q67" s="0">
-        <v>60.112307692307688</v>
+        <v>60.115625000000009</v>
       </c>
       <c r="R67" s="0">
-        <v>1.3628149081982845</v>
+        <v>1.3569909335278401</v>
       </c>
       <c r="S67" s="0">
-        <v>84.331999999999994</v>
+        <v>51.67799999999999</v>
       </c>
       <c r="T67" s="0">
-        <v>61.880874875843467</v>
+        <v>38.082639865975253</v>
       </c>
       <c r="U67" s="0" t="s">
-        <v>768</v>
+        <v>852</v>
       </c>
       <c r="V67" s="0">
-        <v>1.3628120185631183</v>
+        <v>1.3569962634384347</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -9568,19 +9970,733 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>45889.279768518521</v>
+        <v>45888.283148148148</v>
       </c>
       <c r="Z67" s="1">
-        <v>45889.664513888885</v>
+        <v>45888.563576388886</v>
       </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="0" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
       </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="0">
+        <v>26</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="P68" s="0">
+        <v>1570.6099999999999</v>
+      </c>
+      <c r="Q68" s="0">
+        <v>60.408076923076919</v>
+      </c>
+      <c r="R68" s="0">
+        <v>1.2760932639435394</v>
+      </c>
+      <c r="S68" s="0">
+        <v>79.354999999999961</v>
+      </c>
+      <c r="T68" s="0">
+        <v>62.185345947808294</v>
+      </c>
+      <c r="U68" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="V68" s="0">
+        <v>1.2761045032474698</v>
+      </c>
+      <c r="W68" s="0">
+        <v>0</v>
+      </c>
+      <c r="X68" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>45889.275173611109</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>45889.670231481483</v>
+      </c>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="0">
+        <v>26</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="P69" s="0">
+        <v>1562.9199999999998</v>
+      </c>
+      <c r="Q69" s="0">
+        <v>60.112307692307688</v>
+      </c>
+      <c r="R69" s="0">
+        <v>1.3628149081982845</v>
+      </c>
+      <c r="S69" s="0">
+        <v>84.331999999999994</v>
+      </c>
+      <c r="T69" s="0">
+        <v>61.880874875843467</v>
+      </c>
+      <c r="U69" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="V69" s="0">
+        <v>1.3628120185631183</v>
+      </c>
+      <c r="W69" s="0">
+        <v>0</v>
+      </c>
+      <c r="X69" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>45889.279768518521</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>45889.664513888885</v>
+      </c>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD69" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="0">
+        <v>24</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="P70" s="0">
+        <v>1448.51</v>
+      </c>
+      <c r="Q70" s="0">
+        <v>60.354583333333331</v>
+      </c>
+      <c r="R70" s="0">
+        <v>1.285943247172904</v>
+      </c>
+      <c r="S70" s="0">
+        <v>73.749999999999972</v>
+      </c>
+      <c r="T70" s="0">
+        <v>57.351026326624556</v>
+      </c>
+      <c r="U70" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="V70" s="0">
+        <v>1.2859403697499723</v>
+      </c>
+      <c r="W70" s="0">
+        <v>72</v>
+      </c>
+      <c r="X70" s="0">
+        <v>82</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>45890.274398148147</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>45890.653391203705</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>45890.25</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>45890.75</v>
+      </c>
+      <c r="AC70" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD70" s="0">
+        <v>1.2554265304677699</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="0">
+        <v>24</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="P71" s="0">
+        <v>1442.9799999999996</v>
+      </c>
+      <c r="Q71" s="0">
+        <v>60.124166666666646</v>
+      </c>
+      <c r="R71" s="0">
+        <v>1.4212689115924799</v>
+      </c>
+      <c r="S71" s="0">
+        <v>81.199999999999989</v>
+      </c>
+      <c r="T71" s="0">
+        <v>57.132076388007455</v>
+      </c>
+      <c r="U71" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="V71" s="0">
+        <v>1.421268141009568</v>
+      </c>
+      <c r="W71" s="0">
+        <v>94</v>
+      </c>
+      <c r="X71" s="0">
+        <v>82</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>45890.294421296298</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>45890.670717592591</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>45890.25</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>45890.5</v>
+      </c>
+      <c r="AC71" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="AD71" s="0">
+        <v>1.6453104095430962</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="0">
+        <v>10</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="P72" s="0">
+        <v>601.07999999999993</v>
+      </c>
+      <c r="Q72" s="0">
+        <v>60.10799999999999</v>
+      </c>
+      <c r="R72" s="0">
+        <v>1.2990420510697436</v>
+      </c>
+      <c r="S72" s="0">
+        <v>30.915999999999997</v>
+      </c>
+      <c r="T72" s="0">
+        <v>23.798630941041125</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="V72" s="0">
+        <v>1.2990663234616935</v>
+      </c>
+      <c r="W72" s="0">
+        <v>36</v>
+      </c>
+      <c r="X72" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>45891.283877314818</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>45891.580995370372</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>45891.25</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>45891.75</v>
+      </c>
+      <c r="AC72" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD72" s="0">
+        <v>1.5126920573366855</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="0">
+        <v>15</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="P73" s="0">
+        <v>902.16999999999996</v>
+      </c>
+      <c r="Q73" s="0">
+        <v>60.144666666666666</v>
+      </c>
+      <c r="R73" s="0">
+        <v>1.4207919486946403</v>
+      </c>
+      <c r="S73" s="0">
+        <v>50.749999999999993</v>
+      </c>
+      <c r="T73" s="0">
+        <v>35.71972262607153</v>
+      </c>
+      <c r="U73" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="V73" s="0">
+        <v>1.4207837090805959</v>
+      </c>
+      <c r="W73" s="0">
+        <v>54</v>
+      </c>
+      <c r="X73" s="0">
+        <v>134.5</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>45891.405497685184</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>45891.592118055552</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>45891.25</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>45891.75</v>
+      </c>
+      <c r="AC73" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD73" s="0">
+        <v>1.5117698579379741</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="0">
+        <v>20</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="P74" s="0">
+        <v>1202</v>
+      </c>
+      <c r="Q74" s="0">
+        <v>60.100000000000001</v>
+      </c>
+      <c r="R74" s="0">
+        <v>1.2893246881176872</v>
+      </c>
+      <c r="S74" s="0">
+        <v>61.359999999999978</v>
+      </c>
+      <c r="T74" s="0">
+        <v>47.590926983315761</v>
+      </c>
+      <c r="U74" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="V74" s="0">
+        <v>1.2893213872785316</v>
+      </c>
+      <c r="W74" s="0">
+        <v>0</v>
+      </c>
+      <c r="X74" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>45894.278321759259</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>45894.513090277775</v>
+      </c>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD74" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="0">
+        <v>0</v>
+      </c>
+      <c r="R75" s="0">
+        <v>0</v>
+      </c>
+      <c r="S75" s="0">
+        <v>0</v>
+      </c>
+      <c r="T75" s="0">
+        <v>0</v>
+      </c>
+      <c r="U75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="V75" s="0">
+        <v>0</v>
+      </c>
+      <c r="W75" s="0">
+        <v>0</v>
+      </c>
+      <c r="X75" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD75" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -9588,7 +10704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9622,40 +10738,40 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>793</v>
+        <v>885</v>
       </c>
       <c r="E1" t="s">
-        <v>849</v>
+        <v>948</v>
       </c>
       <c r="F1" t="s">
-        <v>906</v>
+        <v>1012</v>
       </c>
       <c r="G1" t="s">
-        <v>963</v>
+        <v>1076</v>
       </c>
       <c r="H1" t="s">
-        <v>1018</v>
+        <v>1138</v>
       </c>
       <c r="I1" t="s">
-        <v>1075</v>
+        <v>1202</v>
       </c>
       <c r="J1" t="s">
-        <v>1131</v>
+        <v>1265</v>
       </c>
       <c r="K1" t="s">
-        <v>1132</v>
+        <v>1266</v>
       </c>
       <c r="L1" t="s">
-        <v>1133</v>
+        <v>1267</v>
       </c>
       <c r="M1" t="s">
-        <v>1134</v>
+        <v>1268</v>
       </c>
       <c r="N1" t="s">
-        <v>770</v>
+        <v>861</v>
       </c>
       <c r="O1" t="s">
-        <v>771</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2">
@@ -9713,19 +10829,19 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="H3" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="I3" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -9798,22 +10914,22 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>794</v>
+        <v>886</v>
       </c>
       <c r="E5" t="s">
-        <v>850</v>
+        <v>949</v>
       </c>
       <c r="F5" t="s">
-        <v>907</v>
+        <v>1013</v>
       </c>
       <c r="G5" t="s">
-        <v>964</v>
+        <v>1077</v>
       </c>
       <c r="H5" t="s">
-        <v>1019</v>
+        <v>1139</v>
       </c>
       <c r="I5" t="s">
-        <v>1076</v>
+        <v>1203</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -9848,16 +10964,16 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -9892,22 +11008,22 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>795</v>
+        <v>887</v>
       </c>
       <c r="E7" t="s">
-        <v>851</v>
+        <v>950</v>
       </c>
       <c r="F7" t="s">
-        <v>908</v>
+        <v>1014</v>
       </c>
       <c r="G7" t="s">
-        <v>965</v>
+        <v>1078</v>
       </c>
       <c r="H7" t="s">
-        <v>1020</v>
+        <v>1140</v>
       </c>
       <c r="I7" t="s">
-        <v>1077</v>
+        <v>1204</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -9942,19 +11058,19 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>852</v>
+        <v>951</v>
       </c>
       <c r="F8" t="s">
-        <v>909</v>
+        <v>1015</v>
       </c>
       <c r="G8" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="H8" t="s">
-        <v>1021</v>
+        <v>1141</v>
       </c>
       <c r="I8" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -9986,22 +11102,22 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>796</v>
+        <v>888</v>
       </c>
       <c r="E9" t="s">
-        <v>853</v>
+        <v>952</v>
       </c>
       <c r="F9" t="s">
-        <v>910</v>
+        <v>1016</v>
       </c>
       <c r="G9" t="s">
-        <v>966</v>
+        <v>1079</v>
       </c>
       <c r="H9" t="s">
-        <v>1022</v>
+        <v>1142</v>
       </c>
       <c r="I9" t="s">
-        <v>1078</v>
+        <v>1205</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -10033,22 +11149,22 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>854</v>
+        <v>953</v>
       </c>
       <c r="F10" t="s">
-        <v>911</v>
+        <v>1017</v>
       </c>
       <c r="G10" t="s">
-        <v>967</v>
+        <v>1080</v>
       </c>
       <c r="H10" t="s">
-        <v>1023</v>
+        <v>1143</v>
       </c>
       <c r="I10" t="s">
-        <v>1079</v>
+        <v>1206</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -10080,22 +11196,22 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>798</v>
+        <v>890</v>
       </c>
       <c r="E11" t="s">
-        <v>855</v>
+        <v>954</v>
       </c>
       <c r="F11" t="s">
-        <v>912</v>
+        <v>1018</v>
       </c>
       <c r="G11" t="s">
-        <v>968</v>
+        <v>1081</v>
       </c>
       <c r="H11" t="s">
-        <v>1024</v>
+        <v>1144</v>
       </c>
       <c r="I11" t="s">
-        <v>1080</v>
+        <v>1207</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -10127,22 +11243,22 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>799</v>
+        <v>891</v>
       </c>
       <c r="E12" t="s">
-        <v>856</v>
+        <v>955</v>
       </c>
       <c r="F12" t="s">
-        <v>913</v>
+        <v>1019</v>
       </c>
       <c r="G12" t="s">
-        <v>969</v>
+        <v>1082</v>
       </c>
       <c r="H12" t="s">
-        <v>1025</v>
+        <v>1145</v>
       </c>
       <c r="I12" t="s">
-        <v>1081</v>
+        <v>1208</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -10174,22 +11290,22 @@
         <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>800</v>
+        <v>892</v>
       </c>
       <c r="E13" t="s">
-        <v>857</v>
+        <v>956</v>
       </c>
       <c r="F13" t="s">
-        <v>914</v>
+        <v>1020</v>
       </c>
       <c r="G13" t="s">
-        <v>970</v>
+        <v>1083</v>
       </c>
       <c r="H13" t="s">
-        <v>1026</v>
+        <v>1146</v>
       </c>
       <c r="I13" t="s">
-        <v>1082</v>
+        <v>1209</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -10221,22 +11337,22 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>801</v>
+        <v>893</v>
       </c>
       <c r="E14" t="s">
-        <v>858</v>
+        <v>957</v>
       </c>
       <c r="F14" t="s">
-        <v>915</v>
+        <v>1021</v>
       </c>
       <c r="G14" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="H14" t="s">
-        <v>1027</v>
+        <v>1147</v>
       </c>
       <c r="I14" t="s">
-        <v>1083</v>
+        <v>1210</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -10268,22 +11384,22 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>800</v>
+        <v>892</v>
       </c>
       <c r="E15" t="s">
-        <v>857</v>
+        <v>956</v>
       </c>
       <c r="F15" t="s">
-        <v>914</v>
+        <v>1020</v>
       </c>
       <c r="G15" t="s">
-        <v>970</v>
+        <v>1083</v>
       </c>
       <c r="H15" t="s">
-        <v>1026</v>
+        <v>1146</v>
       </c>
       <c r="I15" t="s">
-        <v>1082</v>
+        <v>1209</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -10315,22 +11431,22 @@
         <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>802</v>
+        <v>894</v>
       </c>
       <c r="E16" t="s">
-        <v>859</v>
+        <v>958</v>
       </c>
       <c r="F16" t="s">
-        <v>916</v>
+        <v>1022</v>
       </c>
       <c r="G16" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="H16" t="s">
-        <v>1028</v>
+        <v>1148</v>
       </c>
       <c r="I16" t="s">
-        <v>1084</v>
+        <v>1211</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -10362,22 +11478,22 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>803</v>
+        <v>895</v>
       </c>
       <c r="E17" t="s">
-        <v>860</v>
+        <v>959</v>
       </c>
       <c r="F17" t="s">
-        <v>917</v>
+        <v>1023</v>
       </c>
       <c r="G17" t="s">
-        <v>973</v>
+        <v>1086</v>
       </c>
       <c r="H17" t="s">
-        <v>1029</v>
+        <v>1149</v>
       </c>
       <c r="I17" t="s">
-        <v>1085</v>
+        <v>1212</v>
       </c>
       <c r="J17">
         <v>7</v>
@@ -10406,37 +11522,37 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>804</v>
+        <v>896</v>
       </c>
       <c r="E18" t="s">
-        <v>861</v>
+        <v>960</v>
       </c>
       <c r="F18" t="s">
-        <v>918</v>
+        <v>1024</v>
       </c>
       <c r="G18" t="s">
-        <v>974</v>
+        <v>1087</v>
       </c>
       <c r="H18" t="s">
-        <v>1030</v>
+        <v>1150</v>
       </c>
       <c r="I18" t="s">
-        <v>1086</v>
+        <v>1213</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
       <c r="K18">
-        <v>60.19603448275862</v>
+        <v>60.195641025641031</v>
       </c>
       <c r="L18">
-        <v>1.2930333425712321</v>
+        <v>1.3059032902999645</v>
       </c>
       <c r="M18">
-        <v>1.3237651351126467</v>
+        <v>1.3245586728079963</v>
       </c>
       <c r="N18">
         <v>366</v>
@@ -10456,22 +11572,22 @@
         <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>805</v>
+        <v>897</v>
       </c>
       <c r="E19" t="s">
-        <v>862</v>
+        <v>961</v>
       </c>
       <c r="F19" t="s">
-        <v>919</v>
+        <v>1025</v>
       </c>
       <c r="G19" t="s">
-        <v>975</v>
+        <v>1088</v>
       </c>
       <c r="H19" t="s">
-        <v>1031</v>
+        <v>1151</v>
       </c>
       <c r="I19" t="s">
-        <v>1087</v>
+        <v>1214</v>
       </c>
       <c r="J19">
         <v>8</v>
@@ -10500,37 +11616,37 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>806</v>
+        <v>898</v>
       </c>
       <c r="E20" t="s">
-        <v>863</v>
+        <v>962</v>
       </c>
       <c r="F20" t="s">
-        <v>920</v>
+        <v>1026</v>
       </c>
       <c r="G20" t="s">
-        <v>976</v>
+        <v>1089</v>
       </c>
       <c r="H20" t="s">
-        <v>1032</v>
+        <v>1152</v>
       </c>
       <c r="I20" t="s">
-        <v>1088</v>
+        <v>1215</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20">
-        <v>60.193484848484843</v>
+        <v>60.193157894736849</v>
       </c>
       <c r="L20">
-        <v>1.2925762290724021</v>
+        <v>1.3039013493563159</v>
       </c>
       <c r="M20">
-        <v>1.3636317584845581</v>
+        <v>1.3640300839506032</v>
       </c>
       <c r="N20">
         <v>429</v>
@@ -10550,22 +11666,22 @@
         <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>807</v>
+        <v>899</v>
       </c>
       <c r="E21" t="s">
-        <v>864</v>
+        <v>963</v>
       </c>
       <c r="F21" t="s">
-        <v>921</v>
+        <v>1027</v>
       </c>
       <c r="G21" t="s">
-        <v>977</v>
+        <v>1090</v>
       </c>
       <c r="H21" t="s">
-        <v>1033</v>
+        <v>1153</v>
       </c>
       <c r="I21" t="s">
-        <v>1089</v>
+        <v>1216</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -10594,37 +11710,37 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>808</v>
+        <v>900</v>
       </c>
       <c r="E22" t="s">
-        <v>865</v>
+        <v>964</v>
       </c>
       <c r="F22" t="s">
-        <v>922</v>
+        <v>1028</v>
       </c>
       <c r="G22" t="s">
-        <v>976</v>
+        <v>1089</v>
       </c>
       <c r="H22" t="s">
-        <v>1034</v>
+        <v>1154</v>
       </c>
       <c r="I22" t="s">
-        <v>1090</v>
+        <v>1217</v>
       </c>
       <c r="J22">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>60.192835820895517</v>
+        <v>60.192518518518526</v>
       </c>
       <c r="L22">
-        <v>1.290662844686796</v>
+        <v>1.3018343586286194</v>
       </c>
       <c r="M22">
-        <v>1.399683367070838</v>
+        <v>1.3998087424663768</v>
       </c>
       <c r="N22">
         <v>447</v>
@@ -10644,22 +11760,22 @@
         <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>807</v>
+        <v>899</v>
       </c>
       <c r="E23" t="s">
-        <v>864</v>
+        <v>963</v>
       </c>
       <c r="F23" t="s">
-        <v>921</v>
+        <v>1027</v>
       </c>
       <c r="G23" t="s">
-        <v>977</v>
+        <v>1090</v>
       </c>
       <c r="H23" t="s">
-        <v>1033</v>
+        <v>1153</v>
       </c>
       <c r="I23" t="s">
-        <v>1089</v>
+        <v>1216</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -10688,37 +11804,37 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>809</v>
+        <v>901</v>
       </c>
       <c r="E24" t="s">
-        <v>866</v>
+        <v>965</v>
       </c>
       <c r="F24" t="s">
-        <v>923</v>
+        <v>1029</v>
       </c>
       <c r="G24" t="s">
-        <v>978</v>
+        <v>1091</v>
       </c>
       <c r="H24" t="s">
-        <v>1035</v>
+        <v>1155</v>
       </c>
       <c r="I24" t="s">
-        <v>1091</v>
+        <v>1218</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24">
-        <v>60.197124999999993</v>
+        <v>60.196832298136648</v>
       </c>
       <c r="L24">
-        <v>1.2874008155186405</v>
+        <v>1.2967884950920212</v>
       </c>
       <c r="M24">
-        <v>1.3845642216937986</v>
+        <v>1.3847632578663127</v>
       </c>
       <c r="N24">
         <v>528</v>
@@ -10738,22 +11854,22 @@
         <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>810</v>
+        <v>902</v>
       </c>
       <c r="E25" t="s">
-        <v>867</v>
+        <v>966</v>
       </c>
       <c r="F25" t="s">
-        <v>924</v>
+        <v>1030</v>
       </c>
       <c r="G25" t="s">
-        <v>979</v>
+        <v>1092</v>
       </c>
       <c r="H25" t="s">
-        <v>1036</v>
+        <v>1156</v>
       </c>
       <c r="I25" t="s">
-        <v>1092</v>
+        <v>1219</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -10782,37 +11898,37 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>811</v>
+        <v>903</v>
       </c>
       <c r="E26" t="s">
-        <v>868</v>
+        <v>967</v>
       </c>
       <c r="F26" t="s">
-        <v>925</v>
+        <v>1031</v>
       </c>
       <c r="G26" t="s">
-        <v>980</v>
+        <v>1093</v>
       </c>
       <c r="H26" t="s">
-        <v>1037</v>
+        <v>1157</v>
       </c>
       <c r="I26" t="s">
-        <v>1093</v>
+        <v>1220</v>
       </c>
       <c r="J26">
         <v>11</v>
       </c>
       <c r="K26">
-        <v>60.208118279569888</v>
+        <v>60.207807486631019</v>
       </c>
       <c r="L26">
-        <v>1.2818270912938132</v>
+        <v>1.289939338007926</v>
       </c>
       <c r="M26">
-        <v>1.3735006100874503</v>
+        <v>1.373731136479863</v>
       </c>
       <c r="N26">
         <v>609</v>
@@ -10832,22 +11948,22 @@
         <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>812</v>
+        <v>904</v>
       </c>
       <c r="E27" t="s">
-        <v>869</v>
+        <v>968</v>
       </c>
       <c r="F27" t="s">
-        <v>926</v>
+        <v>1032</v>
       </c>
       <c r="G27" t="s">
-        <v>981</v>
+        <v>1094</v>
       </c>
       <c r="H27" t="s">
-        <v>1038</v>
+        <v>1158</v>
       </c>
       <c r="I27" t="s">
-        <v>1094</v>
+        <v>1221</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -10876,37 +11992,37 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>813</v>
+        <v>905</v>
       </c>
       <c r="E28" t="s">
-        <v>870</v>
+        <v>969</v>
       </c>
       <c r="F28" t="s">
-        <v>927</v>
+        <v>1033</v>
       </c>
       <c r="G28" t="s">
-        <v>982</v>
+        <v>1095</v>
       </c>
       <c r="H28" t="s">
-        <v>1039</v>
+        <v>1159</v>
       </c>
       <c r="I28" t="s">
-        <v>1095</v>
+        <v>1222</v>
       </c>
       <c r="J28">
         <v>12</v>
       </c>
       <c r="K28">
-        <v>60.21009999999999</v>
+        <v>60.209800995024878</v>
       </c>
       <c r="L28">
-        <v>1.2816525108028491</v>
+        <v>1.2892005939671778</v>
       </c>
       <c r="M28">
-        <v>1.4283022558533629</v>
+        <v>1.4282440806773191</v>
       </c>
       <c r="N28">
         <v>681</v>
@@ -10926,22 +12042,22 @@
         <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>812</v>
+        <v>904</v>
       </c>
       <c r="E29" t="s">
-        <v>869</v>
+        <v>968</v>
       </c>
       <c r="F29" t="s">
-        <v>926</v>
+        <v>1032</v>
       </c>
       <c r="G29" t="s">
-        <v>981</v>
+        <v>1094</v>
       </c>
       <c r="H29" t="s">
-        <v>1038</v>
+        <v>1158</v>
       </c>
       <c r="I29" t="s">
-        <v>1094</v>
+        <v>1221</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -10970,37 +12086,37 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>814</v>
+        <v>906</v>
       </c>
       <c r="E30" t="s">
-        <v>871</v>
+        <v>970</v>
       </c>
       <c r="F30" t="s">
-        <v>928</v>
+        <v>1034</v>
       </c>
       <c r="G30" t="s">
-        <v>983</v>
+        <v>1096</v>
       </c>
       <c r="H30" t="s">
-        <v>1040</v>
+        <v>1160</v>
       </c>
       <c r="I30" t="s">
-        <v>1096</v>
+        <v>1223</v>
       </c>
       <c r="J30">
         <v>13</v>
       </c>
       <c r="K30">
-        <v>60.206409090909084</v>
+        <v>60.206153846153846</v>
       </c>
       <c r="L30">
-        <v>1.289418949686115</v>
+        <v>1.2962488061437929</v>
       </c>
       <c r="M30">
-        <v>1.4186613849893497</v>
+        <v>1.4186520983851834</v>
       </c>
       <c r="N30">
         <v>744</v>
@@ -11020,22 +12136,22 @@
         <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>815</v>
+        <v>907</v>
       </c>
       <c r="E31" t="s">
-        <v>872</v>
+        <v>971</v>
       </c>
       <c r="F31" t="s">
-        <v>929</v>
+        <v>1035</v>
       </c>
       <c r="G31" t="s">
-        <v>984</v>
+        <v>1097</v>
       </c>
       <c r="H31" t="s">
-        <v>1041</v>
+        <v>1161</v>
       </c>
       <c r="I31" t="s">
-        <v>1097</v>
+        <v>1224</v>
       </c>
       <c r="J31">
         <v>12</v>
@@ -11064,37 +12180,37 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>816</v>
+        <v>908</v>
       </c>
       <c r="E32" t="s">
-        <v>873</v>
+        <v>972</v>
       </c>
       <c r="F32" t="s">
-        <v>930</v>
+        <v>1036</v>
       </c>
       <c r="G32" t="s">
-        <v>985</v>
+        <v>1098</v>
       </c>
       <c r="H32" t="s">
-        <v>1042</v>
+        <v>1162</v>
       </c>
       <c r="I32" t="s">
-        <v>1098</v>
+        <v>1225</v>
       </c>
       <c r="J32">
         <v>14</v>
       </c>
       <c r="K32">
-        <v>60.198907563025202</v>
+        <v>60.19870292887029</v>
       </c>
       <c r="L32">
-        <v>1.295337353520118</v>
+        <v>1.3016280642871172</v>
       </c>
       <c r="M32">
-        <v>1.4067066351579085</v>
+        <v>1.4067480678370328</v>
       </c>
       <c r="N32">
         <v>798</v>
@@ -11114,22 +12230,22 @@
         <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>815</v>
+        <v>907</v>
       </c>
       <c r="E33" t="s">
-        <v>872</v>
+        <v>971</v>
       </c>
       <c r="F33" t="s">
-        <v>929</v>
+        <v>1035</v>
       </c>
       <c r="G33" t="s">
-        <v>984</v>
+        <v>1097</v>
       </c>
       <c r="H33" t="s">
-        <v>1041</v>
+        <v>1161</v>
       </c>
       <c r="I33" t="s">
-        <v>1097</v>
+        <v>1224</v>
       </c>
       <c r="J33">
         <v>12</v>
@@ -11158,37 +12274,37 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>817</v>
+        <v>909</v>
       </c>
       <c r="E34" t="s">
-        <v>874</v>
+        <v>973</v>
       </c>
       <c r="F34" t="s">
-        <v>931</v>
+        <v>1037</v>
       </c>
       <c r="G34" t="s">
-        <v>986</v>
+        <v>1099</v>
       </c>
       <c r="H34" t="s">
-        <v>1043</v>
+        <v>1163</v>
       </c>
       <c r="I34" t="s">
-        <v>1099</v>
+        <v>1226</v>
       </c>
       <c r="J34">
         <v>15</v>
       </c>
       <c r="K34">
-        <v>60.19671698113207</v>
+        <v>60.196541353383459</v>
       </c>
       <c r="L34">
-        <v>1.2922193204875814</v>
+        <v>1.297883222391135</v>
       </c>
       <c r="M34">
-        <v>1.3916697906283855</v>
+        <v>1.391763547225529</v>
       </c>
       <c r="N34">
         <v>879</v>
@@ -11208,22 +12324,22 @@
         <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>818</v>
+        <v>910</v>
       </c>
       <c r="E35" t="s">
-        <v>875</v>
+        <v>974</v>
       </c>
       <c r="F35" t="s">
-        <v>932</v>
+        <v>1038</v>
       </c>
       <c r="G35" t="s">
-        <v>987</v>
+        <v>1100</v>
       </c>
       <c r="H35" t="s">
-        <v>1044</v>
+        <v>1164</v>
       </c>
       <c r="I35" t="s">
-        <v>1100</v>
+        <v>1227</v>
       </c>
       <c r="J35">
         <v>13</v>
@@ -11252,37 +12368,37 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D36" t="s">
-        <v>819</v>
+        <v>911</v>
       </c>
       <c r="E36" t="s">
-        <v>876</v>
+        <v>975</v>
       </c>
       <c r="F36" t="s">
-        <v>933</v>
+        <v>1039</v>
       </c>
       <c r="G36" t="s">
-        <v>988</v>
+        <v>1101</v>
       </c>
       <c r="H36" t="s">
-        <v>1045</v>
+        <v>1165</v>
       </c>
       <c r="I36" t="s">
-        <v>1101</v>
+        <v>1228</v>
       </c>
       <c r="J36">
         <v>16</v>
       </c>
       <c r="K36">
-        <v>60.197689530685913</v>
+        <v>60.197517985611512</v>
       </c>
       <c r="L36">
-        <v>1.2911792397106061</v>
+        <v>1.2966023979376644</v>
       </c>
       <c r="M36">
-        <v>1.3995171090589296</v>
+        <v>1.3995785908445757</v>
       </c>
       <c r="N36">
         <v>924</v>
@@ -11302,22 +12418,22 @@
         <v>288</v>
       </c>
       <c r="D37" t="s">
-        <v>820</v>
+        <v>912</v>
       </c>
       <c r="E37" t="s">
-        <v>877</v>
+        <v>976</v>
       </c>
       <c r="F37" t="s">
-        <v>934</v>
+        <v>1040</v>
       </c>
       <c r="G37" t="s">
-        <v>989</v>
+        <v>1102</v>
       </c>
       <c r="H37" t="s">
-        <v>1046</v>
+        <v>1166</v>
       </c>
       <c r="I37" t="s">
-        <v>1102</v>
+        <v>1229</v>
       </c>
       <c r="J37">
         <v>14</v>
@@ -11346,37 +12462,37 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D38" t="s">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="E38" t="s">
-        <v>878</v>
+        <v>977</v>
       </c>
       <c r="F38" t="s">
-        <v>935</v>
+        <v>1041</v>
       </c>
       <c r="G38" t="s">
-        <v>990</v>
+        <v>1103</v>
       </c>
       <c r="H38" t="s">
-        <v>1047</v>
+        <v>1167</v>
       </c>
       <c r="I38" t="s">
-        <v>1103</v>
+        <v>1230</v>
       </c>
       <c r="J38">
         <v>17</v>
       </c>
       <c r="K38">
-        <v>60.198056537102474</v>
+        <v>60.197887323943668</v>
       </c>
       <c r="L38">
-        <v>1.2886391497722196</v>
+        <v>1.2939566782125738</v>
       </c>
       <c r="M38">
-        <v>1.4232024019826097</v>
+        <v>1.4231791859385463</v>
       </c>
       <c r="N38">
         <v>960</v>
@@ -11396,22 +12512,22 @@
         <v>295</v>
       </c>
       <c r="D39" t="s">
-        <v>822</v>
+        <v>914</v>
       </c>
       <c r="E39" t="s">
-        <v>879</v>
+        <v>978</v>
       </c>
       <c r="F39" t="s">
-        <v>936</v>
+        <v>1042</v>
       </c>
       <c r="G39" t="s">
-        <v>991</v>
+        <v>1104</v>
       </c>
       <c r="H39" t="s">
-        <v>1048</v>
+        <v>1168</v>
       </c>
       <c r="I39" t="s">
-        <v>1104</v>
+        <v>1231</v>
       </c>
       <c r="J39">
         <v>15</v>
@@ -11440,37 +12556,37 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D40" t="s">
-        <v>823</v>
+        <v>915</v>
       </c>
       <c r="E40" t="s">
-        <v>880</v>
+        <v>979</v>
       </c>
       <c r="F40" t="s">
-        <v>937</v>
+        <v>1043</v>
       </c>
       <c r="G40" t="s">
-        <v>992</v>
+        <v>1105</v>
       </c>
       <c r="H40" t="s">
-        <v>1049</v>
+        <v>1169</v>
       </c>
       <c r="I40" t="s">
-        <v>1105</v>
+        <v>1232</v>
       </c>
       <c r="J40">
         <v>18</v>
       </c>
       <c r="K40">
-        <v>60.205741935483864</v>
+        <v>60.205562700964634</v>
       </c>
       <c r="L40">
-        <v>1.2868365794261254</v>
+        <v>1.2916982535335426</v>
       </c>
       <c r="M40">
-        <v>1.4087135196419485</v>
+        <v>1.4087389071847993</v>
       </c>
       <c r="N40">
         <v>1041</v>
@@ -11490,22 +12606,22 @@
         <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>824</v>
+        <v>916</v>
       </c>
       <c r="E41" t="s">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="F41" t="s">
-        <v>938</v>
+        <v>1044</v>
       </c>
       <c r="G41" t="s">
-        <v>993</v>
+        <v>1106</v>
       </c>
       <c r="H41" t="s">
-        <v>1050</v>
+        <v>1170</v>
       </c>
       <c r="I41" t="s">
-        <v>1106</v>
+        <v>1233</v>
       </c>
       <c r="J41">
         <v>16</v>
@@ -11534,37 +12650,37 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D42" t="s">
-        <v>825</v>
+        <v>917</v>
       </c>
       <c r="E42" t="s">
-        <v>882</v>
+        <v>981</v>
       </c>
       <c r="F42" t="s">
-        <v>939</v>
+        <v>1045</v>
       </c>
       <c r="G42" t="s">
-        <v>994</v>
+        <v>1107</v>
       </c>
       <c r="H42" t="s">
-        <v>1051</v>
+        <v>1171</v>
       </c>
       <c r="I42" t="s">
-        <v>1107</v>
+        <v>1234</v>
       </c>
       <c r="J42">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>60.211543026706224</v>
+        <v>60.211360946745557</v>
       </c>
       <c r="L42">
-        <v>1.2854099373680412</v>
+        <v>1.2898874737274044</v>
       </c>
       <c r="M42">
-        <v>1.4077499851220547</v>
+        <v>1.4077761953597665</v>
       </c>
       <c r="N42">
         <v>1131</v>
@@ -11584,22 +12700,22 @@
         <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>826</v>
+        <v>918</v>
       </c>
       <c r="E43" t="s">
-        <v>883</v>
+        <v>982</v>
       </c>
       <c r="F43" t="s">
-        <v>940</v>
+        <v>1046</v>
       </c>
       <c r="G43" t="s">
-        <v>995</v>
+        <v>1108</v>
       </c>
       <c r="H43" t="s">
-        <v>1052</v>
+        <v>1172</v>
       </c>
       <c r="I43" t="s">
-        <v>1108</v>
+        <v>1235</v>
       </c>
       <c r="J43">
         <v>17</v>
@@ -11628,37 +12744,37 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
-        <v>827</v>
+        <v>919</v>
       </c>
       <c r="E44" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="F44" t="s">
-        <v>941</v>
+        <v>1047</v>
       </c>
       <c r="G44" t="s">
-        <v>996</v>
+        <v>1109</v>
       </c>
       <c r="H44" t="s">
-        <v>1053</v>
+        <v>1173</v>
       </c>
       <c r="I44" t="s">
-        <v>1109</v>
+        <v>1236</v>
       </c>
       <c r="J44">
         <v>20</v>
       </c>
       <c r="K44">
-        <v>60.213960674157299</v>
+        <v>60.213781512605038</v>
       </c>
       <c r="L44">
-        <v>1.2839113191397868</v>
+        <v>1.2881547530548936</v>
       </c>
       <c r="M44">
-        <v>1.4173900429116972</v>
+        <v>1.4173878552437895</v>
       </c>
       <c r="N44">
         <v>1203</v>
@@ -11678,22 +12794,22 @@
         <v>363</v>
       </c>
       <c r="D45" t="s">
-        <v>828</v>
+        <v>920</v>
       </c>
       <c r="E45" t="s">
-        <v>885</v>
+        <v>984</v>
       </c>
       <c r="F45" t="s">
-        <v>942</v>
+        <v>1048</v>
       </c>
       <c r="G45" t="s">
-        <v>997</v>
+        <v>1110</v>
       </c>
       <c r="H45" t="s">
-        <v>1054</v>
+        <v>1174</v>
       </c>
       <c r="I45" t="s">
-        <v>1110</v>
+        <v>1237</v>
       </c>
       <c r="J45">
         <v>18</v>
@@ -11722,37 +12838,37 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>829</v>
+        <v>921</v>
       </c>
       <c r="E46" t="s">
-        <v>886</v>
+        <v>985</v>
       </c>
       <c r="F46" t="s">
-        <v>943</v>
+        <v>1049</v>
       </c>
       <c r="G46" t="s">
-        <v>998</v>
+        <v>1111</v>
       </c>
       <c r="H46" t="s">
-        <v>1055</v>
+        <v>1175</v>
       </c>
       <c r="I46" t="s">
-        <v>1111</v>
+        <v>1238</v>
       </c>
       <c r="J46">
         <v>21</v>
       </c>
       <c r="K46">
-        <v>60.217150395778361</v>
+        <v>60.216973684210529</v>
       </c>
       <c r="L46">
-        <v>1.2825881501293659</v>
+        <v>1.2865782266470067</v>
       </c>
       <c r="M46">
-        <v>1.4109897582744422</v>
+        <v>1.4110045458723215</v>
       </c>
       <c r="N46">
         <v>1275</v>
@@ -11772,22 +12888,22 @@
         <v>384</v>
       </c>
       <c r="D47" t="s">
-        <v>830</v>
+        <v>922</v>
       </c>
       <c r="E47" t="s">
-        <v>887</v>
+        <v>986</v>
       </c>
       <c r="F47" t="s">
-        <v>944</v>
+        <v>1050</v>
       </c>
       <c r="G47" t="s">
-        <v>999</v>
+        <v>1112</v>
       </c>
       <c r="H47" t="s">
-        <v>1056</v>
+        <v>1176</v>
       </c>
       <c r="I47" t="s">
-        <v>1112</v>
+        <v>1239</v>
       </c>
       <c r="J47">
         <v>19</v>
@@ -11816,37 +12932,37 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="E48" t="s">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="F48" t="s">
-        <v>945</v>
+        <v>1051</v>
       </c>
       <c r="G48" t="s">
-        <v>1000</v>
+        <v>1113</v>
       </c>
       <c r="H48" t="s">
-        <v>1057</v>
+        <v>1177</v>
       </c>
       <c r="I48" t="s">
-        <v>1113</v>
+        <v>1240</v>
       </c>
       <c r="J48">
         <v>22</v>
       </c>
       <c r="K48">
-        <v>60.22092964824121</v>
+        <v>60.22075187969925</v>
       </c>
       <c r="L48">
-        <v>1.281901948377169</v>
+        <v>1.2857037410550027</v>
       </c>
       <c r="M48">
-        <v>1.4099360613639995</v>
+        <v>1.4099527856349383</v>
       </c>
       <c r="N48">
         <v>1338</v>
@@ -11866,22 +12982,22 @@
         <v>399</v>
       </c>
       <c r="D49" t="s">
-        <v>832</v>
+        <v>924</v>
       </c>
       <c r="E49" t="s">
-        <v>889</v>
+        <v>988</v>
       </c>
       <c r="F49" t="s">
-        <v>946</v>
+        <v>1052</v>
       </c>
       <c r="G49" t="s">
-        <v>1001</v>
+        <v>1114</v>
       </c>
       <c r="H49" t="s">
-        <v>1058</v>
+        <v>1178</v>
       </c>
       <c r="I49" t="s">
-        <v>1114</v>
+        <v>1241</v>
       </c>
       <c r="J49">
         <v>20</v>
@@ -11910,37 +13026,37 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>833</v>
+        <v>925</v>
       </c>
       <c r="E50" t="s">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="F50" t="s">
-        <v>947</v>
+        <v>1053</v>
       </c>
       <c r="G50" t="s">
-        <v>1002</v>
+        <v>1115</v>
       </c>
       <c r="H50" t="s">
-        <v>1059</v>
+        <v>1179</v>
       </c>
       <c r="I50" t="s">
-        <v>1115</v>
+        <v>1242</v>
       </c>
       <c r="J50">
         <v>23</v>
       </c>
       <c r="K50">
-        <v>60.220143884892082</v>
+        <v>60.219976076555028</v>
       </c>
       <c r="L50">
-        <v>1.2822575448346485</v>
+        <v>1.2858856780451706</v>
       </c>
       <c r="M50">
-        <v>1.4181302395346906</v>
+        <v>1.4181266003144368</v>
       </c>
       <c r="N50">
         <v>1410</v>
@@ -11960,22 +13076,22 @@
         <v>423</v>
       </c>
       <c r="D51" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
       <c r="E51" t="s">
-        <v>891</v>
+        <v>990</v>
       </c>
       <c r="F51" t="s">
-        <v>948</v>
+        <v>1054</v>
       </c>
       <c r="G51" t="s">
-        <v>1003</v>
+        <v>1116</v>
       </c>
       <c r="H51" t="s">
-        <v>1060</v>
+        <v>1180</v>
       </c>
       <c r="I51" t="s">
-        <v>1116</v>
+        <v>1243</v>
       </c>
       <c r="J51">
         <v>21</v>
@@ -12004,37 +13120,37 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D52" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="E52" t="s">
-        <v>892</v>
+        <v>991</v>
       </c>
       <c r="F52" t="s">
-        <v>949</v>
+        <v>1055</v>
       </c>
       <c r="G52" t="s">
-        <v>1004</v>
+        <v>1117</v>
       </c>
       <c r="H52" t="s">
-        <v>1061</v>
+        <v>1181</v>
       </c>
       <c r="I52" t="s">
-        <v>1117</v>
+        <v>1244</v>
       </c>
       <c r="J52">
         <v>24</v>
       </c>
       <c r="K52">
-        <v>60.218064516129033</v>
+        <v>60.217908045977012</v>
       </c>
       <c r="L52">
-        <v>1.2815648815071492</v>
+        <v>1.2850528179331853</v>
       </c>
       <c r="M52">
-        <v>1.4148120237469104</v>
+        <v>1.4148161548313281</v>
       </c>
       <c r="N52">
         <v>1464</v>
@@ -12054,22 +13170,22 @@
         <v>447</v>
       </c>
       <c r="D53" t="s">
-        <v>836</v>
+        <v>928</v>
       </c>
       <c r="E53" t="s">
-        <v>893</v>
+        <v>992</v>
       </c>
       <c r="F53" t="s">
-        <v>950</v>
+        <v>1056</v>
       </c>
       <c r="G53" t="s">
-        <v>1005</v>
+        <v>1118</v>
       </c>
       <c r="H53" t="s">
-        <v>1062</v>
+        <v>1182</v>
       </c>
       <c r="I53" t="s">
-        <v>1118</v>
+        <v>1245</v>
       </c>
       <c r="J53">
         <v>22</v>
@@ -12098,37 +13214,37 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D54" t="s">
-        <v>837</v>
+        <v>929</v>
       </c>
       <c r="E54" t="s">
-        <v>894</v>
+        <v>993</v>
       </c>
       <c r="F54" t="s">
-        <v>951</v>
+        <v>1057</v>
       </c>
       <c r="G54" t="s">
-        <v>1006</v>
+        <v>1119</v>
       </c>
       <c r="H54" t="s">
-        <v>1063</v>
+        <v>1183</v>
       </c>
       <c r="I54" t="s">
-        <v>1119</v>
+        <v>1246</v>
       </c>
       <c r="J54">
         <v>25</v>
       </c>
       <c r="K54">
-        <v>60.216842105263161</v>
+        <v>60.216695842450768</v>
       </c>
       <c r="L54">
-        <v>1.2812460781192025</v>
+        <v>1.2845668027334556</v>
       </c>
       <c r="M54">
-        <v>1.4210878972189558</v>
+        <v>1.4210780966680798</v>
       </c>
       <c r="N54">
         <v>1545</v>
@@ -12148,22 +13264,22 @@
         <v>447</v>
       </c>
       <c r="D55" t="s">
-        <v>836</v>
+        <v>928</v>
       </c>
       <c r="E55" t="s">
-        <v>893</v>
+        <v>992</v>
       </c>
       <c r="F55" t="s">
-        <v>950</v>
+        <v>1056</v>
       </c>
       <c r="G55" t="s">
-        <v>1005</v>
+        <v>1118</v>
       </c>
       <c r="H55" t="s">
-        <v>1062</v>
+        <v>1182</v>
       </c>
       <c r="I55" t="s">
-        <v>1118</v>
+        <v>1245</v>
       </c>
       <c r="J55">
         <v>22</v>
@@ -12192,37 +13308,37 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
-        <v>838</v>
+        <v>930</v>
       </c>
       <c r="E56" t="s">
-        <v>895</v>
+        <v>994</v>
       </c>
       <c r="F56" t="s">
-        <v>952</v>
+        <v>1058</v>
       </c>
       <c r="G56" t="s">
-        <v>1007</v>
+        <v>1120</v>
       </c>
       <c r="H56" t="s">
-        <v>1064</v>
+        <v>1184</v>
       </c>
       <c r="I56" t="s">
-        <v>1120</v>
+        <v>1247</v>
       </c>
       <c r="J56">
         <v>26</v>
       </c>
       <c r="K56">
-        <v>60.217828810020876</v>
+        <v>60.217687500000004</v>
       </c>
       <c r="L56">
-        <v>1.2808212353029733</v>
+        <v>1.283983726951994</v>
       </c>
       <c r="M56">
-        <v>1.4237547875378562</v>
+        <v>1.4237399005752118</v>
       </c>
       <c r="N56">
         <v>1626</v>
@@ -12242,22 +13358,22 @@
         <v>471</v>
       </c>
       <c r="D57" t="s">
-        <v>839</v>
+        <v>931</v>
       </c>
       <c r="E57" t="s">
-        <v>896</v>
+        <v>995</v>
       </c>
       <c r="F57" t="s">
-        <v>953</v>
+        <v>1059</v>
       </c>
       <c r="G57" t="s">
-        <v>1008</v>
+        <v>1121</v>
       </c>
       <c r="H57" t="s">
-        <v>1065</v>
+        <v>1185</v>
       </c>
       <c r="I57" t="s">
-        <v>1121</v>
+        <v>1248</v>
       </c>
       <c r="J57">
         <v>23</v>
@@ -12286,37 +13402,37 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D58" t="s">
-        <v>840</v>
+        <v>932</v>
       </c>
       <c r="E58" t="s">
-        <v>897</v>
+        <v>996</v>
       </c>
       <c r="F58" t="s">
-        <v>954</v>
+        <v>1060</v>
       </c>
       <c r="G58" t="s">
-        <v>1009</v>
+        <v>1122</v>
       </c>
       <c r="H58" t="s">
-        <v>1066</v>
+        <v>1186</v>
       </c>
       <c r="I58" t="s">
-        <v>1122</v>
+        <v>1249</v>
       </c>
       <c r="J58">
         <v>27</v>
       </c>
       <c r="K58">
-        <v>60.21914512922465</v>
+        <v>60.219007936507936</v>
       </c>
       <c r="L58">
-        <v>1.2808816218752441</v>
+        <v>1.2838933988692076</v>
       </c>
       <c r="M58">
-        <v>1.4233329645132788</v>
+        <v>1.4233196234040633</v>
       </c>
       <c r="N58">
         <v>1707</v>
@@ -12336,22 +13452,22 @@
         <v>498</v>
       </c>
       <c r="D59" t="s">
-        <v>841</v>
+        <v>933</v>
       </c>
       <c r="E59" t="s">
-        <v>898</v>
+        <v>997</v>
       </c>
       <c r="F59" t="s">
-        <v>955</v>
+        <v>1061</v>
       </c>
       <c r="G59" t="s">
-        <v>1010</v>
+        <v>1123</v>
       </c>
       <c r="H59" t="s">
-        <v>1067</v>
+        <v>1187</v>
       </c>
       <c r="I59" t="s">
-        <v>1123</v>
+        <v>1250</v>
       </c>
       <c r="J59">
         <v>24</v>
@@ -12380,37 +13496,37 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D60" t="s">
-        <v>842</v>
+        <v>934</v>
       </c>
       <c r="E60" t="s">
-        <v>899</v>
+        <v>998</v>
       </c>
       <c r="F60" t="s">
-        <v>956</v>
+        <v>1062</v>
       </c>
       <c r="G60" t="s">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="H60" t="s">
-        <v>1068</v>
+        <v>1188</v>
       </c>
       <c r="I60" t="s">
-        <v>1124</v>
+        <v>1251</v>
       </c>
       <c r="J60">
         <v>28</v>
       </c>
       <c r="K60">
-        <v>60.220931558935362</v>
+        <v>60.220796963946867</v>
       </c>
       <c r="L60">
-        <v>1.2810069446960146</v>
+        <v>1.2838870401080389</v>
       </c>
       <c r="M60">
-        <v>1.4184676994670014</v>
+        <v>1.4184641726093195</v>
       </c>
       <c r="N60">
         <v>1779</v>
@@ -12430,22 +13546,22 @@
         <v>522</v>
       </c>
       <c r="D61" t="s">
-        <v>843</v>
+        <v>935</v>
       </c>
       <c r="E61" t="s">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="F61" t="s">
-        <v>957</v>
+        <v>1063</v>
       </c>
       <c r="G61" t="s">
-        <v>1012</v>
+        <v>1125</v>
       </c>
       <c r="H61" t="s">
-        <v>1069</v>
+        <v>1189</v>
       </c>
       <c r="I61" t="s">
-        <v>1125</v>
+        <v>1252</v>
       </c>
       <c r="J61">
         <v>25</v>
@@ -12474,37 +13590,37 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D62" t="s">
-        <v>844</v>
+        <v>936</v>
       </c>
       <c r="E62" t="s">
-        <v>901</v>
+        <v>1000</v>
       </c>
       <c r="F62" t="s">
-        <v>958</v>
+        <v>1064</v>
       </c>
       <c r="G62" t="s">
-        <v>1013</v>
+        <v>1126</v>
       </c>
       <c r="H62" t="s">
-        <v>1070</v>
+        <v>1190</v>
       </c>
       <c r="I62" t="s">
-        <v>1126</v>
+        <v>1253</v>
       </c>
       <c r="J62">
         <v>29</v>
       </c>
       <c r="K62">
-        <v>60.225919854280505</v>
+        <v>60.225781818181815</v>
       </c>
       <c r="L62">
-        <v>1.2813203637850217</v>
+        <v>1.2840794489905631</v>
       </c>
       <c r="M62">
-        <v>1.4139372107601282</v>
+        <v>1.4139420686414164</v>
       </c>
       <c r="N62">
         <v>1851</v>
@@ -12524,22 +13640,22 @@
         <v>522</v>
       </c>
       <c r="D63" t="s">
-        <v>843</v>
+        <v>935</v>
       </c>
       <c r="E63" t="s">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="F63" t="s">
-        <v>957</v>
+        <v>1063</v>
       </c>
       <c r="G63" t="s">
-        <v>1012</v>
+        <v>1125</v>
       </c>
       <c r="H63" t="s">
-        <v>1069</v>
+        <v>1189</v>
       </c>
       <c r="I63" t="s">
-        <v>1125</v>
+        <v>1252</v>
       </c>
       <c r="J63">
         <v>25</v>
@@ -12568,37 +13684,37 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D64" t="s">
-        <v>845</v>
+        <v>937</v>
       </c>
       <c r="E64" t="s">
-        <v>902</v>
+        <v>1001</v>
       </c>
       <c r="F64" t="s">
-        <v>959</v>
+        <v>1065</v>
       </c>
       <c r="G64" t="s">
-        <v>1014</v>
+        <v>1127</v>
       </c>
       <c r="H64" t="s">
-        <v>1071</v>
+        <v>1191</v>
       </c>
       <c r="I64" t="s">
-        <v>1127</v>
+        <v>1254</v>
       </c>
       <c r="J64">
         <v>30</v>
       </c>
       <c r="K64">
-        <v>60.231982608695652</v>
+        <v>60.231840277777778</v>
       </c>
       <c r="L64">
-        <v>1.2817315713099502</v>
+        <v>1.2843654005730107</v>
       </c>
       <c r="M64">
-        <v>1.3936657497280993</v>
+        <v>1.39370558183876</v>
       </c>
       <c r="N64">
         <v>1911</v>
@@ -12618,22 +13734,22 @@
         <v>546</v>
       </c>
       <c r="D65" t="s">
-        <v>846</v>
+        <v>938</v>
       </c>
       <c r="E65" t="s">
-        <v>903</v>
+        <v>1002</v>
       </c>
       <c r="F65" t="s">
-        <v>960</v>
+        <v>1066</v>
       </c>
       <c r="G65" t="s">
-        <v>1015</v>
+        <v>1128</v>
       </c>
       <c r="H65" t="s">
-        <v>1072</v>
+        <v>1192</v>
       </c>
       <c r="I65" t="s">
-        <v>1128</v>
+        <v>1255</v>
       </c>
       <c r="J65">
         <v>26</v>
@@ -12656,43 +13772,43 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D66" t="s">
-        <v>847</v>
+        <v>939</v>
       </c>
       <c r="E66" t="s">
-        <v>904</v>
+        <v>1003</v>
       </c>
       <c r="F66" t="s">
-        <v>961</v>
+        <v>1067</v>
       </c>
       <c r="G66" t="s">
-        <v>1016</v>
+        <v>1129</v>
       </c>
       <c r="H66" t="s">
-        <v>1073</v>
+        <v>1193</v>
       </c>
       <c r="I66" t="s">
-        <v>1129</v>
+        <v>1256</v>
       </c>
       <c r="J66">
         <v>31</v>
       </c>
       <c r="K66">
-        <v>60.239600665557404</v>
+        <v>60.237495826377298</v>
       </c>
       <c r="L66">
-        <v>1.2814881374170641</v>
+        <v>1.2835027899141933</v>
       </c>
       <c r="M66">
-        <v>1.3333740534004279</v>
+        <v>1.3401910102489578</v>
       </c>
       <c r="N66">
         <v>1911</v>
@@ -12703,49 +13819,425 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D67" t="s">
-        <v>848</v>
+        <v>940</v>
       </c>
       <c r="E67" t="s">
-        <v>905</v>
+        <v>1004</v>
       </c>
       <c r="F67" t="s">
-        <v>962</v>
+        <v>1068</v>
       </c>
       <c r="G67" t="s">
-        <v>1017</v>
+        <v>1130</v>
       </c>
       <c r="H67" t="s">
-        <v>1074</v>
+        <v>1194</v>
       </c>
       <c r="I67" t="s">
-        <v>1130</v>
+        <v>1257</v>
       </c>
       <c r="J67">
         <v>27</v>
       </c>
       <c r="K67">
-        <v>60.185629370629371</v>
+        <v>60.187028469750892</v>
       </c>
       <c r="L67">
-        <v>1.3326179205415343</v>
+        <v>1.3319150859112661</v>
       </c>
       <c r="M67">
-        <v>1.3513992256157219</v>
+        <v>1.3754454751818379</v>
       </c>
       <c r="N67">
         <v>1842</v>
       </c>
       <c r="O67">
         <v>2173.75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>625</v>
+      </c>
+      <c r="D68" t="s">
+        <v>941</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J68">
+        <v>32</v>
+      </c>
+      <c r="K68">
+        <v>60.244592000000004</v>
+      </c>
+      <c r="L68">
+        <v>1.2831950211888576</v>
+      </c>
+      <c r="M68">
+        <v>1.2844390642226011</v>
+      </c>
+      <c r="N68">
+        <v>1911</v>
+      </c>
+      <c r="O68">
+        <v>2554.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>588</v>
+      </c>
+      <c r="D69" t="s">
+        <v>942</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J69">
+        <v>28</v>
+      </c>
+      <c r="K69">
+        <v>60.183724489795914</v>
+      </c>
+      <c r="L69">
+        <v>1.3332812768108377</v>
+      </c>
+      <c r="M69">
+        <v>1.3146264575717568</v>
+      </c>
+      <c r="N69">
+        <v>1842</v>
+      </c>
+      <c r="O69">
+        <v>2173.75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>649</v>
+      </c>
+      <c r="D70" t="s">
+        <v>943</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J70">
+        <v>33</v>
+      </c>
+      <c r="K70">
+        <v>60.248659476117112</v>
+      </c>
+      <c r="L70">
+        <v>1.2832965440940451</v>
+      </c>
+      <c r="M70">
+        <v>1.2833661816184163</v>
+      </c>
+      <c r="N70">
+        <v>1983</v>
+      </c>
+      <c r="O70">
+        <v>2636.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>612</v>
+      </c>
+      <c r="D71" t="s">
+        <v>944</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J71">
+        <v>29</v>
+      </c>
+      <c r="K71">
+        <v>60.181388888888883</v>
+      </c>
+      <c r="L71">
+        <v>1.336731742073533</v>
+      </c>
+      <c r="M71">
+        <v>1.3275944556882797</v>
+      </c>
+      <c r="N71">
+        <v>1936</v>
+      </c>
+      <c r="O71">
+        <v>2255.75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>659</v>
+      </c>
+      <c r="D72" t="s">
+        <v>945</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J72">
+        <v>34</v>
+      </c>
+      <c r="K72">
+        <v>60.24652503793628</v>
+      </c>
+      <c r="L72">
+        <v>1.2835358427187438</v>
+      </c>
+      <c r="M72">
+        <v>1.2868460886854614</v>
+      </c>
+      <c r="N72">
+        <v>2019</v>
+      </c>
+      <c r="O72">
+        <v>2636.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>627</v>
+      </c>
+      <c r="D73" t="s">
+        <v>946</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J73">
+        <v>30</v>
+      </c>
+      <c r="K73">
+        <v>60.180510366826148</v>
+      </c>
+      <c r="L73">
+        <v>1.3387425546813574</v>
+      </c>
+      <c r="M73">
+        <v>1.3320005657899472</v>
+      </c>
+      <c r="N73">
+        <v>1990</v>
+      </c>
+      <c r="O73">
+        <v>2390.25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>679</v>
+      </c>
+      <c r="D74" t="s">
+        <v>947</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J74">
+        <v>35</v>
+      </c>
+      <c r="K74">
+        <v>60.242209131075121</v>
+      </c>
+      <c r="L74">
+        <v>1.28370625640239</v>
+      </c>
+      <c r="M74">
+        <v>1.2489419329068028</v>
+      </c>
+      <c r="N74">
+        <v>2019</v>
+      </c>
+      <c r="O74">
+        <v>2636.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>627</v>
+      </c>
+      <c r="D75" t="s">
+        <v>946</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J75">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>60.180510366826148</v>
+      </c>
+      <c r="L75">
+        <v>1.3387425546813574</v>
+      </c>
+      <c r="M75">
+        <v>1.3320005657899472</v>
+      </c>
+      <c r="N75">
+        <v>1990</v>
+      </c>
+      <c r="O75">
+        <v>2390.25</v>
       </c>
     </row>
   </sheetData>
